--- a/Broker_Analysis.xlsx
+++ b/Broker_Analysis.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\OneDrive\Desktop\Others\python scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CABF673-423C-4B1E-A759-51CC0972FEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C9F1B4-56F4-4B4C-B82E-3F48E52867E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2025_06_09" sheetId="11" r:id="rId1"/>
+    <sheet name="2025_06_10" sheetId="11" r:id="rId1"/>
     <sheet name="2025-06-09" sheetId="10" r:id="rId2"/>
     <sheet name="2025-06-08" sheetId="9" r:id="rId3"/>
     <sheet name="2025-06-05" sheetId="8" r:id="rId4"/>
@@ -14967,7 +14967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEE11C3-3B44-4022-BB32-BDF73F267C1B}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Broker_Analysis.xlsx
+++ b/Broker_Analysis.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\OneDrive\Desktop\Others\python scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C9F1B4-56F4-4B4C-B82E-3F48E52867E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9A5F39-2FB2-4004-9F4B-CE196927FA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2025_06_10" sheetId="11" r:id="rId1"/>
-    <sheet name="2025-06-09" sheetId="10" r:id="rId2"/>
-    <sheet name="2025-06-08" sheetId="9" r:id="rId3"/>
-    <sheet name="2025-06-05" sheetId="8" r:id="rId4"/>
-    <sheet name="2025-06-04" sheetId="7" r:id="rId5"/>
-    <sheet name="2025-06-03" sheetId="6" r:id="rId6"/>
-    <sheet name="2025-06-02" sheetId="5" r:id="rId7"/>
-    <sheet name="2025-05-28" sheetId="4" r:id="rId8"/>
-    <sheet name="2025-05-21" sheetId="3" r:id="rId9"/>
-    <sheet name="2025-05-20" sheetId="2" r:id="rId10"/>
-    <sheet name="2025-05-19" sheetId="1" r:id="rId11"/>
+    <sheet name="2025-06-11" sheetId="12" r:id="rId1"/>
+    <sheet name="2025_06_10" sheetId="11" r:id="rId2"/>
+    <sheet name="2025-06-09" sheetId="10" r:id="rId3"/>
+    <sheet name="2025-06-08" sheetId="9" r:id="rId4"/>
+    <sheet name="2025-06-05" sheetId="8" r:id="rId5"/>
+    <sheet name="2025-06-04" sheetId="7" r:id="rId6"/>
+    <sheet name="2025-06-03" sheetId="6" r:id="rId7"/>
+    <sheet name="2025-06-02" sheetId="5" r:id="rId8"/>
+    <sheet name="2025-05-28" sheetId="4" r:id="rId9"/>
+    <sheet name="2025-05-21" sheetId="3" r:id="rId10"/>
+    <sheet name="2025-05-20" sheetId="2" r:id="rId11"/>
+    <sheet name="2025-05-19" sheetId="1" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6138" uniqueCount="4869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6696" uniqueCount="5293">
   <si>
     <t>B1</t>
   </si>
@@ -14642,6 +14643,1278 @@
   </si>
   <si>
     <t>BPCL/5500/582.47</t>
+  </si>
+  <si>
+    <t>RADHI/27611/784.42</t>
+  </si>
+  <si>
+    <t>NIFRA/84612/283.32</t>
+  </si>
+  <si>
+    <t>SHIVM/39089/522.31</t>
+  </si>
+  <si>
+    <t>NRN/9147/2,029.56</t>
+  </si>
+  <si>
+    <t>CHDC/6109/2,600.32</t>
+  </si>
+  <si>
+    <t>SHIVM/19222/528.74</t>
+  </si>
+  <si>
+    <t>OMPL/3840/1,621.13</t>
+  </si>
+  <si>
+    <t>HLI/14102/410.37</t>
+  </si>
+  <si>
+    <t>HPPL/11150/513.04</t>
+  </si>
+  <si>
+    <t>HIDCLP/21063/214.38</t>
+  </si>
+  <si>
+    <t>SARBTM/64961/846.41</t>
+  </si>
+  <si>
+    <t>API/48242/300.64</t>
+  </si>
+  <si>
+    <t>SAHAS/22507/525.54</t>
+  </si>
+  <si>
+    <t>SHIVM/21101/524.23</t>
+  </si>
+  <si>
+    <t>NMB/42522/244.11</t>
+  </si>
+  <si>
+    <t>HIDCLP/106443/209.43</t>
+  </si>
+  <si>
+    <t>HDL/7194/1,235.87</t>
+  </si>
+  <si>
+    <t>HRL/7243/966.66</t>
+  </si>
+  <si>
+    <t>CREST/3656/1,902.96</t>
+  </si>
+  <si>
+    <t>LBBL/15191/450.04</t>
+  </si>
+  <si>
+    <t>NRIC/505259/1,294.40</t>
+  </si>
+  <si>
+    <t>HRL/60086/952.99</t>
+  </si>
+  <si>
+    <t>HIDCLP/266206/209.73</t>
+  </si>
+  <si>
+    <t>UPCL/120997/441.71</t>
+  </si>
+  <si>
+    <t>SAHAS/42877/528.98</t>
+  </si>
+  <si>
+    <t>CHDC/11419/2,591.27</t>
+  </si>
+  <si>
+    <t>NRN/11724/2,045.24</t>
+  </si>
+  <si>
+    <t>UPCL/47893/434.73</t>
+  </si>
+  <si>
+    <t>SPDL/34865/385.56</t>
+  </si>
+  <si>
+    <t>RADHI/17119/763.90</t>
+  </si>
+  <si>
+    <t>LBBL/208096/460.51</t>
+  </si>
+  <si>
+    <t>SADBL/72001/426.97</t>
+  </si>
+  <si>
+    <t>CHDC/10522/2,571.20</t>
+  </si>
+  <si>
+    <t>LSL/112546/223.03</t>
+  </si>
+  <si>
+    <t>HIDCLP/101368/212.34</t>
+  </si>
+  <si>
+    <t>HIDCLP/61997/211.63</t>
+  </si>
+  <si>
+    <t>SHIVM/9346/528.17</t>
+  </si>
+  <si>
+    <t>NLICL/7492/623.35</t>
+  </si>
+  <si>
+    <t>NABIL/28139/493.95</t>
+  </si>
+  <si>
+    <t>NGPL/28314/388.48</t>
+  </si>
+  <si>
+    <t>ALICL/8573/679.36</t>
+  </si>
+  <si>
+    <t>UNHPL/17090/338.61</t>
+  </si>
+  <si>
+    <t>BARUN/8407/487.11</t>
+  </si>
+  <si>
+    <t>CREST/7911/1,973.48</t>
+  </si>
+  <si>
+    <t>NGPL/42034/387.39</t>
+  </si>
+  <si>
+    <t>BPCL/15153/659.96</t>
+  </si>
+  <si>
+    <t>NMIC/6130/2,056.82</t>
+  </si>
+  <si>
+    <t>UMHL/19212/516.04</t>
+  </si>
+  <si>
+    <t>CGH/53908/896.40</t>
+  </si>
+  <si>
+    <t>SAHAS/60029/527.94</t>
+  </si>
+  <si>
+    <t>HIDCLP/121430/209.85</t>
+  </si>
+  <si>
+    <t>HRL/26817/948.42</t>
+  </si>
+  <si>
+    <t>BARUN/50626/402.77</t>
+  </si>
+  <si>
+    <t>CHDC/26861/2,707.29</t>
+  </si>
+  <si>
+    <t>HURJA/258462/261.38</t>
+  </si>
+  <si>
+    <t>NMIC/31284/1,961.11</t>
+  </si>
+  <si>
+    <t>RADHI/54201/799.10</t>
+  </si>
+  <si>
+    <t>RHPL/104587/390.23</t>
+  </si>
+  <si>
+    <t>HIDCL/181410/312.20</t>
+  </si>
+  <si>
+    <t>HIDCLP/266340/214.12</t>
+  </si>
+  <si>
+    <t>SADBL/93251/424.97</t>
+  </si>
+  <si>
+    <t>SHIVM/63625/529.71</t>
+  </si>
+  <si>
+    <t>SPDL/47792/401.08</t>
+  </si>
+  <si>
+    <t>LICN/21239/970.78</t>
+  </si>
+  <si>
+    <t>CREST/6829/1,911.52</t>
+  </si>
+  <si>
+    <t>NLIC/13120/753.19</t>
+  </si>
+  <si>
+    <t>HDL/7168/1,211.49</t>
+  </si>
+  <si>
+    <t>SPDL/57208/388.52</t>
+  </si>
+  <si>
+    <t>LBBL/37634/466.01</t>
+  </si>
+  <si>
+    <t>UPCL/40702/439.71</t>
+  </si>
+  <si>
+    <t>OMPL/8620/1,785.96</t>
+  </si>
+  <si>
+    <t>BPCL/43421/571.06</t>
+  </si>
+  <si>
+    <t>CHDC/4937/2,562.01</t>
+  </si>
+  <si>
+    <t>NRN/6125/2,015.68</t>
+  </si>
+  <si>
+    <t>HIDCL/37336/310.69</t>
+  </si>
+  <si>
+    <t>SHIVM/38695/522.63</t>
+  </si>
+  <si>
+    <t>SADBL/37519/415.56</t>
+  </si>
+  <si>
+    <t>NGPL/39014/389.04</t>
+  </si>
+  <si>
+    <t>SMHL/13577/1,075.03</t>
+  </si>
+  <si>
+    <t>CHCL/21665/534.92</t>
+  </si>
+  <si>
+    <t>SHIVM/51974/526.62</t>
+  </si>
+  <si>
+    <t>UPCL/51245/453.30</t>
+  </si>
+  <si>
+    <t>NRN/10454/2,026.24</t>
+  </si>
+  <si>
+    <t>BARUN/27982/477.70</t>
+  </si>
+  <si>
+    <t>SHEL/48172/275.43</t>
+  </si>
+  <si>
+    <t>KBL/200822/215.32</t>
+  </si>
+  <si>
+    <t>HIDCL/77986/306.64</t>
+  </si>
+  <si>
+    <t>API/72240/305.29</t>
+  </si>
+  <si>
+    <t>NRN/7113/2,049.02</t>
+  </si>
+  <si>
+    <t>NICA/35238/357.46</t>
+  </si>
+  <si>
+    <t>RADHI/102375/784.24</t>
+  </si>
+  <si>
+    <t>NGPL/126514/383.44</t>
+  </si>
+  <si>
+    <t>BHL/124985/216.70</t>
+  </si>
+  <si>
+    <t>NRIC/12232/1,289.74</t>
+  </si>
+  <si>
+    <t>LBBL/39368/459.60</t>
+  </si>
+  <si>
+    <t>SAHAS/159716/531.24</t>
+  </si>
+  <si>
+    <t>BPCL/64113/585.34</t>
+  </si>
+  <si>
+    <t>CORBL/11325/2,411.11</t>
+  </si>
+  <si>
+    <t>MNBBL/73761/361.75</t>
+  </si>
+  <si>
+    <t>API/78506/301.41</t>
+  </si>
+  <si>
+    <t>BPCL/100221/661.74</t>
+  </si>
+  <si>
+    <t>GRDBL/18332/1,267.40</t>
+  </si>
+  <si>
+    <t>SPDL/56076/396.93</t>
+  </si>
+  <si>
+    <t>AHPC/43647/294.33</t>
+  </si>
+  <si>
+    <t>CHDC/27960/2,586.65</t>
+  </si>
+  <si>
+    <t>NRIC/44190/1,277.76</t>
+  </si>
+  <si>
+    <t>SHL/82034/577.99</t>
+  </si>
+  <si>
+    <t>BARUN/61183/405.75</t>
+  </si>
+  <si>
+    <t>NGPL/54721/386.79</t>
+  </si>
+  <si>
+    <t>SBL/580798/293.96</t>
+  </si>
+  <si>
+    <t>EBL/113887/652.75</t>
+  </si>
+  <si>
+    <t>UPCL/120675/450.38</t>
+  </si>
+  <si>
+    <t>RADHI/70978/757.79</t>
+  </si>
+  <si>
+    <t>HRL/68498/964.74</t>
+  </si>
+  <si>
+    <t>AHPC/160158/297.28</t>
+  </si>
+  <si>
+    <t>RADHI/58974/780.81</t>
+  </si>
+  <si>
+    <t>SHIVM/74302/524.89</t>
+  </si>
+  <si>
+    <t>API/93492/299.75</t>
+  </si>
+  <si>
+    <t>GBIME/269124/239.93</t>
+  </si>
+  <si>
+    <t>UPCL/121685/440.38</t>
+  </si>
+  <si>
+    <t>CGH/36951/892.39</t>
+  </si>
+  <si>
+    <t>SBL/99525/293.99</t>
+  </si>
+  <si>
+    <t>NIFRA/103634/281.00</t>
+  </si>
+  <si>
+    <t>SBI/164948/411.72</t>
+  </si>
+  <si>
+    <t>SPDL/36362/397.15</t>
+  </si>
+  <si>
+    <t>EBL/23390/634.71</t>
+  </si>
+  <si>
+    <t>SPIL/17377/822.68</t>
+  </si>
+  <si>
+    <t>NHPC/60179/222.44</t>
+  </si>
+  <si>
+    <t>MEN/12307/585.73</t>
+  </si>
+  <si>
+    <t>NRN/2555/2,061.25</t>
+  </si>
+  <si>
+    <t>RIDI/17281/267.12</t>
+  </si>
+  <si>
+    <t>OMPL/2649/1,728.29</t>
+  </si>
+  <si>
+    <t>BHPL/4155/953.55</t>
+  </si>
+  <si>
+    <t>BPCL/189701/577.36</t>
+  </si>
+  <si>
+    <t>SHIVM/77161/525.20</t>
+  </si>
+  <si>
+    <t>HPPL/65608/512.71</t>
+  </si>
+  <si>
+    <t>HEI/47605/575.64</t>
+  </si>
+  <si>
+    <t>AKPL/101615/264.97</t>
+  </si>
+  <si>
+    <t>UPCL/229791/436.51</t>
+  </si>
+  <si>
+    <t>NRN/45353/2,050.09</t>
+  </si>
+  <si>
+    <t>SHIVM/41406/524.53</t>
+  </si>
+  <si>
+    <t>AKPL/73128/275.22</t>
+  </si>
+  <si>
+    <t>CHDC/8974/2,580.97</t>
+  </si>
+  <si>
+    <t>SANIMA/44087/318.24</t>
+  </si>
+  <si>
+    <t>MEN/21151/592.76</t>
+  </si>
+  <si>
+    <t>EBL/14190/647.01</t>
+  </si>
+  <si>
+    <t>RURU/12500/699.71</t>
+  </si>
+  <si>
+    <t>RFPL/14635/563.52</t>
+  </si>
+  <si>
+    <t>SAPDBL/143109/1,029.96</t>
+  </si>
+  <si>
+    <t>NMIC/22001/2,000.34</t>
+  </si>
+  <si>
+    <t>RADHI/51240/802.22</t>
+  </si>
+  <si>
+    <t>SHIVM/35738/524.95</t>
+  </si>
+  <si>
+    <t>HDL/8884/1,222.57</t>
+  </si>
+  <si>
+    <t>GBIME/985126/240.18</t>
+  </si>
+  <si>
+    <t>MERO/106054/744.96</t>
+  </si>
+  <si>
+    <t>NRN/25196/2,023.64</t>
+  </si>
+  <si>
+    <t>SHIVM/69025/524.10</t>
+  </si>
+  <si>
+    <t>UPCL/80646/437.83</t>
+  </si>
+  <si>
+    <t>BPCL/66995/568.00</t>
+  </si>
+  <si>
+    <t>USLB/13377/1,951.46</t>
+  </si>
+  <si>
+    <t>API/52758/300.86</t>
+  </si>
+  <si>
+    <t>GHL/63738/253.11</t>
+  </si>
+  <si>
+    <t>EBL/126399/651.71</t>
+  </si>
+  <si>
+    <t>CHCL/113764/558.07</t>
+  </si>
+  <si>
+    <t>SANIMA/141251/319.95</t>
+  </si>
+  <si>
+    <t>MLBL/90588/393.40</t>
+  </si>
+  <si>
+    <t>PPCL/101303/333.42</t>
+  </si>
+  <si>
+    <t>SHPC/305334/584.92</t>
+  </si>
+  <si>
+    <t>GBIME/256567/226.02</t>
+  </si>
+  <si>
+    <t>CHCL/73455/542.94</t>
+  </si>
+  <si>
+    <t>CZBIL/188808/216.09</t>
+  </si>
+  <si>
+    <t>BARUN/103974/399.50</t>
+  </si>
+  <si>
+    <t>HRL/15283/944.35</t>
+  </si>
+  <si>
+    <t>API/37293/302.64</t>
+  </si>
+  <si>
+    <t>SHPC/18855/580.37</t>
+  </si>
+  <si>
+    <t>SARBTM/12844/841.33</t>
+  </si>
+  <si>
+    <t>UPPER/41796/200.30</t>
+  </si>
+  <si>
+    <t>AKPL/122263/269.23</t>
+  </si>
+  <si>
+    <t>CREST/10045/1,864.34</t>
+  </si>
+  <si>
+    <t>NGPL/41987/388.79</t>
+  </si>
+  <si>
+    <t>SHL/23631/566.37</t>
+  </si>
+  <si>
+    <t>SHEL/47237/274.06</t>
+  </si>
+  <si>
+    <t>SHL/243779/569.26</t>
+  </si>
+  <si>
+    <t>GHL/318694/265.49</t>
+  </si>
+  <si>
+    <t>NGPL/108963/387.05</t>
+  </si>
+  <si>
+    <t>SHPC/70032/584.19</t>
+  </si>
+  <si>
+    <t>HIDCLP/214094/212.45</t>
+  </si>
+  <si>
+    <t>RADHI/70686/771.21</t>
+  </si>
+  <si>
+    <t>MEN/72207/583.67</t>
+  </si>
+  <si>
+    <t>NTC/35995/862.94</t>
+  </si>
+  <si>
+    <t>BHL/141538/216.55</t>
+  </si>
+  <si>
+    <t>RIDI/95961/267.32</t>
+  </si>
+  <si>
+    <t>RADHI/448175/774.88</t>
+  </si>
+  <si>
+    <t>SPDL/129434/391.05</t>
+  </si>
+  <si>
+    <t>SHL/53104/574.53</t>
+  </si>
+  <si>
+    <t>SPIL/23341/805.05</t>
+  </si>
+  <si>
+    <t>SHIVM/31601/526.50</t>
+  </si>
+  <si>
+    <t>CHDC/6907/2,612.86</t>
+  </si>
+  <si>
+    <t>AHPC/59248/295.22</t>
+  </si>
+  <si>
+    <t>RADHI/20146/793.71</t>
+  </si>
+  <si>
+    <t>SHEL/41167/271.96</t>
+  </si>
+  <si>
+    <t>HLI/26698/405.38</t>
+  </si>
+  <si>
+    <t>CHDC/13391/2,601.50</t>
+  </si>
+  <si>
+    <t>SHPC/31058/587.97</t>
+  </si>
+  <si>
+    <t>BARUN/22167/436.58</t>
+  </si>
+  <si>
+    <t>BHL/43376/216.18</t>
+  </si>
+  <si>
+    <t>API/25922/306.97</t>
+  </si>
+  <si>
+    <t>MEN/17269/599.12</t>
+  </si>
+  <si>
+    <t>NMIC/3935/2,098.07</t>
+  </si>
+  <si>
+    <t>NGPL/20113/387.32</t>
+  </si>
+  <si>
+    <t>SHIVM/14735/523.88</t>
+  </si>
+  <si>
+    <t>STC/14269/5,031.18</t>
+  </si>
+  <si>
+    <t>UPCL/50755/456.20</t>
+  </si>
+  <si>
+    <t>CHCL/26042/548.64</t>
+  </si>
+  <si>
+    <t>SADBL/31617/422.20</t>
+  </si>
+  <si>
+    <t>BARUN/13685/502.32</t>
+  </si>
+  <si>
+    <t>GMLI/200868/2,588.63</t>
+  </si>
+  <si>
+    <t>NRIC/235864/1,292.72</t>
+  </si>
+  <si>
+    <t>NMIC/83565/1,881.10</t>
+  </si>
+  <si>
+    <t>NLG/115910/828.32</t>
+  </si>
+  <si>
+    <t>SHL/55239/563.01</t>
+  </si>
+  <si>
+    <t>BPCL/139858/643.73</t>
+  </si>
+  <si>
+    <t>UPCL/182752/452.32</t>
+  </si>
+  <si>
+    <t>SMHL/58928/1,000.03</t>
+  </si>
+  <si>
+    <t>CHCL/84434/527.01</t>
+  </si>
+  <si>
+    <t>HIDCLP/189205/217.55</t>
+  </si>
+  <si>
+    <t>SHPC/62615/582.46</t>
+  </si>
+  <si>
+    <t>MEN/51678/596.72</t>
+  </si>
+  <si>
+    <t>UPCL/58482/444.45</t>
+  </si>
+  <si>
+    <t>RADHI/34597/768.36</t>
+  </si>
+  <si>
+    <t>NTC/28068/855.54</t>
+  </si>
+  <si>
+    <t>KBL/1232300/214.98</t>
+  </si>
+  <si>
+    <t>NRN/116006/2,029.64</t>
+  </si>
+  <si>
+    <t>NGPL/455490/386.31</t>
+  </si>
+  <si>
+    <t>HIDCLP/540576/217.59</t>
+  </si>
+  <si>
+    <t>OHL/109403/949.00</t>
+  </si>
+  <si>
+    <t>API/137235/301.07</t>
+  </si>
+  <si>
+    <t>SHIVM/33450/522.89</t>
+  </si>
+  <si>
+    <t>NIFRA/59472/283.33</t>
+  </si>
+  <si>
+    <t>CHDC/5558/2,580.63</t>
+  </si>
+  <si>
+    <t>RADHI/159674/787.33</t>
+  </si>
+  <si>
+    <t>UPCL/106887/438.85</t>
+  </si>
+  <si>
+    <t>SHL/73235/568.70</t>
+  </si>
+  <si>
+    <t>HPPL/64882/507.59</t>
+  </si>
+  <si>
+    <t>LBBL/51202/476.78</t>
+  </si>
+  <si>
+    <t>BPCL/47772/604.36</t>
+  </si>
+  <si>
+    <t>CHDC/8019/2,617.28</t>
+  </si>
+  <si>
+    <t>HIDCL/55601/308.72</t>
+  </si>
+  <si>
+    <t>HIDCLP/52123/217.32</t>
+  </si>
+  <si>
+    <t>RADHI/7114/810.48</t>
+  </si>
+  <si>
+    <t>UMHL/344539/510.07</t>
+  </si>
+  <si>
+    <t>RADHI/84525/789.91</t>
+  </si>
+  <si>
+    <t>SHIVM/51765/530.79</t>
+  </si>
+  <si>
+    <t>MKHL/33641/715.59</t>
+  </si>
+  <si>
+    <t>NGPL/63839/388.15</t>
+  </si>
+  <si>
+    <t>OMPL/12472/1,736.70</t>
+  </si>
+  <si>
+    <t>RADHI/22487/770.22</t>
+  </si>
+  <si>
+    <t>USLB/7954/1,936.28</t>
+  </si>
+  <si>
+    <t>SHL/20329/566.01</t>
+  </si>
+  <si>
+    <t>BPCL/337877/590.58</t>
+  </si>
+  <si>
+    <t>NRN/26394/2,057.26</t>
+  </si>
+  <si>
+    <t>SHPC/43088/587.76</t>
+  </si>
+  <si>
+    <t>CHDC/7710/2,565.20</t>
+  </si>
+  <si>
+    <t>BEDC/22162/747.77</t>
+  </si>
+  <si>
+    <t>SHPC/60331/588.51</t>
+  </si>
+  <si>
+    <t>NIFRA/126588/282.54</t>
+  </si>
+  <si>
+    <t>RFPL/55612/618.96</t>
+  </si>
+  <si>
+    <t>SARBTM/40967/840.95</t>
+  </si>
+  <si>
+    <t>CHDC/22222/2,597.59</t>
+  </si>
+  <si>
+    <t>HIDCL/111863/303.12</t>
+  </si>
+  <si>
+    <t>NRN/14102/2,031.54</t>
+  </si>
+  <si>
+    <t>GILB/13706/2,439.85</t>
+  </si>
+  <si>
+    <t>UPCL/23539/437.65</t>
+  </si>
+  <si>
+    <t>RADHI/160310/780.61</t>
+  </si>
+  <si>
+    <t>CHCL/68927/546.49</t>
+  </si>
+  <si>
+    <t>NGPL/86049/389.93</t>
+  </si>
+  <si>
+    <t>SHIVM/21433/535.63</t>
+  </si>
+  <si>
+    <t>LICN/11000/917.51</t>
+  </si>
+  <si>
+    <t>NGPL/142501/384.23</t>
+  </si>
+  <si>
+    <t>HIDCLP/192725/209.03</t>
+  </si>
+  <si>
+    <t>RIDI/70169/261.84</t>
+  </si>
+  <si>
+    <t>HURJA/47113/258.37</t>
+  </si>
+  <si>
+    <t>AHPC/31817/294.57</t>
+  </si>
+  <si>
+    <t>SHL/81147/564.76</t>
+  </si>
+  <si>
+    <t>BPCL/39812/649.48</t>
+  </si>
+  <si>
+    <t>NRN/6454/2,029.46</t>
+  </si>
+  <si>
+    <t>EBL/14550/646.92</t>
+  </si>
+  <si>
+    <t>BPCL/50814/597.55</t>
+  </si>
+  <si>
+    <t>SHPC/28665/587.34</t>
+  </si>
+  <si>
+    <t>HURJA/60849/257.47</t>
+  </si>
+  <si>
+    <t>NRN/6418/2,061.37</t>
+  </si>
+  <si>
+    <t>UPCL/76267/440.25</t>
+  </si>
+  <si>
+    <t>LBBL/63886/466.71</t>
+  </si>
+  <si>
+    <t>HIDCL/74332/308.52</t>
+  </si>
+  <si>
+    <t>API/63858/301.54</t>
+  </si>
+  <si>
+    <t>CORBL/6843/2,329.05</t>
+  </si>
+  <si>
+    <t>CORBL/37967/2,350.97</t>
+  </si>
+  <si>
+    <t>SIFC/33893/541.05</t>
+  </si>
+  <si>
+    <t>UPCL/35504/428.48</t>
+  </si>
+  <si>
+    <t>JOSHI/27624/437.37</t>
+  </si>
+  <si>
+    <t>KBL/63685/208.22</t>
+  </si>
+  <si>
+    <t>SAPDBL/27987/1,037.99</t>
+  </si>
+  <si>
+    <t>MEN/45573/595.44</t>
+  </si>
+  <si>
+    <t>RADHI/18084/804.92</t>
+  </si>
+  <si>
+    <t>SHIVM/19357/525.61</t>
+  </si>
+  <si>
+    <t>HIDCLP/185828/221.51</t>
+  </si>
+  <si>
+    <t>BPCL/27668/637.65</t>
+  </si>
+  <si>
+    <t>UPCL/32557/438.10</t>
+  </si>
+  <si>
+    <t>CHDC/4652/2,612.71</t>
+  </si>
+  <si>
+    <t>BHL/52739/215.06</t>
+  </si>
+  <si>
+    <t>MBJC/27825/317.03</t>
+  </si>
+  <si>
+    <t>CHDC/1574/2,579.75</t>
+  </si>
+  <si>
+    <t>MEN/5824/579.57</t>
+  </si>
+  <si>
+    <t>BPCL/201794/579.77</t>
+  </si>
+  <si>
+    <t>RADHI/84003/781.74</t>
+  </si>
+  <si>
+    <t>CHDC/10262/2,571.23</t>
+  </si>
+  <si>
+    <t>LBBL/59433/469.47</t>
+  </si>
+  <si>
+    <t>UPCL/52596/445.29</t>
+  </si>
+  <si>
+    <t>ALICL/7758/693.09</t>
+  </si>
+  <si>
+    <t>HIDCLP/19758/218.06</t>
+  </si>
+  <si>
+    <t>CIT/1500/1,911.36</t>
+  </si>
+  <si>
+    <t>CHCL/4739/529.97</t>
+  </si>
+  <si>
+    <t>TRH/1200/946.50</t>
+  </si>
+  <si>
+    <t>MEN/66901/586.06</t>
+  </si>
+  <si>
+    <t>NMLBBL/37479/660.73</t>
+  </si>
+  <si>
+    <t>UPCL/31151/439.23</t>
+  </si>
+  <si>
+    <t>HRL/13042/962.46</t>
+  </si>
+  <si>
+    <t>NGPL/186855/392.71</t>
+  </si>
+  <si>
+    <t>CHDC/25086/2,596.52</t>
+  </si>
+  <si>
+    <t>SAHAS/77435/527.20</t>
+  </si>
+  <si>
+    <t>SHPC/65216/591.35</t>
+  </si>
+  <si>
+    <t>CHCL/67081/543.59</t>
+  </si>
+  <si>
+    <t>RADHI/64980/768.52</t>
+  </si>
+  <si>
+    <t>NRN/15798/2,043.99</t>
+  </si>
+  <si>
+    <t>HRL/12858/954.05</t>
+  </si>
+  <si>
+    <t>SHPC/22228/583.78</t>
+  </si>
+  <si>
+    <t>NICA/25765/372.12</t>
+  </si>
+  <si>
+    <t>HRL/28011/950.88</t>
+  </si>
+  <si>
+    <t>KPCL/23408/522.08</t>
+  </si>
+  <si>
+    <t>RADHI/16001/775.68</t>
+  </si>
+  <si>
+    <t>NRN/3430/2,055.68</t>
+  </si>
+  <si>
+    <t>HIDCL/156165/305.83</t>
+  </si>
+  <si>
+    <t>SADBL/57287/422.18</t>
+  </si>
+  <si>
+    <t>BPCL/29801/585.28</t>
+  </si>
+  <si>
+    <t>HDL/14425/1,216.99</t>
+  </si>
+  <si>
+    <t>SAHAS/28167/539.72</t>
+  </si>
+  <si>
+    <t>NGPL/265750/384.54</t>
+  </si>
+  <si>
+    <t>SHL/86926/581.22</t>
+  </si>
+  <si>
+    <t>RADHI/31962/771.79</t>
+  </si>
+  <si>
+    <t>AHPC/56832/297.09</t>
+  </si>
+  <si>
+    <t>API/53917/300.80</t>
+  </si>
+  <si>
+    <t>RADHI/33670/787.23</t>
+  </si>
+  <si>
+    <t>SHPC/19991/583.66</t>
+  </si>
+  <si>
+    <t>AKPL/39365/266.54</t>
+  </si>
+  <si>
+    <t>CHDC/3692/2,597.95</t>
+  </si>
+  <si>
+    <t>AHPC/23426/299.25</t>
+  </si>
+  <si>
+    <t>RADHI/43641/789.00</t>
+  </si>
+  <si>
+    <t>BPCL/16975/674.73</t>
+  </si>
+  <si>
+    <t>AKPL/39537/278.75</t>
+  </si>
+  <si>
+    <t>HPPL/19835/503.04</t>
+  </si>
+  <si>
+    <t>HIDCLP/29840/216.92</t>
+  </si>
+  <si>
+    <t>SAPDBL/50172/1,037.36</t>
+  </si>
+  <si>
+    <t>CHDC/5813/2,532.55</t>
+  </si>
+  <si>
+    <t>CHCL/21431/543.28</t>
+  </si>
+  <si>
+    <t>SMJC/16260/546.19</t>
+  </si>
+  <si>
+    <t>GBIME/128717/238.69</t>
+  </si>
+  <si>
+    <t>NRN/4923/2,033.73</t>
+  </si>
+  <si>
+    <t>BPCL/11946/639.25</t>
+  </si>
+  <si>
+    <t>NGPL/13346/383.25</t>
+  </si>
+  <si>
+    <t>SHPC/6510/595.79</t>
+  </si>
+  <si>
+    <t>HBL/112677/229.39</t>
+  </si>
+  <si>
+    <t>SHL/40549/571.08</t>
+  </si>
+  <si>
+    <t>API/36921/309.04</t>
+  </si>
+  <si>
+    <t>EBL/10991/631.20</t>
+  </si>
+  <si>
+    <t>CHCL/6283/527.36</t>
+  </si>
+  <si>
+    <t>NGPL/81283/388.64</t>
+  </si>
+  <si>
+    <t>AKPL/104006/268.92</t>
+  </si>
+  <si>
+    <t>SHL/46376/565.90</t>
+  </si>
+  <si>
+    <t>UPCL/53412/443.46</t>
+  </si>
+  <si>
+    <t>SARBTM/18293/845.86</t>
+  </si>
+  <si>
+    <t>HIDCL/143078/302.79</t>
+  </si>
+  <si>
+    <t>SHPC/21695/595.13</t>
+  </si>
+  <si>
+    <t>BPCL/12395/633.48</t>
+  </si>
+  <si>
+    <t>UPCL/18205/443.95</t>
+  </si>
+  <si>
+    <t>RADHI/10437/781.44</t>
+  </si>
+  <si>
+    <t>NGPL/303817/386.52</t>
+  </si>
+  <si>
+    <t>RADHI/144452/785.90</t>
+  </si>
+  <si>
+    <t>MKHL/77714/737.86</t>
+  </si>
+  <si>
+    <t>PRIN/32885/860.54</t>
+  </si>
+  <si>
+    <t>SHL/39427/568.56</t>
+  </si>
+  <si>
+    <t>UPCL/47928/452.50</t>
+  </si>
+  <si>
+    <t>RADHI/21330/813.52</t>
+  </si>
+  <si>
+    <t>NRN/6515/2,058.74</t>
+  </si>
+  <si>
+    <t>NGPL/26783/390.06</t>
+  </si>
+  <si>
+    <t>CHCL/13310/537.75</t>
+  </si>
+  <si>
+    <t>NRN/30593/2,052.13</t>
+  </si>
+  <si>
+    <t>LBBL/108990/469.04</t>
+  </si>
+  <si>
+    <t>NRIC/29021/1,284.50</t>
+  </si>
+  <si>
+    <t>SHL/45069/561.87</t>
+  </si>
+  <si>
+    <t>SADBL/25410/419.99</t>
+  </si>
+  <si>
+    <t>AKPL/32472/268.39</t>
+  </si>
+  <si>
+    <t>UPCL/19000/443.95</t>
+  </si>
+  <si>
+    <t>NMIC/2848/2,077.73</t>
+  </si>
+  <si>
+    <t>KBL/32458/209.91</t>
+  </si>
+  <si>
+    <t>SHPC/31974/581.71</t>
+  </si>
+  <si>
+    <t>NGPL/42020/385.10</t>
+  </si>
+  <si>
+    <t>OMPL/7500/1,882.35</t>
+  </si>
+  <si>
+    <t>AKPL/43805/283.13</t>
+  </si>
+  <si>
+    <t>BPCL/14652/668.95</t>
+  </si>
+  <si>
+    <t>SHIVM/26132/535.02</t>
+  </si>
+  <si>
+    <t>BPCL/22678/605.93</t>
+  </si>
+  <si>
+    <t>HIDCLP/34269/209.28</t>
+  </si>
+  <si>
+    <t>AKPL/23395/278.62</t>
+  </si>
+  <si>
+    <t>NMIC/2354/2,028.24</t>
+  </si>
+  <si>
+    <t>PHCL/85509/598.82</t>
+  </si>
+  <si>
+    <t>MLBL/105430/389.38</t>
+  </si>
+  <si>
+    <t>BPCL/37353/714.07</t>
+  </si>
+  <si>
+    <t>KSBBL/46977/449.73</t>
+  </si>
+  <si>
+    <t>LBBL/34112/451.07</t>
+  </si>
+  <si>
+    <t>CHDC/5782/2,635.01</t>
+  </si>
+  <si>
+    <t>HIDCLP/40100/216.07</t>
+  </si>
+  <si>
+    <t>AKPL/31177/274.35</t>
+  </si>
+  <si>
+    <t>RADHI/8062/818.11</t>
+  </si>
+  <si>
+    <t>SHPC/11570/576.78</t>
   </si>
 </sst>
 </file>
@@ -14964,19 +16237,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEE11C3-3B44-4022-BB32-BDF73F267C1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8031CFF4-E8B1-4230-A6BE-8355C73394A8}">
   <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -15004,19 +16278,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4455</v>
+        <v>4869</v>
       </c>
       <c r="C2" t="s">
-        <v>4456</v>
+        <v>4870</v>
       </c>
       <c r="D2" t="s">
-        <v>4457</v>
+        <v>4871</v>
       </c>
       <c r="E2" t="s">
-        <v>4458</v>
+        <v>4872</v>
       </c>
       <c r="F2" t="s">
-        <v>4459</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -15024,19 +16298,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4460</v>
+        <v>4874</v>
       </c>
       <c r="C3" t="s">
-        <v>4461</v>
+        <v>4875</v>
       </c>
       <c r="D3" t="s">
-        <v>4462</v>
+        <v>4876</v>
       </c>
       <c r="E3" t="s">
-        <v>4463</v>
+        <v>4877</v>
       </c>
       <c r="F3" t="s">
-        <v>4464</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -15044,19 +16318,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>4465</v>
+        <v>4879</v>
       </c>
       <c r="C4" t="s">
-        <v>4466</v>
+        <v>4880</v>
       </c>
       <c r="D4" t="s">
-        <v>4467</v>
+        <v>4881</v>
       </c>
       <c r="E4" t="s">
-        <v>4468</v>
+        <v>4882</v>
       </c>
       <c r="F4" t="s">
-        <v>4469</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -15064,19 +16338,19 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>4470</v>
+        <v>4884</v>
       </c>
       <c r="C5" t="s">
-        <v>4471</v>
+        <v>4885</v>
       </c>
       <c r="D5" t="s">
-        <v>4472</v>
+        <v>4886</v>
       </c>
       <c r="E5" t="s">
-        <v>4473</v>
+        <v>4887</v>
       </c>
       <c r="F5" t="s">
-        <v>4474</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -15084,19 +16358,19 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>4475</v>
+        <v>4889</v>
       </c>
       <c r="C6" t="s">
-        <v>4476</v>
+        <v>4890</v>
       </c>
       <c r="D6" t="s">
-        <v>4477</v>
+        <v>4891</v>
       </c>
       <c r="E6" t="s">
-        <v>4478</v>
+        <v>4892</v>
       </c>
       <c r="F6" t="s">
-        <v>4479</v>
+        <v>4893</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -15104,19 +16378,19 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>4480</v>
+        <v>4894</v>
       </c>
       <c r="C7" t="s">
-        <v>4481</v>
+        <v>4895</v>
       </c>
       <c r="D7" t="s">
-        <v>4482</v>
+        <v>4896</v>
       </c>
       <c r="E7" t="s">
-        <v>4483</v>
+        <v>4897</v>
       </c>
       <c r="F7" t="s">
-        <v>4484</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -15124,19 +16398,19 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>4485</v>
+        <v>4899</v>
       </c>
       <c r="C8" t="s">
-        <v>4486</v>
+        <v>4900</v>
       </c>
       <c r="D8" t="s">
-        <v>4487</v>
+        <v>4901</v>
       </c>
       <c r="E8" t="s">
-        <v>4488</v>
+        <v>4902</v>
       </c>
       <c r="F8" t="s">
-        <v>4489</v>
+        <v>4903</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -15144,19 +16418,19 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
+        <v>4904</v>
+      </c>
+      <c r="C9" t="s">
         <v>4490</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>4054</v>
       </c>
-      <c r="D9" t="s">
-        <v>4491</v>
-      </c>
       <c r="E9" t="s">
-        <v>4492</v>
+        <v>4905</v>
       </c>
       <c r="F9" t="s">
-        <v>4493</v>
+        <v>4906</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -15164,19 +16438,19 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>4494</v>
+        <v>4907</v>
       </c>
       <c r="C10" t="s">
-        <v>4495</v>
+        <v>4908</v>
       </c>
       <c r="D10" t="s">
-        <v>4496</v>
+        <v>4909</v>
       </c>
       <c r="E10" t="s">
-        <v>4497</v>
+        <v>4910</v>
       </c>
       <c r="F10" t="s">
-        <v>4498</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -15184,19 +16458,19 @@
         <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>4499</v>
+        <v>4912</v>
       </c>
       <c r="C11" t="s">
-        <v>4500</v>
+        <v>4913</v>
       </c>
       <c r="D11" t="s">
-        <v>4501</v>
+        <v>4914</v>
       </c>
       <c r="E11" t="s">
-        <v>4502</v>
+        <v>4915</v>
       </c>
       <c r="F11" t="s">
-        <v>4503</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -15204,19 +16478,19 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>4504</v>
+        <v>4917</v>
       </c>
       <c r="C12" t="s">
-        <v>4505</v>
+        <v>4918</v>
       </c>
       <c r="D12" t="s">
-        <v>4506</v>
+        <v>4919</v>
       </c>
       <c r="E12" t="s">
-        <v>4507</v>
+        <v>4920</v>
       </c>
       <c r="F12" t="s">
-        <v>4508</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -15224,19 +16498,19 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>4509</v>
+        <v>4922</v>
       </c>
       <c r="C13" t="s">
-        <v>4510</v>
+        <v>4923</v>
       </c>
       <c r="D13" t="s">
-        <v>4511</v>
+        <v>4924</v>
       </c>
       <c r="E13" t="s">
-        <v>4512</v>
+        <v>4925</v>
       </c>
       <c r="F13" t="s">
-        <v>4513</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -15244,19 +16518,19 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>4514</v>
+        <v>4927</v>
       </c>
       <c r="C14" t="s">
-        <v>4515</v>
+        <v>4928</v>
       </c>
       <c r="D14" t="s">
-        <v>4516</v>
+        <v>4929</v>
       </c>
       <c r="E14" t="s">
-        <v>4517</v>
+        <v>4930</v>
       </c>
       <c r="F14" t="s">
-        <v>4518</v>
+        <v>4931</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -15264,19 +16538,19 @@
         <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>4519</v>
+        <v>4932</v>
       </c>
       <c r="C15" t="s">
         <v>4082</v>
       </c>
       <c r="D15" t="s">
-        <v>4520</v>
+        <v>4933</v>
       </c>
       <c r="E15" t="s">
-        <v>4521</v>
+        <v>4934</v>
       </c>
       <c r="F15" t="s">
-        <v>4085</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -15284,19 +16558,19 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>4522</v>
+        <v>4936</v>
       </c>
       <c r="C16" t="s">
-        <v>4523</v>
+        <v>4937</v>
       </c>
       <c r="D16" t="s">
-        <v>4524</v>
+        <v>4938</v>
       </c>
       <c r="E16" t="s">
-        <v>4525</v>
+        <v>4939</v>
       </c>
       <c r="F16" t="s">
-        <v>4526</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -15307,16 +16581,16 @@
         <v>4527</v>
       </c>
       <c r="C17" t="s">
-        <v>4528</v>
+        <v>3655</v>
       </c>
       <c r="D17" t="s">
-        <v>3655</v>
+        <v>4941</v>
       </c>
       <c r="E17" t="s">
-        <v>4529</v>
+        <v>4942</v>
       </c>
       <c r="F17" t="s">
-        <v>4094</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -15324,19 +16598,19 @@
         <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>4530</v>
+        <v>4944</v>
       </c>
       <c r="C18" t="s">
-        <v>4531</v>
+        <v>4945</v>
       </c>
       <c r="D18" t="s">
-        <v>4532</v>
+        <v>4946</v>
       </c>
       <c r="E18" t="s">
-        <v>4533</v>
+        <v>4947</v>
       </c>
       <c r="F18" t="s">
-        <v>4534</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -15344,19 +16618,19 @@
         <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>4535</v>
+        <v>4949</v>
       </c>
       <c r="C19" t="s">
-        <v>4536</v>
+        <v>4950</v>
       </c>
       <c r="D19" t="s">
-        <v>4537</v>
+        <v>4951</v>
       </c>
       <c r="E19" t="s">
-        <v>4538</v>
+        <v>4952</v>
       </c>
       <c r="F19" t="s">
-        <v>4539</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -15364,19 +16638,19 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>4540</v>
+        <v>4954</v>
       </c>
       <c r="C20" t="s">
-        <v>4541</v>
+        <v>4955</v>
       </c>
       <c r="D20" t="s">
-        <v>4542</v>
+        <v>4956</v>
       </c>
       <c r="E20" t="s">
-        <v>4543</v>
+        <v>4957</v>
       </c>
       <c r="F20" t="s">
-        <v>4544</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -15384,19 +16658,19 @@
         <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>4545</v>
+        <v>4959</v>
       </c>
       <c r="C21" t="s">
-        <v>4546</v>
+        <v>4960</v>
       </c>
       <c r="D21" t="s">
-        <v>4547</v>
+        <v>4961</v>
       </c>
       <c r="E21" t="s">
-        <v>4548</v>
+        <v>4962</v>
       </c>
       <c r="F21" t="s">
-        <v>4549</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -15404,19 +16678,19 @@
         <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>4550</v>
+        <v>4964</v>
       </c>
       <c r="C22" t="s">
-        <v>4551</v>
+        <v>4965</v>
       </c>
       <c r="D22" t="s">
-        <v>4552</v>
+        <v>4966</v>
       </c>
       <c r="E22" t="s">
-        <v>4553</v>
+        <v>4967</v>
       </c>
       <c r="F22" t="s">
-        <v>4554</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -15424,19 +16698,19 @@
         <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>4555</v>
+        <v>4969</v>
       </c>
       <c r="C23" t="s">
         <v>4556</v>
       </c>
       <c r="D23" t="s">
-        <v>4557</v>
+        <v>4970</v>
       </c>
       <c r="E23" t="s">
-        <v>4558</v>
+        <v>4971</v>
       </c>
       <c r="F23" t="s">
-        <v>4559</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -15444,19 +16718,19 @@
         <v>132</v>
       </c>
       <c r="B24" t="s">
-        <v>4560</v>
+        <v>4973</v>
       </c>
       <c r="C24" t="s">
-        <v>4561</v>
+        <v>4974</v>
       </c>
       <c r="D24" t="s">
-        <v>4562</v>
+        <v>4975</v>
       </c>
       <c r="E24" t="s">
-        <v>4563</v>
+        <v>4976</v>
       </c>
       <c r="F24" t="s">
-        <v>4564</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -15464,16 +16738,16 @@
         <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>4565</v>
+        <v>4978</v>
       </c>
       <c r="C25" t="s">
-        <v>4131</v>
+        <v>4979</v>
       </c>
       <c r="D25" t="s">
-        <v>4566</v>
+        <v>4980</v>
       </c>
       <c r="E25" t="s">
-        <v>4567</v>
+        <v>4981</v>
       </c>
       <c r="F25" t="s">
         <v>4568</v>
@@ -15484,19 +16758,19 @@
         <v>144</v>
       </c>
       <c r="B26" t="s">
-        <v>4569</v>
+        <v>4982</v>
       </c>
       <c r="C26" t="s">
-        <v>4570</v>
+        <v>4983</v>
       </c>
       <c r="D26" t="s">
-        <v>4571</v>
+        <v>4984</v>
       </c>
       <c r="E26" t="s">
-        <v>4572</v>
+        <v>4985</v>
       </c>
       <c r="F26" t="s">
-        <v>4573</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -15504,19 +16778,19 @@
         <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>4574</v>
+        <v>4987</v>
       </c>
       <c r="C27" t="s">
-        <v>4575</v>
+        <v>4988</v>
       </c>
       <c r="D27" t="s">
-        <v>4576</v>
+        <v>4989</v>
       </c>
       <c r="E27" t="s">
-        <v>4577</v>
+        <v>4990</v>
       </c>
       <c r="F27" t="s">
-        <v>4578</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -15524,19 +16798,19 @@
         <v>156</v>
       </c>
       <c r="B28" t="s">
-        <v>4579</v>
+        <v>4992</v>
       </c>
       <c r="C28" t="s">
-        <v>4580</v>
+        <v>4993</v>
       </c>
       <c r="D28" t="s">
-        <v>4581</v>
+        <v>4994</v>
       </c>
       <c r="E28" t="s">
-        <v>4582</v>
+        <v>4995</v>
       </c>
       <c r="F28" t="s">
-        <v>4149</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -15544,19 +16818,19 @@
         <v>162</v>
       </c>
       <c r="B29" t="s">
-        <v>4150</v>
+        <v>4997</v>
       </c>
       <c r="C29" t="s">
-        <v>4583</v>
+        <v>4998</v>
       </c>
       <c r="D29" t="s">
-        <v>3273</v>
+        <v>4999</v>
       </c>
       <c r="E29" t="s">
-        <v>4584</v>
+        <v>5000</v>
       </c>
       <c r="F29" t="s">
-        <v>4585</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -15564,19 +16838,19 @@
         <v>168</v>
       </c>
       <c r="B30" t="s">
-        <v>4586</v>
+        <v>5002</v>
       </c>
       <c r="C30" t="s">
-        <v>4587</v>
+        <v>5003</v>
       </c>
       <c r="D30" t="s">
-        <v>4588</v>
+        <v>5004</v>
       </c>
       <c r="E30" t="s">
-        <v>4589</v>
+        <v>5005</v>
       </c>
       <c r="F30" t="s">
-        <v>4590</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -15584,19 +16858,19 @@
         <v>174</v>
       </c>
       <c r="B31" t="s">
-        <v>4591</v>
+        <v>5007</v>
       </c>
       <c r="C31" t="s">
-        <v>4592</v>
+        <v>5008</v>
       </c>
       <c r="D31" t="s">
-        <v>4593</v>
+        <v>5009</v>
       </c>
       <c r="E31" t="s">
-        <v>4594</v>
+        <v>5010</v>
       </c>
       <c r="F31" t="s">
-        <v>4595</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -15604,19 +16878,19 @@
         <v>180</v>
       </c>
       <c r="B32" t="s">
-        <v>4596</v>
+        <v>5012</v>
       </c>
       <c r="C32" t="s">
-        <v>4597</v>
+        <v>5013</v>
       </c>
       <c r="D32" t="s">
-        <v>4598</v>
+        <v>5014</v>
       </c>
       <c r="E32" t="s">
-        <v>4599</v>
+        <v>5015</v>
       </c>
       <c r="F32" t="s">
-        <v>4600</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -15624,19 +16898,19 @@
         <v>186</v>
       </c>
       <c r="B33" t="s">
-        <v>4601</v>
+        <v>5017</v>
       </c>
       <c r="C33" t="s">
-        <v>4602</v>
+        <v>5018</v>
       </c>
       <c r="D33" t="s">
-        <v>4603</v>
+        <v>5019</v>
       </c>
       <c r="E33" t="s">
-        <v>4604</v>
+        <v>5020</v>
       </c>
       <c r="F33" t="s">
-        <v>4605</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -15644,19 +16918,19 @@
         <v>192</v>
       </c>
       <c r="B34" t="s">
-        <v>4606</v>
+        <v>5022</v>
       </c>
       <c r="C34" t="s">
-        <v>4607</v>
+        <v>5023</v>
       </c>
       <c r="D34" t="s">
-        <v>4608</v>
+        <v>5024</v>
       </c>
       <c r="E34" t="s">
-        <v>4609</v>
+        <v>5025</v>
       </c>
       <c r="F34" t="s">
-        <v>4610</v>
+        <v>5026</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -15664,19 +16938,19 @@
         <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>4611</v>
+        <v>5027</v>
       </c>
       <c r="C35" t="s">
-        <v>4612</v>
+        <v>5028</v>
       </c>
       <c r="D35" t="s">
         <v>4182</v>
       </c>
       <c r="E35" t="s">
-        <v>4613</v>
+        <v>5029</v>
       </c>
       <c r="F35" t="s">
-        <v>4614</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -15684,19 +16958,19 @@
         <v>204</v>
       </c>
       <c r="B36" t="s">
-        <v>4615</v>
+        <v>5031</v>
       </c>
       <c r="C36" t="s">
-        <v>4616</v>
+        <v>5032</v>
       </c>
       <c r="D36" t="s">
-        <v>4617</v>
+        <v>5033</v>
       </c>
       <c r="E36" t="s">
-        <v>4618</v>
+        <v>5034</v>
       </c>
       <c r="F36" t="s">
-        <v>4619</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -15704,19 +16978,19 @@
         <v>210</v>
       </c>
       <c r="B37" t="s">
-        <v>4620</v>
+        <v>5036</v>
       </c>
       <c r="C37" t="s">
-        <v>4621</v>
+        <v>5037</v>
       </c>
       <c r="D37" t="s">
-        <v>4622</v>
+        <v>5038</v>
       </c>
       <c r="E37" t="s">
-        <v>4623</v>
+        <v>5039</v>
       </c>
       <c r="F37" t="s">
-        <v>4624</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -15724,19 +16998,19 @@
         <v>216</v>
       </c>
       <c r="B38" t="s">
-        <v>4625</v>
+        <v>5041</v>
       </c>
       <c r="C38" t="s">
-        <v>4626</v>
+        <v>5042</v>
       </c>
       <c r="D38" t="s">
-        <v>4627</v>
+        <v>5043</v>
       </c>
       <c r="E38" t="s">
-        <v>4628</v>
+        <v>5044</v>
       </c>
       <c r="F38" t="s">
-        <v>4629</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -15744,19 +17018,19 @@
         <v>222</v>
       </c>
       <c r="B39" t="s">
-        <v>4630</v>
+        <v>5046</v>
       </c>
       <c r="C39" t="s">
-        <v>4631</v>
+        <v>5047</v>
       </c>
       <c r="D39" t="s">
-        <v>4632</v>
+        <v>5048</v>
       </c>
       <c r="E39" t="s">
-        <v>4633</v>
+        <v>5049</v>
       </c>
       <c r="F39" t="s">
-        <v>4634</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -15764,19 +17038,19 @@
         <v>228</v>
       </c>
       <c r="B40" t="s">
-        <v>4635</v>
+        <v>5051</v>
       </c>
       <c r="C40" t="s">
-        <v>4636</v>
+        <v>5052</v>
       </c>
       <c r="D40" t="s">
-        <v>4637</v>
+        <v>5053</v>
       </c>
       <c r="E40" t="s">
-        <v>4638</v>
+        <v>5054</v>
       </c>
       <c r="F40" t="s">
-        <v>4639</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -15784,19 +17058,19 @@
         <v>234</v>
       </c>
       <c r="B41" t="s">
-        <v>4640</v>
+        <v>5056</v>
       </c>
       <c r="C41" t="s">
-        <v>4641</v>
+        <v>5057</v>
       </c>
       <c r="D41" t="s">
-        <v>4642</v>
+        <v>5058</v>
       </c>
       <c r="E41" t="s">
-        <v>4643</v>
+        <v>5059</v>
       </c>
       <c r="F41" t="s">
-        <v>4644</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -15804,19 +17078,19 @@
         <v>240</v>
       </c>
       <c r="B42" t="s">
-        <v>4645</v>
+        <v>5061</v>
       </c>
       <c r="C42" t="s">
-        <v>4646</v>
+        <v>5062</v>
       </c>
       <c r="D42" t="s">
-        <v>4647</v>
+        <v>5063</v>
       </c>
       <c r="E42" t="s">
-        <v>4648</v>
+        <v>5064</v>
       </c>
       <c r="F42" t="s">
-        <v>4649</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -15824,19 +17098,19 @@
         <v>246</v>
       </c>
       <c r="B43" t="s">
-        <v>4650</v>
+        <v>5066</v>
       </c>
       <c r="C43" t="s">
-        <v>4651</v>
+        <v>5067</v>
       </c>
       <c r="D43" t="s">
-        <v>4652</v>
+        <v>5068</v>
       </c>
       <c r="E43" t="s">
-        <v>4653</v>
+        <v>5069</v>
       </c>
       <c r="F43" t="s">
-        <v>4654</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -15844,19 +17118,19 @@
         <v>252</v>
       </c>
       <c r="B44" t="s">
-        <v>4655</v>
+        <v>5071</v>
       </c>
       <c r="C44" t="s">
-        <v>4656</v>
+        <v>5072</v>
       </c>
       <c r="D44" t="s">
-        <v>4657</v>
+        <v>5073</v>
       </c>
       <c r="E44" t="s">
-        <v>4658</v>
+        <v>5074</v>
       </c>
       <c r="F44" t="s">
-        <v>4659</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -15864,19 +17138,19 @@
         <v>258</v>
       </c>
       <c r="B45" t="s">
-        <v>4660</v>
+        <v>5076</v>
       </c>
       <c r="C45" t="s">
-        <v>4661</v>
+        <v>5077</v>
       </c>
       <c r="D45" t="s">
-        <v>4662</v>
+        <v>4231</v>
       </c>
       <c r="E45" t="s">
-        <v>4663</v>
+        <v>5078</v>
       </c>
       <c r="F45" t="s">
-        <v>4231</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -15884,19 +17158,19 @@
         <v>264</v>
       </c>
       <c r="B46" t="s">
-        <v>4664</v>
+        <v>5080</v>
       </c>
       <c r="C46" t="s">
-        <v>4665</v>
+        <v>5081</v>
       </c>
       <c r="D46" t="s">
-        <v>4666</v>
+        <v>5082</v>
       </c>
       <c r="E46" t="s">
-        <v>4667</v>
+        <v>5083</v>
       </c>
       <c r="F46" t="s">
-        <v>4668</v>
+        <v>5084</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -15904,19 +17178,19 @@
         <v>270</v>
       </c>
       <c r="B47" t="s">
-        <v>4669</v>
+        <v>5085</v>
       </c>
       <c r="C47" t="s">
-        <v>4670</v>
+        <v>5086</v>
       </c>
       <c r="D47" t="s">
-        <v>4671</v>
+        <v>5087</v>
       </c>
       <c r="E47" t="s">
-        <v>4672</v>
+        <v>5088</v>
       </c>
       <c r="F47" t="s">
-        <v>4673</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -15924,19 +17198,19 @@
         <v>276</v>
       </c>
       <c r="B48" t="s">
-        <v>4674</v>
+        <v>5090</v>
       </c>
       <c r="C48" t="s">
-        <v>4675</v>
+        <v>5091</v>
       </c>
       <c r="D48" t="s">
-        <v>4676</v>
+        <v>5092</v>
       </c>
       <c r="E48" t="s">
-        <v>4677</v>
+        <v>5093</v>
       </c>
       <c r="F48" t="s">
-        <v>4678</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -15944,19 +17218,19 @@
         <v>282</v>
       </c>
       <c r="B49" t="s">
-        <v>4679</v>
+        <v>5095</v>
       </c>
       <c r="C49" t="s">
-        <v>4680</v>
+        <v>5096</v>
       </c>
       <c r="D49" t="s">
-        <v>4681</v>
+        <v>5097</v>
       </c>
       <c r="E49" t="s">
-        <v>4682</v>
+        <v>5098</v>
       </c>
       <c r="F49" t="s">
-        <v>4683</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -15964,19 +17238,19 @@
         <v>288</v>
       </c>
       <c r="B50" t="s">
-        <v>4684</v>
+        <v>5100</v>
       </c>
       <c r="C50" t="s">
-        <v>4685</v>
+        <v>5101</v>
       </c>
       <c r="D50" t="s">
-        <v>4686</v>
+        <v>5102</v>
       </c>
       <c r="E50" t="s">
-        <v>4687</v>
+        <v>5103</v>
       </c>
       <c r="F50" t="s">
-        <v>4688</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -15984,19 +17258,19 @@
         <v>294</v>
       </c>
       <c r="B51" t="s">
-        <v>4689</v>
+        <v>5105</v>
       </c>
       <c r="C51" t="s">
         <v>4690</v>
       </c>
       <c r="D51" t="s">
-        <v>4691</v>
+        <v>5106</v>
       </c>
       <c r="E51" t="s">
-        <v>4692</v>
+        <v>5107</v>
       </c>
       <c r="F51" t="s">
-        <v>4693</v>
+        <v>5108</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -16004,19 +17278,19 @@
         <v>300</v>
       </c>
       <c r="B52" t="s">
-        <v>4694</v>
+        <v>5109</v>
       </c>
       <c r="C52" t="s">
-        <v>4695</v>
+        <v>5110</v>
       </c>
       <c r="D52" t="s">
-        <v>4696</v>
+        <v>5111</v>
       </c>
       <c r="E52" t="s">
-        <v>4697</v>
+        <v>5112</v>
       </c>
       <c r="F52" t="s">
-        <v>4698</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -16024,19 +17298,19 @@
         <v>306</v>
       </c>
       <c r="B53" t="s">
-        <v>4699</v>
+        <v>5114</v>
       </c>
       <c r="C53" t="s">
-        <v>4700</v>
+        <v>5115</v>
       </c>
       <c r="D53" t="s">
-        <v>4701</v>
+        <v>5116</v>
       </c>
       <c r="E53" t="s">
-        <v>4702</v>
+        <v>5117</v>
       </c>
       <c r="F53" t="s">
-        <v>4703</v>
+        <v>5118</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -16044,19 +17318,19 @@
         <v>312</v>
       </c>
       <c r="B54" t="s">
-        <v>4704</v>
+        <v>5119</v>
       </c>
       <c r="C54" t="s">
-        <v>4705</v>
+        <v>5120</v>
       </c>
       <c r="D54" t="s">
-        <v>4706</v>
+        <v>5121</v>
       </c>
       <c r="E54" t="s">
         <v>4707</v>
       </c>
       <c r="F54" t="s">
-        <v>4708</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -16064,19 +17338,19 @@
         <v>318</v>
       </c>
       <c r="B55" t="s">
-        <v>4709</v>
+        <v>5123</v>
       </c>
       <c r="C55" t="s">
-        <v>4710</v>
+        <v>5124</v>
       </c>
       <c r="D55" t="s">
-        <v>4711</v>
+        <v>5125</v>
       </c>
       <c r="E55" t="s">
-        <v>4712</v>
+        <v>5126</v>
       </c>
       <c r="F55" t="s">
-        <v>4713</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -16084,19 +17358,19 @@
         <v>324</v>
       </c>
       <c r="B56" t="s">
-        <v>4714</v>
+        <v>5128</v>
       </c>
       <c r="C56" t="s">
-        <v>4715</v>
+        <v>5129</v>
       </c>
       <c r="D56" t="s">
-        <v>4716</v>
+        <v>5130</v>
       </c>
       <c r="E56" t="s">
-        <v>4717</v>
+        <v>5131</v>
       </c>
       <c r="F56" t="s">
-        <v>4718</v>
+        <v>5132</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -16107,16 +17381,16 @@
         <v>3853</v>
       </c>
       <c r="C57" t="s">
-        <v>4719</v>
+        <v>5133</v>
       </c>
       <c r="D57" t="s">
-        <v>4720</v>
+        <v>5134</v>
       </c>
       <c r="E57" t="s">
-        <v>4289</v>
+        <v>5135</v>
       </c>
       <c r="F57" t="s">
-        <v>4721</v>
+        <v>5136</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -16124,19 +17398,19 @@
         <v>336</v>
       </c>
       <c r="B58" t="s">
-        <v>4722</v>
+        <v>5137</v>
       </c>
       <c r="C58" t="s">
-        <v>4723</v>
+        <v>5138</v>
       </c>
       <c r="D58" t="s">
-        <v>4724</v>
+        <v>5139</v>
       </c>
       <c r="E58" t="s">
-        <v>4725</v>
+        <v>5140</v>
       </c>
       <c r="F58" t="s">
-        <v>4726</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -16144,19 +17418,19 @@
         <v>342</v>
       </c>
       <c r="B59" t="s">
-        <v>4727</v>
+        <v>5142</v>
       </c>
       <c r="C59" t="s">
-        <v>4728</v>
+        <v>5143</v>
       </c>
       <c r="D59" t="s">
-        <v>4729</v>
+        <v>5144</v>
       </c>
       <c r="E59" t="s">
-        <v>4730</v>
+        <v>5145</v>
       </c>
       <c r="F59" t="s">
-        <v>4731</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -16164,19 +17438,19 @@
         <v>348</v>
       </c>
       <c r="B60" t="s">
-        <v>4732</v>
+        <v>5147</v>
       </c>
       <c r="C60" t="s">
-        <v>4304</v>
+        <v>5148</v>
       </c>
       <c r="D60" t="s">
-        <v>4733</v>
+        <v>5149</v>
       </c>
       <c r="E60" t="s">
-        <v>4734</v>
+        <v>5150</v>
       </c>
       <c r="F60" t="s">
-        <v>4307</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -16184,19 +17458,19 @@
         <v>354</v>
       </c>
       <c r="B61" t="s">
-        <v>4735</v>
+        <v>5152</v>
       </c>
       <c r="C61" t="s">
-        <v>4736</v>
+        <v>5153</v>
       </c>
       <c r="D61" t="s">
-        <v>4737</v>
+        <v>5154</v>
       </c>
       <c r="E61" t="s">
         <v>4738</v>
       </c>
       <c r="F61" t="s">
-        <v>4739</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -16204,19 +17478,19 @@
         <v>360</v>
       </c>
       <c r="B62" t="s">
-        <v>4740</v>
+        <v>5156</v>
       </c>
       <c r="C62" t="s">
-        <v>4741</v>
+        <v>4742</v>
       </c>
       <c r="D62" t="s">
-        <v>4742</v>
+        <v>5157</v>
       </c>
       <c r="E62" t="s">
-        <v>4743</v>
+        <v>5158</v>
       </c>
       <c r="F62" t="s">
-        <v>4744</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -16224,19 +17498,19 @@
         <v>366</v>
       </c>
       <c r="B63" t="s">
-        <v>4745</v>
+        <v>5160</v>
       </c>
       <c r="C63" t="s">
-        <v>4746</v>
+        <v>5161</v>
       </c>
       <c r="D63" t="s">
-        <v>4747</v>
+        <v>5162</v>
       </c>
       <c r="E63" t="s">
-        <v>4748</v>
+        <v>5163</v>
       </c>
       <c r="F63" t="s">
-        <v>4749</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -16244,19 +17518,19 @@
         <v>372</v>
       </c>
       <c r="B64" t="s">
-        <v>4750</v>
+        <v>5165</v>
       </c>
       <c r="C64" t="s">
-        <v>4751</v>
+        <v>5166</v>
       </c>
       <c r="D64" t="s">
-        <v>4752</v>
+        <v>5167</v>
       </c>
       <c r="E64" t="s">
-        <v>4753</v>
+        <v>5168</v>
       </c>
       <c r="F64" t="s">
-        <v>4754</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -16284,19 +17558,19 @@
         <v>384</v>
       </c>
       <c r="B66" t="s">
-        <v>4756</v>
+        <v>5170</v>
       </c>
       <c r="C66" t="s">
-        <v>4757</v>
+        <v>5171</v>
       </c>
       <c r="D66" t="s">
-        <v>4758</v>
+        <v>5172</v>
       </c>
       <c r="E66" t="s">
         <v>4332</v>
       </c>
       <c r="F66" t="s">
-        <v>4759</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -16304,19 +17578,19 @@
         <v>390</v>
       </c>
       <c r="B67" t="s">
-        <v>4760</v>
+        <v>5174</v>
       </c>
       <c r="C67" t="s">
-        <v>4761</v>
+        <v>5175</v>
       </c>
       <c r="D67" t="s">
-        <v>4762</v>
+        <v>5176</v>
       </c>
       <c r="E67" t="s">
-        <v>4763</v>
+        <v>5177</v>
       </c>
       <c r="F67" t="s">
-        <v>4764</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -16327,16 +17601,16 @@
         <v>4765</v>
       </c>
       <c r="C68" t="s">
-        <v>4340</v>
+        <v>5179</v>
       </c>
       <c r="D68" t="s">
-        <v>4766</v>
+        <v>5180</v>
       </c>
       <c r="E68" t="s">
         <v>4342</v>
       </c>
       <c r="F68" t="s">
-        <v>4343</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -16344,19 +17618,19 @@
         <v>402</v>
       </c>
       <c r="B69" t="s">
-        <v>4767</v>
+        <v>5182</v>
       </c>
       <c r="C69" t="s">
-        <v>4768</v>
+        <v>5183</v>
       </c>
       <c r="D69" t="s">
-        <v>4769</v>
+        <v>5184</v>
       </c>
       <c r="E69" t="s">
-        <v>4770</v>
+        <v>5185</v>
       </c>
       <c r="F69" t="s">
-        <v>4771</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -16367,16 +17641,16 @@
         <v>4772</v>
       </c>
       <c r="C70" t="s">
-        <v>4348</v>
+        <v>5187</v>
       </c>
       <c r="D70" t="s">
-        <v>3912</v>
+        <v>5188</v>
       </c>
       <c r="E70" t="s">
-        <v>3913</v>
+        <v>5189</v>
       </c>
       <c r="F70" t="s">
-        <v>4773</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -16390,7 +17664,7 @@
         <v>4774</v>
       </c>
       <c r="D71" t="s">
-        <v>3470</v>
+        <v>5191</v>
       </c>
       <c r="E71" t="s">
         <v>4352</v>
@@ -16404,19 +17678,19 @@
         <v>420</v>
       </c>
       <c r="B72" t="s">
-        <v>4776</v>
+        <v>5192</v>
       </c>
       <c r="C72" t="s">
         <v>4777</v>
       </c>
       <c r="D72" t="s">
-        <v>4354</v>
+        <v>5193</v>
       </c>
       <c r="E72" t="s">
-        <v>4357</v>
+        <v>5194</v>
       </c>
       <c r="F72" t="s">
-        <v>4778</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -16424,19 +17698,19 @@
         <v>426</v>
       </c>
       <c r="B73" t="s">
-        <v>4779</v>
+        <v>5196</v>
       </c>
       <c r="C73" t="s">
-        <v>4780</v>
+        <v>5197</v>
       </c>
       <c r="D73" t="s">
-        <v>4781</v>
+        <v>5198</v>
       </c>
       <c r="E73" t="s">
-        <v>4782</v>
+        <v>5199</v>
       </c>
       <c r="F73" t="s">
-        <v>4783</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -16444,19 +17718,19 @@
         <v>432</v>
       </c>
       <c r="B74" t="s">
-        <v>4784</v>
+        <v>5201</v>
       </c>
       <c r="C74" t="s">
-        <v>4785</v>
+        <v>5202</v>
       </c>
       <c r="D74" t="s">
-        <v>4786</v>
+        <v>5203</v>
       </c>
       <c r="E74" t="s">
-        <v>4787</v>
+        <v>5204</v>
       </c>
       <c r="F74" t="s">
-        <v>4788</v>
+        <v>5205</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -16464,19 +17738,19 @@
         <v>438</v>
       </c>
       <c r="B75" t="s">
-        <v>4789</v>
+        <v>5206</v>
       </c>
       <c r="C75" t="s">
-        <v>4790</v>
+        <v>5207</v>
       </c>
       <c r="D75" t="s">
-        <v>4791</v>
+        <v>5208</v>
       </c>
       <c r="E75" t="s">
         <v>4370</v>
       </c>
       <c r="F75" t="s">
-        <v>4792</v>
+        <v>5209</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -16484,19 +17758,19 @@
         <v>444</v>
       </c>
       <c r="B76" t="s">
-        <v>4793</v>
+        <v>5210</v>
       </c>
       <c r="C76" t="s">
-        <v>4794</v>
+        <v>5211</v>
       </c>
       <c r="D76" t="s">
-        <v>4795</v>
+        <v>5212</v>
       </c>
       <c r="E76" t="s">
-        <v>4796</v>
+        <v>5213</v>
       </c>
       <c r="F76" t="s">
-        <v>4376</v>
+        <v>5214</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -16504,19 +17778,19 @@
         <v>450</v>
       </c>
       <c r="B77" t="s">
-        <v>4797</v>
+        <v>5215</v>
       </c>
       <c r="C77" t="s">
-        <v>4798</v>
+        <v>5216</v>
       </c>
       <c r="D77" t="s">
-        <v>4799</v>
+        <v>5217</v>
       </c>
       <c r="E77" t="s">
-        <v>4800</v>
+        <v>5218</v>
       </c>
       <c r="F77" t="s">
-        <v>4801</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -16524,19 +17798,19 @@
         <v>456</v>
       </c>
       <c r="B78" t="s">
-        <v>4802</v>
+        <v>5220</v>
       </c>
       <c r="C78" t="s">
-        <v>4803</v>
+        <v>5221</v>
       </c>
       <c r="D78" t="s">
-        <v>4804</v>
+        <v>5222</v>
       </c>
       <c r="E78" t="s">
-        <v>4805</v>
+        <v>5223</v>
       </c>
       <c r="F78" t="s">
-        <v>4806</v>
+        <v>5224</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -16544,19 +17818,19 @@
         <v>462</v>
       </c>
       <c r="B79" t="s">
-        <v>4807</v>
+        <v>5225</v>
       </c>
       <c r="C79" t="s">
-        <v>4808</v>
+        <v>5226</v>
       </c>
       <c r="D79" t="s">
-        <v>4809</v>
+        <v>5227</v>
       </c>
       <c r="E79" t="s">
-        <v>4810</v>
+        <v>5228</v>
       </c>
       <c r="F79" t="s">
-        <v>4811</v>
+        <v>5229</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -16564,19 +17838,19 @@
         <v>468</v>
       </c>
       <c r="B80" t="s">
-        <v>4812</v>
+        <v>5230</v>
       </c>
       <c r="C80" t="s">
-        <v>4813</v>
+        <v>5231</v>
       </c>
       <c r="D80" t="s">
         <v>3513</v>
       </c>
       <c r="E80" t="s">
-        <v>4814</v>
+        <v>5232</v>
       </c>
       <c r="F80" t="s">
-        <v>4815</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -16584,19 +17858,19 @@
         <v>474</v>
       </c>
       <c r="B81" t="s">
-        <v>4816</v>
+        <v>5234</v>
       </c>
       <c r="C81" t="s">
-        <v>4817</v>
+        <v>5235</v>
       </c>
       <c r="D81" t="s">
-        <v>4818</v>
+        <v>5236</v>
       </c>
       <c r="E81" t="s">
-        <v>4398</v>
+        <v>5237</v>
       </c>
       <c r="F81" t="s">
-        <v>4399</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -16604,19 +17878,19 @@
         <v>480</v>
       </c>
       <c r="B82" t="s">
-        <v>4819</v>
+        <v>5239</v>
       </c>
       <c r="C82" t="s">
-        <v>4820</v>
+        <v>5240</v>
       </c>
       <c r="D82" t="s">
-        <v>4821</v>
+        <v>5241</v>
       </c>
       <c r="E82" t="s">
-        <v>4822</v>
+        <v>5242</v>
       </c>
       <c r="F82" t="s">
-        <v>4823</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -16624,19 +17898,19 @@
         <v>486</v>
       </c>
       <c r="B83" t="s">
-        <v>4824</v>
+        <v>5244</v>
       </c>
       <c r="C83" t="s">
-        <v>4825</v>
+        <v>5245</v>
       </c>
       <c r="D83" t="s">
-        <v>4826</v>
+        <v>5246</v>
       </c>
       <c r="E83" t="s">
-        <v>4827</v>
+        <v>5247</v>
       </c>
       <c r="F83" t="s">
-        <v>4828</v>
+        <v>5248</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -16644,19 +17918,19 @@
         <v>492</v>
       </c>
       <c r="B84" t="s">
-        <v>4829</v>
+        <v>5249</v>
       </c>
       <c r="C84" t="s">
-        <v>4830</v>
+        <v>5250</v>
       </c>
       <c r="D84" t="s">
-        <v>4831</v>
+        <v>5251</v>
       </c>
       <c r="E84" t="s">
-        <v>4832</v>
+        <v>5252</v>
       </c>
       <c r="F84" t="s">
-        <v>4833</v>
+        <v>5253</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -16684,19 +17958,19 @@
         <v>504</v>
       </c>
       <c r="B86" t="s">
-        <v>4836</v>
+        <v>5254</v>
       </c>
       <c r="C86" t="s">
-        <v>4837</v>
+        <v>5255</v>
       </c>
       <c r="D86" t="s">
-        <v>4838</v>
+        <v>5256</v>
       </c>
       <c r="E86" t="s">
-        <v>4419</v>
+        <v>5257</v>
       </c>
       <c r="F86" t="s">
-        <v>4839</v>
+        <v>5258</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -16704,19 +17978,19 @@
         <v>510</v>
       </c>
       <c r="B87" t="s">
-        <v>4840</v>
+        <v>5259</v>
       </c>
       <c r="C87" t="s">
-        <v>4841</v>
+        <v>5260</v>
       </c>
       <c r="D87" t="s">
-        <v>4842</v>
+        <v>5261</v>
       </c>
       <c r="E87" t="s">
-        <v>4843</v>
+        <v>5262</v>
       </c>
       <c r="F87" t="s">
-        <v>4425</v>
+        <v>5263</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -16724,19 +17998,19 @@
         <v>516</v>
       </c>
       <c r="B88" t="s">
-        <v>4844</v>
+        <v>5264</v>
       </c>
       <c r="C88" t="s">
-        <v>4845</v>
+        <v>5265</v>
       </c>
       <c r="D88" t="s">
         <v>4846</v>
       </c>
       <c r="E88" t="s">
-        <v>4847</v>
+        <v>5266</v>
       </c>
       <c r="F88" t="s">
-        <v>4848</v>
+        <v>5267</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -16744,19 +18018,19 @@
         <v>522</v>
       </c>
       <c r="B89" t="s">
-        <v>4431</v>
+        <v>5268</v>
       </c>
       <c r="C89" t="s">
-        <v>4432</v>
+        <v>5269</v>
       </c>
       <c r="D89" t="s">
-        <v>4849</v>
+        <v>5270</v>
       </c>
       <c r="E89" t="s">
-        <v>4850</v>
+        <v>5271</v>
       </c>
       <c r="F89" t="s">
-        <v>4851</v>
+        <v>5272</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -16764,19 +18038,19 @@
         <v>528</v>
       </c>
       <c r="B90" t="s">
-        <v>4852</v>
+        <v>5273</v>
       </c>
       <c r="C90" t="s">
-        <v>4853</v>
+        <v>5274</v>
       </c>
       <c r="D90" t="s">
-        <v>4854</v>
+        <v>5275</v>
       </c>
       <c r="E90" t="s">
-        <v>4855</v>
+        <v>5276</v>
       </c>
       <c r="F90" t="s">
-        <v>4856</v>
+        <v>5277</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -16784,19 +18058,19 @@
         <v>534</v>
       </c>
       <c r="B91" t="s">
-        <v>4857</v>
+        <v>5278</v>
       </c>
       <c r="C91" t="s">
-        <v>4442</v>
+        <v>5279</v>
       </c>
       <c r="D91" t="s">
-        <v>4858</v>
+        <v>5280</v>
       </c>
       <c r="E91" t="s">
-        <v>4859</v>
+        <v>5281</v>
       </c>
       <c r="F91" t="s">
-        <v>4860</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -16804,19 +18078,19 @@
         <v>540</v>
       </c>
       <c r="B92" t="s">
-        <v>4861</v>
+        <v>5283</v>
       </c>
       <c r="C92" t="s">
-        <v>4862</v>
+        <v>5284</v>
       </c>
       <c r="D92" t="s">
-        <v>4448</v>
+        <v>5285</v>
       </c>
       <c r="E92" t="s">
-        <v>4863</v>
+        <v>5286</v>
       </c>
       <c r="F92" t="s">
-        <v>4449</v>
+        <v>5287</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -16824,19 +18098,19 @@
         <v>546</v>
       </c>
       <c r="B93" t="s">
-        <v>4864</v>
+        <v>5288</v>
       </c>
       <c r="C93" t="s">
-        <v>4865</v>
+        <v>5289</v>
       </c>
       <c r="D93" t="s">
-        <v>4866</v>
+        <v>5290</v>
       </c>
       <c r="E93" t="s">
-        <v>4867</v>
+        <v>5291</v>
       </c>
       <c r="F93" t="s">
-        <v>4868</v>
+        <v>5292</v>
       </c>
     </row>
   </sheetData>
@@ -16845,6 +18119,1886 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3009EEF-D0A3-4418-BB02-D308992E6389}">
+  <dimension ref="A1:F93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C2" t="s">
+        <v>991</v>
+      </c>
+      <c r="D2" t="s">
+        <v>992</v>
+      </c>
+      <c r="E2" t="s">
+        <v>993</v>
+      </c>
+      <c r="F2" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>995</v>
+      </c>
+      <c r="C3" t="s">
+        <v>996</v>
+      </c>
+      <c r="D3" t="s">
+        <v>997</v>
+      </c>
+      <c r="E3" t="s">
+        <v>998</v>
+      </c>
+      <c r="F3" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E43" t="s">
+        <v>251</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>312</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>318</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>330</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C57" t="s">
+        <v>829</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>336</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>360</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>372</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>378</v>
+      </c>
+      <c r="B65" t="s">
+        <v>379</v>
+      </c>
+      <c r="C65" t="s">
+        <v>381</v>
+      </c>
+      <c r="D65" t="s">
+        <v>382</v>
+      </c>
+      <c r="E65" t="s">
+        <v>383</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>384</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>390</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>396</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E68" t="s">
+        <v>400</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>402</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>408</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C70" t="s">
+        <v>410</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>414</v>
+      </c>
+      <c r="B71" t="s">
+        <v>415</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D71" t="s">
+        <v>417</v>
+      </c>
+      <c r="E71" t="s">
+        <v>418</v>
+      </c>
+      <c r="F71" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>420</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>426</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>432</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E74" t="s">
+        <v>437</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>438</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>444</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>450</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>456</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>462</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>474</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>480</v>
+      </c>
+      <c r="B82" t="s">
+        <v>934</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>486</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>492</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D84" t="s">
+        <v>948</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>498</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D85" t="s">
+        <v>501</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>504</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>510</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>516</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>522</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>528</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>534</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F91" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>540</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C92" t="s">
+        <v>983</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F92" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>546</v>
+      </c>
+      <c r="B93" t="s">
+        <v>986</v>
+      </c>
+      <c r="C93" t="s">
+        <v>987</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62503B16-5D5E-43EB-8EDC-28C65E9BFBAD}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -18724,7 +21878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -20605,6 +23759,1887 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEE11C3-3B44-4022-BB32-BDF73F267C1B}">
+  <dimension ref="A1:F93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4455</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4456</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4457</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4458</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4460</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4461</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4462</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4463</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4465</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4466</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4467</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4468</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4470</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4471</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4472</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4473</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4475</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4476</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4477</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4478</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4480</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4481</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4482</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4483</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4485</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4486</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4487</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4488</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4490</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4054</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4491</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4492</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4494</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4495</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4496</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4497</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4499</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4500</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4501</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4502</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4504</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4505</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4506</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4507</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4509</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4510</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4511</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4512</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4514</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4515</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4516</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4517</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4519</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4082</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4520</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4521</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4522</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4523</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4524</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4525</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4527</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4528</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3655</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4529</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4530</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4531</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4532</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4533</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4535</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4536</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4537</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4538</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4539</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4540</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4541</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4542</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4543</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4545</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4546</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4547</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4548</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4549</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4550</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4551</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4552</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4553</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4555</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4556</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4557</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4558</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4560</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4561</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4562</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4563</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4565</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4131</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4566</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4567</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4569</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4570</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4571</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4572</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4574</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4575</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4576</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4577</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4579</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4580</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4581</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4582</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4150</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4583</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3273</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4584</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4585</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4586</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4587</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4588</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4589</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4591</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4592</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4593</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4594</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4596</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4597</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4598</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4599</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4601</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4602</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4603</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4604</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4605</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4606</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4607</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4608</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4609</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4611</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4612</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4182</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4613</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4615</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4616</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4617</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4618</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4620</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4621</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4622</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4623</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4625</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4626</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4627</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4628</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4629</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4630</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4631</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4632</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4633</v>
+      </c>
+      <c r="F39" t="s">
+        <v>4634</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4635</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4636</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4637</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4638</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4639</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4640</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4641</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4642</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4643</v>
+      </c>
+      <c r="F41" t="s">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4645</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4646</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4647</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4648</v>
+      </c>
+      <c r="F42" t="s">
+        <v>4649</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4650</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4651</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4652</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4653</v>
+      </c>
+      <c r="F43" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4655</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4656</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4657</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4658</v>
+      </c>
+      <c r="F44" t="s">
+        <v>4659</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4660</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4661</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4662</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4663</v>
+      </c>
+      <c r="F45" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4664</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4665</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4666</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4667</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4668</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4669</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4670</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4671</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4672</v>
+      </c>
+      <c r="F47" t="s">
+        <v>4673</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4674</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4675</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4676</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4677</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4678</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4679</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4680</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4681</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4682</v>
+      </c>
+      <c r="F49" t="s">
+        <v>4683</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4684</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4685</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4686</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4687</v>
+      </c>
+      <c r="F50" t="s">
+        <v>4688</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4689</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4690</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4691</v>
+      </c>
+      <c r="E51" t="s">
+        <v>4692</v>
+      </c>
+      <c r="F51" t="s">
+        <v>4693</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4694</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4695</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4696</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4697</v>
+      </c>
+      <c r="F52" t="s">
+        <v>4698</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4699</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4700</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4701</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4702</v>
+      </c>
+      <c r="F53" t="s">
+        <v>4703</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>312</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4704</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4705</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4706</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4707</v>
+      </c>
+      <c r="F54" t="s">
+        <v>4708</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>318</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4709</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4710</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4711</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4712</v>
+      </c>
+      <c r="F55" t="s">
+        <v>4713</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4714</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4715</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4716</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4717</v>
+      </c>
+      <c r="F56" t="s">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>330</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3853</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4719</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4720</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4289</v>
+      </c>
+      <c r="F57" t="s">
+        <v>4721</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>336</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4722</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4723</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4724</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4725</v>
+      </c>
+      <c r="F58" t="s">
+        <v>4726</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4727</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4728</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4729</v>
+      </c>
+      <c r="E59" t="s">
+        <v>4730</v>
+      </c>
+      <c r="F59" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4732</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4304</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4733</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4734</v>
+      </c>
+      <c r="F60" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4735</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4736</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4737</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4738</v>
+      </c>
+      <c r="F61" t="s">
+        <v>4739</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>360</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4740</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4741</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4742</v>
+      </c>
+      <c r="E62" t="s">
+        <v>4743</v>
+      </c>
+      <c r="F62" t="s">
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4745</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4746</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4747</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4748</v>
+      </c>
+      <c r="F63" t="s">
+        <v>4749</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>372</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4750</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4751</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4752</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4753</v>
+      </c>
+      <c r="F64" t="s">
+        <v>4754</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>378</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3448</v>
+      </c>
+      <c r="D65" t="s">
+        <v>381</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4755</v>
+      </c>
+      <c r="F65" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>384</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4756</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4757</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4758</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F66" t="s">
+        <v>4759</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>390</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4760</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4761</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4762</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4763</v>
+      </c>
+      <c r="F67" t="s">
+        <v>4764</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>396</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4765</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4340</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4766</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4342</v>
+      </c>
+      <c r="F68" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>402</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4767</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4768</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4769</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4770</v>
+      </c>
+      <c r="F69" t="s">
+        <v>4771</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>408</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4772</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4348</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3912</v>
+      </c>
+      <c r="E70" t="s">
+        <v>3913</v>
+      </c>
+      <c r="F70" t="s">
+        <v>4773</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>414</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4351</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4774</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3470</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4352</v>
+      </c>
+      <c r="F71" t="s">
+        <v>4775</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>420</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4776</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4777</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4354</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4357</v>
+      </c>
+      <c r="F72" t="s">
+        <v>4778</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>426</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4779</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4780</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4781</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4782</v>
+      </c>
+      <c r="F73" t="s">
+        <v>4783</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>432</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4784</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4785</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4786</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4787</v>
+      </c>
+      <c r="F74" t="s">
+        <v>4788</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>438</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4789</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4790</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4791</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4370</v>
+      </c>
+      <c r="F75" t="s">
+        <v>4792</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>444</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4793</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4794</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4795</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4796</v>
+      </c>
+      <c r="F76" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>450</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4797</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4798</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4799</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4800</v>
+      </c>
+      <c r="F77" t="s">
+        <v>4801</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>456</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4802</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4804</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4805</v>
+      </c>
+      <c r="F78" t="s">
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>462</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4807</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4808</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4809</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4810</v>
+      </c>
+      <c r="F79" t="s">
+        <v>4811</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4812</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4813</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4814</v>
+      </c>
+      <c r="F80" t="s">
+        <v>4815</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>474</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4816</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4817</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4818</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4398</v>
+      </c>
+      <c r="F81" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>480</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4819</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4820</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4821</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4822</v>
+      </c>
+      <c r="F82" t="s">
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>486</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4824</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4825</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4826</v>
+      </c>
+      <c r="E83" t="s">
+        <v>4827</v>
+      </c>
+      <c r="F83" t="s">
+        <v>4828</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>492</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4829</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4830</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4831</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4832</v>
+      </c>
+      <c r="F84" t="s">
+        <v>4833</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>498</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4834</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4835</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4413</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4414</v>
+      </c>
+      <c r="F85" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>504</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4836</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4837</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4838</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4419</v>
+      </c>
+      <c r="F86" t="s">
+        <v>4839</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>510</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4840</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4841</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4842</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4843</v>
+      </c>
+      <c r="F87" t="s">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>516</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4844</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4845</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4846</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4847</v>
+      </c>
+      <c r="F88" t="s">
+        <v>4848</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>522</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4431</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4432</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4849</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4850</v>
+      </c>
+      <c r="F89" t="s">
+        <v>4851</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>528</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4852</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4853</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4854</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4855</v>
+      </c>
+      <c r="F90" t="s">
+        <v>4856</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>534</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4857</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4442</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4858</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4859</v>
+      </c>
+      <c r="F91" t="s">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>540</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4861</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4862</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4448</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4863</v>
+      </c>
+      <c r="F92" t="s">
+        <v>4449</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>546</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4864</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4865</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4866</v>
+      </c>
+      <c r="E93" t="s">
+        <v>4867</v>
+      </c>
+      <c r="F93" t="s">
+        <v>4868</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDA9053-1E1E-4544-B000-C7441587AE1E}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -22486,7 +27521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60595582-9969-482E-9896-05463C5DE0AD}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -24367,7 +29402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001CC29C-638A-4E4E-829D-66241B93D88A}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -26248,7 +31283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C0AFDA-3FBB-41A3-BA62-46EDDC71FB68}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -28130,7 +33165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676205A0-C5FF-4AEC-B10B-18D60F60A28C}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -30012,7 +35047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FC7E8D-1DE3-4DBF-BC92-6657EED87D10}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -31895,7 +36930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EEF453-2C93-48DA-92A9-F02917F02C21}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -33775,1884 +38810,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3009EEF-D0A3-4418-BB02-D308992E6389}">
-  <dimension ref="A1:F93"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>990</v>
-      </c>
-      <c r="C2" t="s">
-        <v>991</v>
-      </c>
-      <c r="D2" t="s">
-        <v>992</v>
-      </c>
-      <c r="E2" t="s">
-        <v>993</v>
-      </c>
-      <c r="F2" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>995</v>
-      </c>
-      <c r="C3" t="s">
-        <v>996</v>
-      </c>
-      <c r="D3" t="s">
-        <v>997</v>
-      </c>
-      <c r="E3" t="s">
-        <v>998</v>
-      </c>
-      <c r="F3" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1038</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1113</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>156</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1123</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1138</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>186</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>198</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1158</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>204</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>216</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1173</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>222</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>228</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1183</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>234</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>240</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>246</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E43" t="s">
-        <v>251</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>252</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1202</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>258</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>264</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1212</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>270</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1216</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1217</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>276</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>282</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>288</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1231</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1232</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>294</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1236</v>
-      </c>
-      <c r="E51" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F51" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E52" t="s">
-        <v>1242</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>306</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E53" t="s">
-        <v>1247</v>
-      </c>
-      <c r="F53" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>312</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F54" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>318</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1257</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>324</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>330</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C57" t="s">
-        <v>829</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1265</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1266</v>
-      </c>
-      <c r="F57" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>336</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1271</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>342</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1275</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1276</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>348</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1280</v>
-      </c>
-      <c r="E60" t="s">
-        <v>1281</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>354</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F61" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>360</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1290</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1291</v>
-      </c>
-      <c r="F62" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>366</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1296</v>
-      </c>
-      <c r="F63" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>372</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1300</v>
-      </c>
-      <c r="E64" t="s">
-        <v>1301</v>
-      </c>
-      <c r="F64" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>378</v>
-      </c>
-      <c r="B65" t="s">
-        <v>379</v>
-      </c>
-      <c r="C65" t="s">
-        <v>381</v>
-      </c>
-      <c r="D65" t="s">
-        <v>382</v>
-      </c>
-      <c r="E65" t="s">
-        <v>383</v>
-      </c>
-      <c r="F65" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>384</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1305</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E66" t="s">
-        <v>1307</v>
-      </c>
-      <c r="F66" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>390</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E67" t="s">
-        <v>1312</v>
-      </c>
-      <c r="F67" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>396</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E68" t="s">
-        <v>400</v>
-      </c>
-      <c r="F68" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>402</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E69" t="s">
-        <v>1321</v>
-      </c>
-      <c r="F69" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>408</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C70" t="s">
-        <v>410</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E70" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F70" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>414</v>
-      </c>
-      <c r="B71" t="s">
-        <v>415</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D71" t="s">
-        <v>417</v>
-      </c>
-      <c r="E71" t="s">
-        <v>418</v>
-      </c>
-      <c r="F71" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>420</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1330</v>
-      </c>
-      <c r="E72" t="s">
-        <v>1331</v>
-      </c>
-      <c r="F72" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>426</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1334</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1335</v>
-      </c>
-      <c r="E73" t="s">
-        <v>1336</v>
-      </c>
-      <c r="F73" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>432</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1339</v>
-      </c>
-      <c r="D74" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E74" t="s">
-        <v>437</v>
-      </c>
-      <c r="F74" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>438</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D75" t="s">
-        <v>1344</v>
-      </c>
-      <c r="E75" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F75" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>444</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D76" t="s">
-        <v>1349</v>
-      </c>
-      <c r="E76" t="s">
-        <v>1350</v>
-      </c>
-      <c r="F76" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>450</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E77" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F77" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>456</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D78" t="s">
-        <v>1359</v>
-      </c>
-      <c r="E78" t="s">
-        <v>1360</v>
-      </c>
-      <c r="F78" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>462</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1364</v>
-      </c>
-      <c r="E79" t="s">
-        <v>1365</v>
-      </c>
-      <c r="F79" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>468</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1368</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1370</v>
-      </c>
-      <c r="F80" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>474</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1374</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1375</v>
-      </c>
-      <c r="F81" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>480</v>
-      </c>
-      <c r="B82" t="s">
-        <v>934</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1378</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1379</v>
-      </c>
-      <c r="F82" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>486</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1382</v>
-      </c>
-      <c r="D83" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1384</v>
-      </c>
-      <c r="F83" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>492</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1386</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D84" t="s">
-        <v>948</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1388</v>
-      </c>
-      <c r="F84" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>498</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1391</v>
-      </c>
-      <c r="D85" t="s">
-        <v>501</v>
-      </c>
-      <c r="E85" t="s">
-        <v>1392</v>
-      </c>
-      <c r="F85" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>504</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1396</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1397</v>
-      </c>
-      <c r="F86" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>510</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1401</v>
-      </c>
-      <c r="E87" t="s">
-        <v>1402</v>
-      </c>
-      <c r="F87" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>516</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1407</v>
-      </c>
-      <c r="F88" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>522</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1411</v>
-      </c>
-      <c r="E89" t="s">
-        <v>1412</v>
-      </c>
-      <c r="F89" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>528</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D90" t="s">
-        <v>1416</v>
-      </c>
-      <c r="E90" t="s">
-        <v>1417</v>
-      </c>
-      <c r="F90" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>534</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1420</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1421</v>
-      </c>
-      <c r="E91" t="s">
-        <v>1422</v>
-      </c>
-      <c r="F91" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>540</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C92" t="s">
-        <v>983</v>
-      </c>
-      <c r="D92" t="s">
-        <v>1424</v>
-      </c>
-      <c r="E92" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F92" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>546</v>
-      </c>
-      <c r="B93" t="s">
-        <v>986</v>
-      </c>
-      <c r="C93" t="s">
-        <v>987</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1426</v>
-      </c>
-      <c r="E93" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F93" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Broker_Analysis.xlsx
+++ b/Broker_Analysis.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\OneDrive\Desktop\Others\python scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9A5F39-2FB2-4004-9F4B-CE196927FA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9404B884-8ECD-4907-B819-8D515F0A0CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-06-11" sheetId="12" r:id="rId1"/>
-    <sheet name="2025_06_10" sheetId="11" r:id="rId2"/>
-    <sheet name="2025-06-09" sheetId="10" r:id="rId3"/>
-    <sheet name="2025-06-08" sheetId="9" r:id="rId4"/>
-    <sheet name="2025-06-05" sheetId="8" r:id="rId5"/>
-    <sheet name="2025-06-04" sheetId="7" r:id="rId6"/>
-    <sheet name="2025-06-03" sheetId="6" r:id="rId7"/>
-    <sheet name="2025-06-02" sheetId="5" r:id="rId8"/>
-    <sheet name="2025-05-28" sheetId="4" r:id="rId9"/>
-    <sheet name="2025-05-21" sheetId="3" r:id="rId10"/>
-    <sheet name="2025-05-20" sheetId="2" r:id="rId11"/>
-    <sheet name="2025-05-19" sheetId="1" r:id="rId12"/>
+    <sheet name="2025-06-12" sheetId="13" r:id="rId1"/>
+    <sheet name="2025-06-11" sheetId="12" r:id="rId2"/>
+    <sheet name="2025-06-10" sheetId="11" r:id="rId3"/>
+    <sheet name="2025-06-09" sheetId="10" r:id="rId4"/>
+    <sheet name="2025-06-08" sheetId="9" r:id="rId5"/>
+    <sheet name="2025-06-05" sheetId="8" r:id="rId6"/>
+    <sheet name="2025-06-04" sheetId="7" r:id="rId7"/>
+    <sheet name="2025-06-03" sheetId="6" r:id="rId8"/>
+    <sheet name="2025-06-02" sheetId="5" r:id="rId9"/>
+    <sheet name="2025-05-28" sheetId="4" r:id="rId10"/>
+    <sheet name="2025-05-21" sheetId="3" r:id="rId11"/>
+    <sheet name="2025-05-20" sheetId="2" r:id="rId12"/>
+    <sheet name="2025-05-19" sheetId="1" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6696" uniqueCount="5293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7254" uniqueCount="5725">
   <si>
     <t>B1</t>
   </si>
@@ -15915,6 +15916,1302 @@
   </si>
   <si>
     <t>SHPC/11570/576.78</t>
+  </si>
+  <si>
+    <t>NIFRA/101245/282.89</t>
+  </si>
+  <si>
+    <t>NRN/13074/2,026.95</t>
+  </si>
+  <si>
+    <t>SHIVM/45026/521.75</t>
+  </si>
+  <si>
+    <t>CHDC/8021/2,603.49</t>
+  </si>
+  <si>
+    <t>EBL/27982/648.43</t>
+  </si>
+  <si>
+    <t>OMPL/5845/1,595.43</t>
+  </si>
+  <si>
+    <t>SHIVM/16252/528.52</t>
+  </si>
+  <si>
+    <t>HLI/15142/408.69</t>
+  </si>
+  <si>
+    <t>UNHPL/13675/342.95</t>
+  </si>
+  <si>
+    <t>HIDCLP/19560/216.55</t>
+  </si>
+  <si>
+    <t>SARBTM/66793/845.70</t>
+  </si>
+  <si>
+    <t>API/57391/300.61</t>
+  </si>
+  <si>
+    <t>SAHAS/31153/534.67</t>
+  </si>
+  <si>
+    <t>SHIVM/21206/523.44</t>
+  </si>
+  <si>
+    <t>NMB/42722/244.10</t>
+  </si>
+  <si>
+    <t>HIDCLP/110524/210.80</t>
+  </si>
+  <si>
+    <t>HRL/10599/960.56</t>
+  </si>
+  <si>
+    <t>HDL/7469/1,235.23</t>
+  </si>
+  <si>
+    <t>LBBL/16734/449.81</t>
+  </si>
+  <si>
+    <t>NRIC/5798/1,274.16</t>
+  </si>
+  <si>
+    <t>NRIC/505630/1,294.77</t>
+  </si>
+  <si>
+    <t>HRL/69177/949.75</t>
+  </si>
+  <si>
+    <t>UPCL/126386/444.45</t>
+  </si>
+  <si>
+    <t>HIDCLP/184915/209.93</t>
+  </si>
+  <si>
+    <t>RIDI/95359/270.01</t>
+  </si>
+  <si>
+    <t>CHDC/11099/2,591.25</t>
+  </si>
+  <si>
+    <t>NRN/10460/2,046.53</t>
+  </si>
+  <si>
+    <t>RADHI/19493/774.13</t>
+  </si>
+  <si>
+    <t>GHL/34815/257.81</t>
+  </si>
+  <si>
+    <t>SHPC/13538/590.04</t>
+  </si>
+  <si>
+    <t>LBBL/135077/466.19</t>
+  </si>
+  <si>
+    <t>SADBL/69331/426.97</t>
+  </si>
+  <si>
+    <t>CHDC/10310/2,570.19</t>
+  </si>
+  <si>
+    <t>LSL/112676/223.01</t>
+  </si>
+  <si>
+    <t>HIDCLP/99213/213.20</t>
+  </si>
+  <si>
+    <t>HIDCLP/67842/212.47</t>
+  </si>
+  <si>
+    <t>CIT/3247/1,923.52</t>
+  </si>
+  <si>
+    <t>SHIVM/9546/527.93</t>
+  </si>
+  <si>
+    <t>NABIL/27294/494.06</t>
+  </si>
+  <si>
+    <t>CIT/3172/1,915.27</t>
+  </si>
+  <si>
+    <t>CGH/5276/956.14</t>
+  </si>
+  <si>
+    <t>ALICL/7663/673.44</t>
+  </si>
+  <si>
+    <t>UPPER/20537/200.92</t>
+  </si>
+  <si>
+    <t>CREST/8661/1,963.66</t>
+  </si>
+  <si>
+    <t>UMHL/28848/516.49</t>
+  </si>
+  <si>
+    <t>BPCL/15751/669.11</t>
+  </si>
+  <si>
+    <t>NMIC/5840/2,042.06</t>
+  </si>
+  <si>
+    <t>BARUN/20366/433.07</t>
+  </si>
+  <si>
+    <t>CGH/50734/914.96</t>
+  </si>
+  <si>
+    <t>SAHAS/68852/534.21</t>
+  </si>
+  <si>
+    <t>HRL/38985/943.35</t>
+  </si>
+  <si>
+    <t>HIDCLP/128997/210.44</t>
+  </si>
+  <si>
+    <t>BARUN/63815/388.29</t>
+  </si>
+  <si>
+    <t>RADHI/107915/811.55</t>
+  </si>
+  <si>
+    <t>CHDC/27756/2,703.73</t>
+  </si>
+  <si>
+    <t>NMIC/30904/1,957.24</t>
+  </si>
+  <si>
+    <t>HURJA/190560/258.20</t>
+  </si>
+  <si>
+    <t>SHEL/173745/275.96</t>
+  </si>
+  <si>
+    <t>NGPL/215394/392.78</t>
+  </si>
+  <si>
+    <t>HIDCL/180687/312.26</t>
+  </si>
+  <si>
+    <t>HIDCLP/263999/214.70</t>
+  </si>
+  <si>
+    <t>MEN/63336/604.47</t>
+  </si>
+  <si>
+    <t>SADBL/88842/425.25</t>
+  </si>
+  <si>
+    <t>SPIL/23553/814.91</t>
+  </si>
+  <si>
+    <t>NLICL/22356/612.98</t>
+  </si>
+  <si>
+    <t>CREST/7269/1,888.09</t>
+  </si>
+  <si>
+    <t>NLIC/12924/753.15</t>
+  </si>
+  <si>
+    <t>BPCL/66451/594.78</t>
+  </si>
+  <si>
+    <t>CHDC/6791/2,661.75</t>
+  </si>
+  <si>
+    <t>LBBL/34497/466.01</t>
+  </si>
+  <si>
+    <t>UPCL/36189/440.13</t>
+  </si>
+  <si>
+    <t>OMPL/7915/1,782.83</t>
+  </si>
+  <si>
+    <t>LBBL/70775/464.55</t>
+  </si>
+  <si>
+    <t>HRL/20027/948.82</t>
+  </si>
+  <si>
+    <t>EBL/22076/654.16</t>
+  </si>
+  <si>
+    <t>SHIVM/27114/522.69</t>
+  </si>
+  <si>
+    <t>CHDC/4953/2,562.85</t>
+  </si>
+  <si>
+    <t>SHIVM/44862/522.24</t>
+  </si>
+  <si>
+    <t>SMHL/17922/1,065.06</t>
+  </si>
+  <si>
+    <t>SADBL/39642/415.41</t>
+  </si>
+  <si>
+    <t>NGPL/34788/389.92</t>
+  </si>
+  <si>
+    <t>CHCL/20746/538.03</t>
+  </si>
+  <si>
+    <t>SHIVM/55384/526.29</t>
+  </si>
+  <si>
+    <t>UPCL/52902/453.89</t>
+  </si>
+  <si>
+    <t>KPCL/33875/549.48</t>
+  </si>
+  <si>
+    <t>SHEL/55131/275.16</t>
+  </si>
+  <si>
+    <t>GHL/56909/259.78</t>
+  </si>
+  <si>
+    <t>KBL/190556/215.27</t>
+  </si>
+  <si>
+    <t>API/71627/305.04</t>
+  </si>
+  <si>
+    <t>HIDCL/73838/306.69</t>
+  </si>
+  <si>
+    <t>SHPC/32088/611.28</t>
+  </si>
+  <si>
+    <t>NRN/8806/2,049.00</t>
+  </si>
+  <si>
+    <t>NGPL/171847/387.48</t>
+  </si>
+  <si>
+    <t>RADHI/77179/790.81</t>
+  </si>
+  <si>
+    <t>NRIC/20583/1,289.53</t>
+  </si>
+  <si>
+    <t>BHL/121672/216.23</t>
+  </si>
+  <si>
+    <t>LBBL/39871/459.43</t>
+  </si>
+  <si>
+    <t>SAHAS/164873/533.19</t>
+  </si>
+  <si>
+    <t>BPCL/71688/591.89</t>
+  </si>
+  <si>
+    <t>MNBBL/81234/361.76</t>
+  </si>
+  <si>
+    <t>CORBL/11323/2,411.87</t>
+  </si>
+  <si>
+    <t>GVL/43063/454.00</t>
+  </si>
+  <si>
+    <t>BPCL/115458/671.01</t>
+  </si>
+  <si>
+    <t>DORDI/61415/402.54</t>
+  </si>
+  <si>
+    <t>GRDBL/18425/1,267.27</t>
+  </si>
+  <si>
+    <t>SPDL/44525/398.91</t>
+  </si>
+  <si>
+    <t>AHPC/43549/294.35</t>
+  </si>
+  <si>
+    <t>CHDC/31156/2,588.26</t>
+  </si>
+  <si>
+    <t>SHL/100391/578.07</t>
+  </si>
+  <si>
+    <t>NRIC/44715/1,277.95</t>
+  </si>
+  <si>
+    <t>SHPC/34249/588.17</t>
+  </si>
+  <si>
+    <t>BARUN/55311/404.87</t>
+  </si>
+  <si>
+    <t>SBL/600660/295.05</t>
+  </si>
+  <si>
+    <t>EBL/112922/652.71</t>
+  </si>
+  <si>
+    <t>UPCL/93531/453.64</t>
+  </si>
+  <si>
+    <t>CHCL/70241/550.87</t>
+  </si>
+  <si>
+    <t>MKHL/49229/737.42</t>
+  </si>
+  <si>
+    <t>HRL/83114/962.28</t>
+  </si>
+  <si>
+    <t>RADHI/79190/786.71</t>
+  </si>
+  <si>
+    <t>SHIVM/83139/524.10</t>
+  </si>
+  <si>
+    <t>AHPC/133003/297.81</t>
+  </si>
+  <si>
+    <t>API/108738/300.74</t>
+  </si>
+  <si>
+    <t>GBIME/274145/239.97</t>
+  </si>
+  <si>
+    <t>UPCL/122742/443.47</t>
+  </si>
+  <si>
+    <t>SBL/101824/294.79</t>
+  </si>
+  <si>
+    <t>CGH/29346/905.25</t>
+  </si>
+  <si>
+    <t>NIFRA/88202/280.96</t>
+  </si>
+  <si>
+    <t>SBI/166681/411.72</t>
+  </si>
+  <si>
+    <t>SPDL/56087/407.56</t>
+  </si>
+  <si>
+    <t>EBL/22599/634.71</t>
+  </si>
+  <si>
+    <t>NHPC/62097/222.04</t>
+  </si>
+  <si>
+    <t>SPIL/16537/822.90</t>
+  </si>
+  <si>
+    <t>MEN/13437/593.67</t>
+  </si>
+  <si>
+    <t>NRN/2581/2,061.25</t>
+  </si>
+  <si>
+    <t>SHPC/7135/597.35</t>
+  </si>
+  <si>
+    <t>AHPC/12688/296.93</t>
+  </si>
+  <si>
+    <t>BPCL/220431/586.70</t>
+  </si>
+  <si>
+    <t>SHIVM/83442/524.41</t>
+  </si>
+  <si>
+    <t>HPPL/70511/513.91</t>
+  </si>
+  <si>
+    <t>AKPL/127115/267.53</t>
+  </si>
+  <si>
+    <t>UPCL/62491/448.88</t>
+  </si>
+  <si>
+    <t>RADHI/129619/805.38</t>
+  </si>
+  <si>
+    <t>NRN/44333/2,050.47</t>
+  </si>
+  <si>
+    <t>UPCL/207969/438.15</t>
+  </si>
+  <si>
+    <t>HPPL/49698/535.07</t>
+  </si>
+  <si>
+    <t>SHIVM/31005/523.92</t>
+  </si>
+  <si>
+    <t>BPCL/58613/559.75</t>
+  </si>
+  <si>
+    <t>SANIMA/43736/318.20</t>
+  </si>
+  <si>
+    <t>EBL/19917/645.67</t>
+  </si>
+  <si>
+    <t>SHIVM/20918/522.29</t>
+  </si>
+  <si>
+    <t>MEN/17266/593.34</t>
+  </si>
+  <si>
+    <t>SAPDBL/141457/1,030.06</t>
+  </si>
+  <si>
+    <t>RADHI/54394/803.85</t>
+  </si>
+  <si>
+    <t>NMIC/21936/1,975.55</t>
+  </si>
+  <si>
+    <t>SHIVM/35271/523.83</t>
+  </si>
+  <si>
+    <t>SINDU/13569/882.67</t>
+  </si>
+  <si>
+    <t>GBIME/1012640/240.20</t>
+  </si>
+  <si>
+    <t>MERO/99374/745.35</t>
+  </si>
+  <si>
+    <t>NRN/31574/2,022.94</t>
+  </si>
+  <si>
+    <t>SHIVM/69028/522.75</t>
+  </si>
+  <si>
+    <t>NICA/88200/352.34</t>
+  </si>
+  <si>
+    <t>SPIL/24198/824.75</t>
+  </si>
+  <si>
+    <t>USLB/9527/1,975.54</t>
+  </si>
+  <si>
+    <t>UMRH/22822/592.32</t>
+  </si>
+  <si>
+    <t>NMFBS/11066/1,218.90</t>
+  </si>
+  <si>
+    <t>API/45041/301.65</t>
+  </si>
+  <si>
+    <t>CHCL/200970/562.53</t>
+  </si>
+  <si>
+    <t>EBL/112230/652.28</t>
+  </si>
+  <si>
+    <t>SANIMA/138891/320.10</t>
+  </si>
+  <si>
+    <t>HRL/41777/960.14</t>
+  </si>
+  <si>
+    <t>MLBL/99820/393.46</t>
+  </si>
+  <si>
+    <t>SHPC/174178/581.59</t>
+  </si>
+  <si>
+    <t>MEN/112374/593.37</t>
+  </si>
+  <si>
+    <t>GBIME/254142/226.11</t>
+  </si>
+  <si>
+    <t>BARUN/110104/390.90</t>
+  </si>
+  <si>
+    <t>CZBIL/180755/216.20</t>
+  </si>
+  <si>
+    <t>HRL/17197/941.99</t>
+  </si>
+  <si>
+    <t>API/38353/303.00</t>
+  </si>
+  <si>
+    <t>SARBTM/13361/841.32</t>
+  </si>
+  <si>
+    <t>AHPC/36135/301.86</t>
+  </si>
+  <si>
+    <t>MEN/12641/597.94</t>
+  </si>
+  <si>
+    <t>AKPL/113949/271.09</t>
+  </si>
+  <si>
+    <t>NGPL/60305/391.78</t>
+  </si>
+  <si>
+    <t>CREST/10725/1,853.65</t>
+  </si>
+  <si>
+    <t>SHL/34924/568.04</t>
+  </si>
+  <si>
+    <t>CHDC/4357/2,631.05</t>
+  </si>
+  <si>
+    <t>SHL/144589/569.87</t>
+  </si>
+  <si>
+    <t>GHL/297693/265.16</t>
+  </si>
+  <si>
+    <t>API/138212/306.73</t>
+  </si>
+  <si>
+    <t>SHPC/71150/589.32</t>
+  </si>
+  <si>
+    <t>SHIVM/66915/522.17</t>
+  </si>
+  <si>
+    <t>NTC/35986/862.72</t>
+  </si>
+  <si>
+    <t>MEN/49626/584.78</t>
+  </si>
+  <si>
+    <t>BHL/126378/216.20</t>
+  </si>
+  <si>
+    <t>SHEL/96985/274.50</t>
+  </si>
+  <si>
+    <t>RADHI/31148/778.41</t>
+  </si>
+  <si>
+    <t>RADHI/429784/786.81</t>
+  </si>
+  <si>
+    <t>SHL/60113/574.97</t>
+  </si>
+  <si>
+    <t>SPDL/82638/394.26</t>
+  </si>
+  <si>
+    <t>NGPL/57923/386.05</t>
+  </si>
+  <si>
+    <t>SPIL/23439/805.05</t>
+  </si>
+  <si>
+    <t>AHPC/68136/296.59</t>
+  </si>
+  <si>
+    <t>RADHI/24018/795.91</t>
+  </si>
+  <si>
+    <t>CHDC/6958/2,610.64</t>
+  </si>
+  <si>
+    <t>HLI/26441/405.03</t>
+  </si>
+  <si>
+    <t>AKPL/43872/263.11</t>
+  </si>
+  <si>
+    <t>CHDC/9717/2,598.88</t>
+  </si>
+  <si>
+    <t>SHPC/28231/592.05</t>
+  </si>
+  <si>
+    <t>BARUN/18323/423.79</t>
+  </si>
+  <si>
+    <t>SHIVM/16086/523.08</t>
+  </si>
+  <si>
+    <t>HIDCLP/36501/214.42</t>
+  </si>
+  <si>
+    <t>SHPC/14311/600.86</t>
+  </si>
+  <si>
+    <t>MEN/16013/600.17</t>
+  </si>
+  <si>
+    <t>MLBL/22749/394.16</t>
+  </si>
+  <si>
+    <t>SHIVM/15400/523.44</t>
+  </si>
+  <si>
+    <t>STC/13899/5,018.80</t>
+  </si>
+  <si>
+    <t>UPCL/112868/463.80</t>
+  </si>
+  <si>
+    <t>CHCL/42308/557.89</t>
+  </si>
+  <si>
+    <t>SADBL/31328/422.31</t>
+  </si>
+  <si>
+    <t>CYCL/5480/1,670.89</t>
+  </si>
+  <si>
+    <t>GMLI/193748/2,589.56</t>
+  </si>
+  <si>
+    <t>NRIC/272225/1,291.12</t>
+  </si>
+  <si>
+    <t>NMIC/82711/1,872.39</t>
+  </si>
+  <si>
+    <t>NLG/115699/828.31</t>
+  </si>
+  <si>
+    <t>SHL/66255/563.78</t>
+  </si>
+  <si>
+    <t>BPCL/139892/667.60</t>
+  </si>
+  <si>
+    <t>UPCL/118256/454.06</t>
+  </si>
+  <si>
+    <t>NGPL/114188/393.16</t>
+  </si>
+  <si>
+    <t>SMHL/46155/1,000.28</t>
+  </si>
+  <si>
+    <t>HIDCLP/199267/217.99</t>
+  </si>
+  <si>
+    <t>UPCL/67135/447.03</t>
+  </si>
+  <si>
+    <t>MEN/53544/598.45</t>
+  </si>
+  <si>
+    <t>NTC/27763/855.11</t>
+  </si>
+  <si>
+    <t>CHCL/37795/549.06</t>
+  </si>
+  <si>
+    <t>AKPL/69878/271.98</t>
+  </si>
+  <si>
+    <t>KBL/1194732/214.11</t>
+  </si>
+  <si>
+    <t>NRN/99198/2,034.07</t>
+  </si>
+  <si>
+    <t>NGPL/453371/387.74</t>
+  </si>
+  <si>
+    <t>HIDCLP/567122/217.87</t>
+  </si>
+  <si>
+    <t>OHL/109808/948.73</t>
+  </si>
+  <si>
+    <t>API/156578/302.31</t>
+  </si>
+  <si>
+    <t>NGPL/65800/385.51</t>
+  </si>
+  <si>
+    <t>AHPC/64807/300.15</t>
+  </si>
+  <si>
+    <t>SHIVM/35478/522.67</t>
+  </si>
+  <si>
+    <t>NIFRA/62582/283.22</t>
+  </si>
+  <si>
+    <t>RADHI/140991/789.07</t>
+  </si>
+  <si>
+    <t>SHL/92023/569.59</t>
+  </si>
+  <si>
+    <t>LBBL/50479/476.78</t>
+  </si>
+  <si>
+    <t>SAPDBL/21321/975.68</t>
+  </si>
+  <si>
+    <t>HPPL/44051/507.61</t>
+  </si>
+  <si>
+    <t>CHDC/8009/2,617.28</t>
+  </si>
+  <si>
+    <t>RADHI/13859/812.91</t>
+  </si>
+  <si>
+    <t>HIDCL/52886/308.72</t>
+  </si>
+  <si>
+    <t>HIDCLP/53493/217.37</t>
+  </si>
+  <si>
+    <t>CREST/3612/1,854.22</t>
+  </si>
+  <si>
+    <t>UMHL/386973/511.85</t>
+  </si>
+  <si>
+    <t>RADHI/62898/792.81</t>
+  </si>
+  <si>
+    <t>UNHPL/129416/357.76</t>
+  </si>
+  <si>
+    <t>SHPC/49242/591.44</t>
+  </si>
+  <si>
+    <t>SPDL/57836/406.04</t>
+  </si>
+  <si>
+    <t>RADHI/46152/789.48</t>
+  </si>
+  <si>
+    <t>OMPL/12217/1,726.49</t>
+  </si>
+  <si>
+    <t>USLB/6509/1,945.52</t>
+  </si>
+  <si>
+    <t>PPCL/36562/335.24</t>
+  </si>
+  <si>
+    <t>SHL/20345/567.21</t>
+  </si>
+  <si>
+    <t>BPCL/344940/599.09</t>
+  </si>
+  <si>
+    <t>NRN/25886/2,057.45</t>
+  </si>
+  <si>
+    <t>SHPC/40009/590.33</t>
+  </si>
+  <si>
+    <t>BEDC/27248/750.43</t>
+  </si>
+  <si>
+    <t>CHDC/8555/2,568.42</t>
+  </si>
+  <si>
+    <t>SIKLES/65656/1,091.98</t>
+  </si>
+  <si>
+    <t>RFPL/59892/620.08</t>
+  </si>
+  <si>
+    <t>NIFRA/131277/282.58</t>
+  </si>
+  <si>
+    <t>SARBTM/43387/840.73</t>
+  </si>
+  <si>
+    <t>CHDC/19186/2,595.67</t>
+  </si>
+  <si>
+    <t>HIDCL/114833/303.12</t>
+  </si>
+  <si>
+    <t>NRN/9782/2,028.24</t>
+  </si>
+  <si>
+    <t>BPCL/20732/630.02</t>
+  </si>
+  <si>
+    <t>NGPL/40310/378.47</t>
+  </si>
+  <si>
+    <t>RADHI/155288/782.55</t>
+  </si>
+  <si>
+    <t>HIDCL/177616/303.15</t>
+  </si>
+  <si>
+    <t>MEN/51389/620.72</t>
+  </si>
+  <si>
+    <t>NGPL/66490/390.27</t>
+  </si>
+  <si>
+    <t>LICN/8453/916.02</t>
+  </si>
+  <si>
+    <t>NGPL/122135/384.82</t>
+  </si>
+  <si>
+    <t>HIDCLP/201500/210.47</t>
+  </si>
+  <si>
+    <t>RIDI/68094/263.12</t>
+  </si>
+  <si>
+    <t>AHPC/44614/297.00</t>
+  </si>
+  <si>
+    <t>HURJA/47037/258.23</t>
+  </si>
+  <si>
+    <t>SHL/67634/568.30</t>
+  </si>
+  <si>
+    <t>BPCL/37929/651.74</t>
+  </si>
+  <si>
+    <t>SHEL/59124/288.71</t>
+  </si>
+  <si>
+    <t>LBBL/34646/462.91</t>
+  </si>
+  <si>
+    <t>NRN/5604/2,029.73</t>
+  </si>
+  <si>
+    <t>BPCL/60056/602.72</t>
+  </si>
+  <si>
+    <t>HURJA/63790/257.40</t>
+  </si>
+  <si>
+    <t>NRN/7718/2,059.88</t>
+  </si>
+  <si>
+    <t>SHPC/24703/589.78</t>
+  </si>
+  <si>
+    <t>LBBL/58017/467.57</t>
+  </si>
+  <si>
+    <t>API/79034/302.77</t>
+  </si>
+  <si>
+    <t>HIDCL/74252/308.50</t>
+  </si>
+  <si>
+    <t>CORBL/6803/2,330.60</t>
+  </si>
+  <si>
+    <t>UPCL/35936/443.75</t>
+  </si>
+  <si>
+    <t>CORBL/35949/2,363.37</t>
+  </si>
+  <si>
+    <t>SIFC/83217/566.52</t>
+  </si>
+  <si>
+    <t>UPCL/39422/430.64</t>
+  </si>
+  <si>
+    <t>RADHI/20133/775.49</t>
+  </si>
+  <si>
+    <t>SAPDBL/15798/977.78</t>
+  </si>
+  <si>
+    <t>MEN/63814/602.79</t>
+  </si>
+  <si>
+    <t>SAPDBL/25587/1,040.16</t>
+  </si>
+  <si>
+    <t>RADHI/25574/811.84</t>
+  </si>
+  <si>
+    <t>CHCL/31127/524.97</t>
+  </si>
+  <si>
+    <t>HIDCLP/202140/221.77</t>
+  </si>
+  <si>
+    <t>SHPC/24455/613.02</t>
+  </si>
+  <si>
+    <t>BPCL/23710/641.51</t>
+  </si>
+  <si>
+    <t>AKPL/41968/274.03</t>
+  </si>
+  <si>
+    <t>CGH/11595/930.51</t>
+  </si>
+  <si>
+    <t>CHDC/6022/2,628.48</t>
+  </si>
+  <si>
+    <t>SHIVM/21923/520.74</t>
+  </si>
+  <si>
+    <t>MBJC/27645/316.69</t>
+  </si>
+  <si>
+    <t>UMRH/6829/623.14</t>
+  </si>
+  <si>
+    <t>BPCL/218726/581.73</t>
+  </si>
+  <si>
+    <t>RADHI/82676/782.46</t>
+  </si>
+  <si>
+    <t>UPCL/90986/449.50</t>
+  </si>
+  <si>
+    <t>RIDI/134044/273.56</t>
+  </si>
+  <si>
+    <t>CHDC/11002/2,572.24</t>
+  </si>
+  <si>
+    <t>RADHI/6486/772.75</t>
+  </si>
+  <si>
+    <t>HIDCLP/18463/218.06</t>
+  </si>
+  <si>
+    <t>CHCL/5589/538.12</t>
+  </si>
+  <si>
+    <t>CIT/1500/1,910.04</t>
+  </si>
+  <si>
+    <t>SMPDA/1414/927.99</t>
+  </si>
+  <si>
+    <t>AKPL/3396/270.66</t>
+  </si>
+  <si>
+    <t>MEN/52981/587.76</t>
+  </si>
+  <si>
+    <t>NIFRA/93889/286.87</t>
+  </si>
+  <si>
+    <t>NMLBBL/38743/660.05</t>
+  </si>
+  <si>
+    <t>UPCL/32951/439.60</t>
+  </si>
+  <si>
+    <t>HRL/12522/962.01</t>
+  </si>
+  <si>
+    <t>NGPL/200060/393.21</t>
+  </si>
+  <si>
+    <t>CHDC/18309/2,596.52</t>
+  </si>
+  <si>
+    <t>SAHAS/85745/531.73</t>
+  </si>
+  <si>
+    <t>SHPC/72100/599.45</t>
+  </si>
+  <si>
+    <t>CHCL/70514/545.22</t>
+  </si>
+  <si>
+    <t>NRN/15430/2,043.78</t>
+  </si>
+  <si>
+    <t>RADHI/37835/774.29</t>
+  </si>
+  <si>
+    <t>SHPC/25876/586.65</t>
+  </si>
+  <si>
+    <t>CGH/12953/957.16</t>
+  </si>
+  <si>
+    <t>HRL/12458/954.11</t>
+  </si>
+  <si>
+    <t>HRL/24462/949.39</t>
+  </si>
+  <si>
+    <t>NGPL/50943/399.47</t>
+  </si>
+  <si>
+    <t>SHPC/15642/602.20</t>
+  </si>
+  <si>
+    <t>HIDCL/155680/305.94</t>
+  </si>
+  <si>
+    <t>NGPL/65885/392.45</t>
+  </si>
+  <si>
+    <t>SADBL/59558/423.03</t>
+  </si>
+  <si>
+    <t>BPCL/21653/659.60</t>
+  </si>
+  <si>
+    <t>NGPL/257013/384.90</t>
+  </si>
+  <si>
+    <t>SHL/80036/582.93</t>
+  </si>
+  <si>
+    <t>RADHI/34162/778.30</t>
+  </si>
+  <si>
+    <t>API/54492/301.05</t>
+  </si>
+  <si>
+    <t>AHPC/51332/297.04</t>
+  </si>
+  <si>
+    <t>RADHI/27930/793.79</t>
+  </si>
+  <si>
+    <t>SHPC/24901/594.35</t>
+  </si>
+  <si>
+    <t>AKPL/44765/267.75</t>
+  </si>
+  <si>
+    <t>UNHPL/24254/356.67</t>
+  </si>
+  <si>
+    <t>CHDC/2892/2,597.24</t>
+  </si>
+  <si>
+    <t>BPCL/31066/710.57</t>
+  </si>
+  <si>
+    <t>RADHI/21354/797.91</t>
+  </si>
+  <si>
+    <t>AKPL/39052/279.99</t>
+  </si>
+  <si>
+    <t>HPPL/20084/503.89</t>
+  </si>
+  <si>
+    <t>SHPC/13168/610.38</t>
+  </si>
+  <si>
+    <t>SAPDBL/50572/1,037.49</t>
+  </si>
+  <si>
+    <t>CHCL/33834/561.76</t>
+  </si>
+  <si>
+    <t>CHDC/6030/2,533.57</t>
+  </si>
+  <si>
+    <t>CORBL/4993/2,593.20</t>
+  </si>
+  <si>
+    <t>SMJC/16750/546.48</t>
+  </si>
+  <si>
+    <t>GBIME/123840/238.69</t>
+  </si>
+  <si>
+    <t>BPCL/12846/650.99</t>
+  </si>
+  <si>
+    <t>NRN/3605/2,034.08</t>
+  </si>
+  <si>
+    <t>RHPL/13569/396.91</t>
+  </si>
+  <si>
+    <t>MEN/7123/612.15</t>
+  </si>
+  <si>
+    <t>HBL/112377/229.39</t>
+  </si>
+  <si>
+    <t>API/74494/311.64</t>
+  </si>
+  <si>
+    <t>SHL/39829/571.08</t>
+  </si>
+  <si>
+    <t>CHCL/6408/528.19</t>
+  </si>
+  <si>
+    <t>AKPL/134566/272.68</t>
+  </si>
+  <si>
+    <t>NGPL/61853/389.56</t>
+  </si>
+  <si>
+    <t>SARBTM/23328/844.35</t>
+  </si>
+  <si>
+    <t>MEN/23121/610.18</t>
+  </si>
+  <si>
+    <t>BPCL/21813/620.67</t>
+  </si>
+  <si>
+    <t>HIDCL/114603/302.60</t>
+  </si>
+  <si>
+    <t>BPCL/19842/650.39</t>
+  </si>
+  <si>
+    <t>UPCL/18924/444.92</t>
+  </si>
+  <si>
+    <t>HRL/7519/956.96</t>
+  </si>
+  <si>
+    <t>SHIVM/12841/521.30</t>
+  </si>
+  <si>
+    <t>AKPL/18300/290.40</t>
+  </si>
+  <si>
+    <t>HEI/7169/581.50</t>
+  </si>
+  <si>
+    <t>MPFL/4420/614.53</t>
+  </si>
+  <si>
+    <t>RADHI/134993/787.87</t>
+  </si>
+  <si>
+    <t>NGPL/184301/387.15</t>
+  </si>
+  <si>
+    <t>MKHL/66800/739.22</t>
+  </si>
+  <si>
+    <t>SHL/44379/568.76</t>
+  </si>
+  <si>
+    <t>PRIN/27311/854.19</t>
+  </si>
+  <si>
+    <t>RADHI/21493/814.79</t>
+  </si>
+  <si>
+    <t>UPCL/35369/453.43</t>
+  </si>
+  <si>
+    <t>NGPL/33561/390.85</t>
+  </si>
+  <si>
+    <t>NRN/5473/2,058.81</t>
+  </si>
+  <si>
+    <t>SHPC/18478/586.36</t>
+  </si>
+  <si>
+    <t>NRN/27844/2,052.85</t>
+  </si>
+  <si>
+    <t>SHPC/62176/608.74</t>
+  </si>
+  <si>
+    <t>NRIC/25941/1,284.41</t>
+  </si>
+  <si>
+    <t>LBBL/58373/470.25</t>
+  </si>
+  <si>
+    <t>SHL/21460/572.94</t>
+  </si>
+  <si>
+    <t>UPCL/21296/447.38</t>
+  </si>
+  <si>
+    <t>NMIC/2003/2,062.74</t>
+  </si>
+  <si>
+    <t>AKPL/18793/268.39</t>
+  </si>
+  <si>
+    <t>BPCL/48795/734.26</t>
+  </si>
+  <si>
+    <t>OMPL/8230/1,849.81</t>
+  </si>
+  <si>
+    <t>AKPL/51889/283.76</t>
+  </si>
+  <si>
+    <t>SHPC/17536/583.13</t>
+  </si>
+  <si>
+    <t>NMIC/2355/2,402.60</t>
+  </si>
+  <si>
+    <t>SHIVM/24519/535.21</t>
+  </si>
+  <si>
+    <t>BPCL/19188/615.82</t>
+  </si>
+  <si>
+    <t>AKPL/29535/280.06</t>
+  </si>
+  <si>
+    <t>UPCL/15317/446.66</t>
+  </si>
+  <si>
+    <t>HIDCLP/34179/209.28</t>
+  </si>
+  <si>
+    <t>MLBL/144733/389.38</t>
+  </si>
+  <si>
+    <t>PHCL/79009/595.99</t>
+  </si>
+  <si>
+    <t>KSBBL/50977/449.82</t>
+  </si>
+  <si>
+    <t>BPCL/30953/714.07</t>
+  </si>
+  <si>
+    <t>LBBL/37112/450.26</t>
+  </si>
+  <si>
+    <t>HIDCLP/55550/216.80</t>
+  </si>
+  <si>
+    <t>AKPL/26377/274.93</t>
+  </si>
+  <si>
+    <t>AHPC/20466/306.90</t>
   </si>
 </sst>
 </file>
@@ -16237,19 +17534,1901 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8031CFF4-E8B1-4230-A6BE-8355C73394A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C4ACAF-C403-46AB-9DE3-552603CE121E}">
   <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5293</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5294</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5295</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5296</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5298</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5299</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5300</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5301</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5303</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5304</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5305</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5306</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5308</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5309</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5310</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5311</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5313</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5314</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5315</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5316</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5318</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5319</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5320</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5321</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5323</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5324</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5325</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5326</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5328</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4490</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5329</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5330</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5331</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5332</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5333</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5334</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5336</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5337</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5338</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5339</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5341</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5342</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5343</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5344</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5346</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5347</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5348</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5349</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5351</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5352</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5353</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5354</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4932</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5356</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5357</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5358</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5360</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5361</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5362</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5363</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5365</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5366</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5367</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5368</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5370</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5371</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5372</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5373</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5375</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5376</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5377</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5378</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5380</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5381</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5382</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5383</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5385</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5386</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5387</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5388</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5390</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5391</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5392</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5393</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5395</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5396</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5397</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5398</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5400</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5401</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5402</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5403</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5405</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5406</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5407</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5408</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5410</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5411</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5412</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5413</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5415</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5416</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5417</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5418</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5419</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5420</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5421</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5422</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5423</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5424</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5425</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5426</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5427</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5001</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5428</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5429</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5430</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5431</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5432</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5433</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5434</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5435</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5436</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5437</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5438</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5439</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5440</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5441</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5442</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5443</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5444</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5445</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5446</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5447</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5448</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5449</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5450</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5451</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5452</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5454</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5455</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5456</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5457</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5458</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5459</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5460</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5461</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5462</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5463</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5464</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5465</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5466</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5467</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5468</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5469</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5470</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5471</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5472</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5473</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5474</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5475</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5476</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5477</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5478</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5479</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5480</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5481</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5482</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5483</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5484</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5485</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5486</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5487</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5488</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5489</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5490</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5491</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5492</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5493</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5494</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5495</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5496</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5497</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5498</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5499</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5500</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5501</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5502</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5503</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5504</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5505</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5506</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4231</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5507</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5508</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5509</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5510</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5511</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5512</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5513</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5514</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5515</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5516</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5517</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5518</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5519</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5520</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5521</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5522</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5523</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5524</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5525</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5526</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5527</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5528</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5529</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5530</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5531</v>
+      </c>
+      <c r="F50" t="s">
+        <v>5532</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5533</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5534</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5535</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5536</v>
+      </c>
+      <c r="F51" t="s">
+        <v>5537</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5538</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5539</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5540</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5541</v>
+      </c>
+      <c r="F52" t="s">
+        <v>5542</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5543</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5544</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5545</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5546</v>
+      </c>
+      <c r="F53" t="s">
+        <v>5547</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>312</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5548</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5549</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5550</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5551</v>
+      </c>
+      <c r="F54" t="s">
+        <v>5552</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>318</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5553</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5554</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5555</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5556</v>
+      </c>
+      <c r="F55" t="s">
+        <v>5557</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5558</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5559</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5560</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5561</v>
+      </c>
+      <c r="F56" t="s">
+        <v>5562</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>330</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5563</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5564</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5565</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5566</v>
+      </c>
+      <c r="F57" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>336</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5567</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5568</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5569</v>
+      </c>
+      <c r="E58" t="s">
+        <v>5570</v>
+      </c>
+      <c r="F58" t="s">
+        <v>5571</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5572</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5573</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5574</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5575</v>
+      </c>
+      <c r="F59" t="s">
+        <v>5576</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5577</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5578</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5579</v>
+      </c>
+      <c r="E60" t="s">
+        <v>5580</v>
+      </c>
+      <c r="F60" t="s">
+        <v>5581</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5582</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5583</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5584</v>
+      </c>
+      <c r="E61" t="s">
+        <v>5585</v>
+      </c>
+      <c r="F61" t="s">
+        <v>5586</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>360</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5587</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4742</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5588</v>
+      </c>
+      <c r="E62" t="s">
+        <v>5589</v>
+      </c>
+      <c r="F62" t="s">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5591</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5592</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5593</v>
+      </c>
+      <c r="E63" t="s">
+        <v>5594</v>
+      </c>
+      <c r="F63" t="s">
+        <v>5595</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>372</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5596</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5597</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5598</v>
+      </c>
+      <c r="E64" t="s">
+        <v>5599</v>
+      </c>
+      <c r="F64" t="s">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>378</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3448</v>
+      </c>
+      <c r="D65" t="s">
+        <v>381</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4755</v>
+      </c>
+      <c r="F65" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>384</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5601</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5602</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5603</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5604</v>
+      </c>
+      <c r="F66" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>390</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5605</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5606</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5607</v>
+      </c>
+      <c r="E67" t="s">
+        <v>5608</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5609</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>396</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5610</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5611</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5612</v>
+      </c>
+      <c r="E68" t="s">
+        <v>5613</v>
+      </c>
+      <c r="F68" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>402</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5614</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5615</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5616</v>
+      </c>
+      <c r="E69" t="s">
+        <v>5617</v>
+      </c>
+      <c r="F69" t="s">
+        <v>5618</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>408</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5187</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5619</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5620</v>
+      </c>
+      <c r="E70" t="s">
+        <v>5621</v>
+      </c>
+      <c r="F70" t="s">
+        <v>5622</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>414</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5623</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5191</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5624</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4775</v>
+      </c>
+      <c r="F71" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>420</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5625</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5626</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5627</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5628</v>
+      </c>
+      <c r="F72" t="s">
+        <v>5629</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>426</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5630</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5631</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5632</v>
+      </c>
+      <c r="E73" t="s">
+        <v>5633</v>
+      </c>
+      <c r="F73" t="s">
+        <v>5634</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>432</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5635</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5636</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5637</v>
+      </c>
+      <c r="E74" t="s">
+        <v>5638</v>
+      </c>
+      <c r="F74" t="s">
+        <v>5639</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>438</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5640</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5641</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5207</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4370</v>
+      </c>
+      <c r="F75" t="s">
+        <v>5642</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>444</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5643</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5644</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5645</v>
+      </c>
+      <c r="E76" t="s">
+        <v>5646</v>
+      </c>
+      <c r="F76" t="s">
+        <v>5213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>450</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5647</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5648</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5649</v>
+      </c>
+      <c r="E77" t="s">
+        <v>5650</v>
+      </c>
+      <c r="F77" t="s">
+        <v>5651</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>456</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5652</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5653</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5654</v>
+      </c>
+      <c r="E78" t="s">
+        <v>5655</v>
+      </c>
+      <c r="F78" t="s">
+        <v>5656</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>462</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5657</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5658</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5659</v>
+      </c>
+      <c r="E79" t="s">
+        <v>5660</v>
+      </c>
+      <c r="F79" t="s">
+        <v>5661</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5662</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5663</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5664</v>
+      </c>
+      <c r="E80" t="s">
+        <v>5665</v>
+      </c>
+      <c r="F80" t="s">
+        <v>5666</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>474</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5667</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5668</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5669</v>
+      </c>
+      <c r="E81" t="s">
+        <v>5670</v>
+      </c>
+      <c r="F81" t="s">
+        <v>5671</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>480</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5672</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5673</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5674</v>
+      </c>
+      <c r="E82" t="s">
+        <v>5242</v>
+      </c>
+      <c r="F82" t="s">
+        <v>5675</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>486</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5676</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5677</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5678</v>
+      </c>
+      <c r="E83" t="s">
+        <v>5679</v>
+      </c>
+      <c r="F83" t="s">
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>492</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5681</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5682</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5683</v>
+      </c>
+      <c r="E84" t="s">
+        <v>5684</v>
+      </c>
+      <c r="F84" t="s">
+        <v>5685</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>498</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5686</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5687</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4413</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4414</v>
+      </c>
+      <c r="F85" t="s">
+        <v>5688</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>504</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5689</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5690</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5691</v>
+      </c>
+      <c r="E86" t="s">
+        <v>5692</v>
+      </c>
+      <c r="F86" t="s">
+        <v>5693</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>510</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5694</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5695</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5696</v>
+      </c>
+      <c r="E87" t="s">
+        <v>5697</v>
+      </c>
+      <c r="F87" t="s">
+        <v>5698</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>516</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5699</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5700</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4846</v>
+      </c>
+      <c r="E88" t="s">
+        <v>5701</v>
+      </c>
+      <c r="F88" t="s">
+        <v>5702</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>522</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5703</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5268</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5704</v>
+      </c>
+      <c r="E89" t="s">
+        <v>5705</v>
+      </c>
+      <c r="F89" t="s">
+        <v>5706</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>528</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5707</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5708</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5709</v>
+      </c>
+      <c r="E90" t="s">
+        <v>5710</v>
+      </c>
+      <c r="F90" t="s">
+        <v>5711</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>534</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5712</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5714</v>
+      </c>
+      <c r="E91" t="s">
+        <v>5715</v>
+      </c>
+      <c r="F91" t="s">
+        <v>5716</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>540</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5717</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5718</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5719</v>
+      </c>
+      <c r="E92" t="s">
+        <v>5720</v>
+      </c>
+      <c r="F92" t="s">
+        <v>5721</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>546</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5288</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5722</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5723</v>
+      </c>
+      <c r="E93" t="s">
+        <v>5291</v>
+      </c>
+      <c r="F93" t="s">
+        <v>5724</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EEF453-2C93-48DA-92A9-F02917F02C21}">
+  <dimension ref="A1:F93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16278,19 +19457,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4869</v>
+        <v>1429</v>
       </c>
       <c r="C2" t="s">
-        <v>4870</v>
+        <v>1430</v>
       </c>
       <c r="D2" t="s">
-        <v>4871</v>
+        <v>1431</v>
       </c>
       <c r="E2" t="s">
-        <v>4872</v>
+        <v>1432</v>
       </c>
       <c r="F2" t="s">
-        <v>4873</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -16298,19 +19477,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4874</v>
+        <v>1434</v>
       </c>
       <c r="C3" t="s">
-        <v>4875</v>
+        <v>1435</v>
       </c>
       <c r="D3" t="s">
-        <v>4876</v>
+        <v>1436</v>
       </c>
       <c r="E3" t="s">
-        <v>4877</v>
+        <v>1437</v>
       </c>
       <c r="F3" t="s">
-        <v>4878</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -16318,19 +19497,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>4879</v>
+        <v>1439</v>
       </c>
       <c r="C4" t="s">
-        <v>4880</v>
+        <v>1440</v>
       </c>
       <c r="D4" t="s">
-        <v>4881</v>
+        <v>1441</v>
       </c>
       <c r="E4" t="s">
-        <v>4882</v>
+        <v>1442</v>
       </c>
       <c r="F4" t="s">
-        <v>4883</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -16338,19 +19517,19 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>4884</v>
+        <v>1444</v>
       </c>
       <c r="C5" t="s">
-        <v>4885</v>
+        <v>1445</v>
       </c>
       <c r="D5" t="s">
-        <v>4886</v>
+        <v>1446</v>
       </c>
       <c r="E5" t="s">
-        <v>4887</v>
+        <v>1447</v>
       </c>
       <c r="F5" t="s">
-        <v>4888</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -16358,19 +19537,19 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>4889</v>
+        <v>1449</v>
       </c>
       <c r="C6" t="s">
-        <v>4890</v>
+        <v>1450</v>
       </c>
       <c r="D6" t="s">
-        <v>4891</v>
+        <v>1451</v>
       </c>
       <c r="E6" t="s">
-        <v>4892</v>
+        <v>1452</v>
       </c>
       <c r="F6" t="s">
-        <v>4893</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -16378,19 +19557,19 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>4894</v>
+        <v>1454</v>
       </c>
       <c r="C7" t="s">
-        <v>4895</v>
+        <v>1455</v>
       </c>
       <c r="D7" t="s">
-        <v>4896</v>
+        <v>1456</v>
       </c>
       <c r="E7" t="s">
-        <v>4897</v>
+        <v>1457</v>
       </c>
       <c r="F7" t="s">
-        <v>4898</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -16398,19 +19577,19 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>4899</v>
+        <v>1459</v>
       </c>
       <c r="C8" t="s">
-        <v>4900</v>
+        <v>1460</v>
       </c>
       <c r="D8" t="s">
-        <v>4901</v>
+        <v>1461</v>
       </c>
       <c r="E8" t="s">
-        <v>4902</v>
+        <v>1462</v>
       </c>
       <c r="F8" t="s">
-        <v>4903</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -16418,19 +19597,19 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>4904</v>
+        <v>1464</v>
       </c>
       <c r="C9" t="s">
-        <v>4490</v>
+        <v>1465</v>
       </c>
       <c r="D9" t="s">
-        <v>4054</v>
+        <v>1466</v>
       </c>
       <c r="E9" t="s">
-        <v>4905</v>
+        <v>1467</v>
       </c>
       <c r="F9" t="s">
-        <v>4906</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -16438,19 +19617,19 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>4907</v>
+        <v>1469</v>
       </c>
       <c r="C10" t="s">
-        <v>4908</v>
+        <v>1470</v>
       </c>
       <c r="D10" t="s">
-        <v>4909</v>
+        <v>1471</v>
       </c>
       <c r="E10" t="s">
-        <v>4910</v>
+        <v>1472</v>
       </c>
       <c r="F10" t="s">
-        <v>4911</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -16458,19 +19637,19 @@
         <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>4912</v>
+        <v>1474</v>
       </c>
       <c r="C11" t="s">
-        <v>4913</v>
+        <v>1475</v>
       </c>
       <c r="D11" t="s">
-        <v>4914</v>
+        <v>1476</v>
       </c>
       <c r="E11" t="s">
-        <v>4915</v>
+        <v>1477</v>
       </c>
       <c r="F11" t="s">
-        <v>4916</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -16478,19 +19657,19 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>4917</v>
+        <v>1479</v>
       </c>
       <c r="C12" t="s">
-        <v>4918</v>
+        <v>1480</v>
       </c>
       <c r="D12" t="s">
-        <v>4919</v>
+        <v>1481</v>
       </c>
       <c r="E12" t="s">
-        <v>4920</v>
+        <v>1482</v>
       </c>
       <c r="F12" t="s">
-        <v>4921</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -16498,19 +19677,19 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>4922</v>
+        <v>1484</v>
       </c>
       <c r="C13" t="s">
-        <v>4923</v>
+        <v>1485</v>
       </c>
       <c r="D13" t="s">
-        <v>4924</v>
+        <v>1486</v>
       </c>
       <c r="E13" t="s">
-        <v>4925</v>
+        <v>1487</v>
       </c>
       <c r="F13" t="s">
-        <v>4926</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -16518,19 +19697,19 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>4927</v>
+        <v>1489</v>
       </c>
       <c r="C14" t="s">
-        <v>4928</v>
+        <v>1490</v>
       </c>
       <c r="D14" t="s">
-        <v>4929</v>
+        <v>1491</v>
       </c>
       <c r="E14" t="s">
-        <v>4930</v>
+        <v>1492</v>
       </c>
       <c r="F14" t="s">
-        <v>4931</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -16538,19 +19717,19 @@
         <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>4932</v>
+        <v>1494</v>
       </c>
       <c r="C15" t="s">
-        <v>4082</v>
+        <v>1495</v>
       </c>
       <c r="D15" t="s">
-        <v>4933</v>
+        <v>1496</v>
       </c>
       <c r="E15" t="s">
-        <v>4934</v>
+        <v>1497</v>
       </c>
       <c r="F15" t="s">
-        <v>4935</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -16558,19 +19737,19 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>4936</v>
+        <v>1499</v>
       </c>
       <c r="C16" t="s">
-        <v>4937</v>
+        <v>1500</v>
       </c>
       <c r="D16" t="s">
-        <v>4938</v>
+        <v>1501</v>
       </c>
       <c r="E16" t="s">
-        <v>4939</v>
+        <v>1502</v>
       </c>
       <c r="F16" t="s">
-        <v>4940</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -16578,19 +19757,19 @@
         <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>4527</v>
+        <v>1504</v>
       </c>
       <c r="C17" t="s">
-        <v>3655</v>
+        <v>1505</v>
       </c>
       <c r="D17" t="s">
-        <v>4941</v>
+        <v>1506</v>
       </c>
       <c r="E17" t="s">
-        <v>4942</v>
+        <v>1507</v>
       </c>
       <c r="F17" t="s">
-        <v>4943</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -16598,19 +19777,19 @@
         <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>4944</v>
+        <v>1509</v>
       </c>
       <c r="C18" t="s">
-        <v>4945</v>
+        <v>1510</v>
       </c>
       <c r="D18" t="s">
-        <v>4946</v>
+        <v>1511</v>
       </c>
       <c r="E18" t="s">
-        <v>4947</v>
+        <v>1512</v>
       </c>
       <c r="F18" t="s">
-        <v>4948</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -16618,19 +19797,19 @@
         <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>4949</v>
+        <v>1514</v>
       </c>
       <c r="C19" t="s">
-        <v>4950</v>
+        <v>1515</v>
       </c>
       <c r="D19" t="s">
-        <v>4951</v>
+        <v>1516</v>
       </c>
       <c r="E19" t="s">
-        <v>4952</v>
+        <v>1517</v>
       </c>
       <c r="F19" t="s">
-        <v>4953</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -16638,19 +19817,19 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>4954</v>
+        <v>1519</v>
       </c>
       <c r="C20" t="s">
-        <v>4955</v>
+        <v>1520</v>
       </c>
       <c r="D20" t="s">
-        <v>4956</v>
+        <v>1521</v>
       </c>
       <c r="E20" t="s">
-        <v>4957</v>
+        <v>1522</v>
       </c>
       <c r="F20" t="s">
-        <v>4958</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -16658,19 +19837,19 @@
         <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>4959</v>
+        <v>1524</v>
       </c>
       <c r="C21" t="s">
-        <v>4960</v>
+        <v>1525</v>
       </c>
       <c r="D21" t="s">
-        <v>4961</v>
+        <v>1526</v>
       </c>
       <c r="E21" t="s">
-        <v>4962</v>
+        <v>1527</v>
       </c>
       <c r="F21" t="s">
-        <v>4963</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -16678,19 +19857,19 @@
         <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>4964</v>
+        <v>1529</v>
       </c>
       <c r="C22" t="s">
-        <v>4965</v>
+        <v>1530</v>
       </c>
       <c r="D22" t="s">
-        <v>4966</v>
+        <v>1531</v>
       </c>
       <c r="E22" t="s">
-        <v>4967</v>
+        <v>1532</v>
       </c>
       <c r="F22" t="s">
-        <v>4968</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -16698,19 +19877,19 @@
         <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>4969</v>
+        <v>1534</v>
       </c>
       <c r="C23" t="s">
-        <v>4556</v>
+        <v>1535</v>
       </c>
       <c r="D23" t="s">
-        <v>4970</v>
+        <v>1536</v>
       </c>
       <c r="E23" t="s">
-        <v>4971</v>
+        <v>1537</v>
       </c>
       <c r="F23" t="s">
-        <v>4972</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -16718,19 +19897,19 @@
         <v>132</v>
       </c>
       <c r="B24" t="s">
-        <v>4973</v>
+        <v>1539</v>
       </c>
       <c r="C24" t="s">
-        <v>4974</v>
+        <v>1540</v>
       </c>
       <c r="D24" t="s">
-        <v>4975</v>
+        <v>1541</v>
       </c>
       <c r="E24" t="s">
-        <v>4976</v>
+        <v>1542</v>
       </c>
       <c r="F24" t="s">
-        <v>4977</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -16738,19 +19917,19 @@
         <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>4978</v>
+        <v>1544</v>
       </c>
       <c r="C25" t="s">
-        <v>4979</v>
+        <v>1545</v>
       </c>
       <c r="D25" t="s">
-        <v>4980</v>
+        <v>1546</v>
       </c>
       <c r="E25" t="s">
-        <v>4981</v>
+        <v>1547</v>
       </c>
       <c r="F25" t="s">
-        <v>4568</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -16758,19 +19937,19 @@
         <v>144</v>
       </c>
       <c r="B26" t="s">
-        <v>4982</v>
+        <v>1549</v>
       </c>
       <c r="C26" t="s">
-        <v>4983</v>
+        <v>1550</v>
       </c>
       <c r="D26" t="s">
-        <v>4984</v>
+        <v>1551</v>
       </c>
       <c r="E26" t="s">
-        <v>4985</v>
+        <v>1552</v>
       </c>
       <c r="F26" t="s">
-        <v>4986</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -16778,19 +19957,19 @@
         <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>4987</v>
+        <v>1554</v>
       </c>
       <c r="C27" t="s">
-        <v>4988</v>
+        <v>1555</v>
       </c>
       <c r="D27" t="s">
-        <v>4989</v>
+        <v>1556</v>
       </c>
       <c r="E27" t="s">
-        <v>4990</v>
+        <v>1557</v>
       </c>
       <c r="F27" t="s">
-        <v>4991</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -16798,19 +19977,19 @@
         <v>156</v>
       </c>
       <c r="B28" t="s">
-        <v>4992</v>
+        <v>1559</v>
       </c>
       <c r="C28" t="s">
-        <v>4993</v>
+        <v>1560</v>
       </c>
       <c r="D28" t="s">
-        <v>4994</v>
+        <v>1561</v>
       </c>
       <c r="E28" t="s">
-        <v>4995</v>
+        <v>1562</v>
       </c>
       <c r="F28" t="s">
-        <v>4996</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -16818,19 +19997,19 @@
         <v>162</v>
       </c>
       <c r="B29" t="s">
-        <v>4997</v>
+        <v>1564</v>
       </c>
       <c r="C29" t="s">
-        <v>4998</v>
+        <v>1565</v>
       </c>
       <c r="D29" t="s">
-        <v>4999</v>
+        <v>1566</v>
       </c>
       <c r="E29" t="s">
-        <v>5000</v>
+        <v>1567</v>
       </c>
       <c r="F29" t="s">
-        <v>5001</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -16838,19 +20017,19 @@
         <v>168</v>
       </c>
       <c r="B30" t="s">
-        <v>5002</v>
+        <v>1569</v>
       </c>
       <c r="C30" t="s">
-        <v>5003</v>
+        <v>1570</v>
       </c>
       <c r="D30" t="s">
-        <v>5004</v>
+        <v>1571</v>
       </c>
       <c r="E30" t="s">
-        <v>5005</v>
+        <v>1572</v>
       </c>
       <c r="F30" t="s">
-        <v>5006</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -16858,19 +20037,19 @@
         <v>174</v>
       </c>
       <c r="B31" t="s">
-        <v>5007</v>
+        <v>1574</v>
       </c>
       <c r="C31" t="s">
-        <v>5008</v>
+        <v>1575</v>
       </c>
       <c r="D31" t="s">
-        <v>5009</v>
+        <v>1576</v>
       </c>
       <c r="E31" t="s">
-        <v>5010</v>
+        <v>1577</v>
       </c>
       <c r="F31" t="s">
-        <v>5011</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -16878,19 +20057,19 @@
         <v>180</v>
       </c>
       <c r="B32" t="s">
-        <v>5012</v>
+        <v>1579</v>
       </c>
       <c r="C32" t="s">
-        <v>5013</v>
+        <v>1580</v>
       </c>
       <c r="D32" t="s">
-        <v>5014</v>
+        <v>1581</v>
       </c>
       <c r="E32" t="s">
-        <v>5015</v>
+        <v>1582</v>
       </c>
       <c r="F32" t="s">
-        <v>5016</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -16898,19 +20077,19 @@
         <v>186</v>
       </c>
       <c r="B33" t="s">
-        <v>5017</v>
+        <v>1584</v>
       </c>
       <c r="C33" t="s">
-        <v>5018</v>
+        <v>1585</v>
       </c>
       <c r="D33" t="s">
-        <v>5019</v>
+        <v>1586</v>
       </c>
       <c r="E33" t="s">
-        <v>5020</v>
+        <v>1587</v>
       </c>
       <c r="F33" t="s">
-        <v>5021</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -16918,19 +20097,19 @@
         <v>192</v>
       </c>
       <c r="B34" t="s">
-        <v>5022</v>
+        <v>1589</v>
       </c>
       <c r="C34" t="s">
-        <v>5023</v>
+        <v>1590</v>
       </c>
       <c r="D34" t="s">
-        <v>5024</v>
+        <v>1591</v>
       </c>
       <c r="E34" t="s">
-        <v>5025</v>
+        <v>1592</v>
       </c>
       <c r="F34" t="s">
-        <v>5026</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -16938,19 +20117,19 @@
         <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>5027</v>
+        <v>1594</v>
       </c>
       <c r="C35" t="s">
-        <v>5028</v>
+        <v>1595</v>
       </c>
       <c r="D35" t="s">
-        <v>4182</v>
+        <v>1596</v>
       </c>
       <c r="E35" t="s">
-        <v>5029</v>
+        <v>1597</v>
       </c>
       <c r="F35" t="s">
-        <v>5030</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -16958,19 +20137,19 @@
         <v>204</v>
       </c>
       <c r="B36" t="s">
-        <v>5031</v>
+        <v>1599</v>
       </c>
       <c r="C36" t="s">
-        <v>5032</v>
+        <v>1600</v>
       </c>
       <c r="D36" t="s">
-        <v>5033</v>
+        <v>1601</v>
       </c>
       <c r="E36" t="s">
-        <v>5034</v>
+        <v>1602</v>
       </c>
       <c r="F36" t="s">
-        <v>5035</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -16978,19 +20157,19 @@
         <v>210</v>
       </c>
       <c r="B37" t="s">
-        <v>5036</v>
+        <v>1604</v>
       </c>
       <c r="C37" t="s">
-        <v>5037</v>
+        <v>1605</v>
       </c>
       <c r="D37" t="s">
-        <v>5038</v>
+        <v>1606</v>
       </c>
       <c r="E37" t="s">
-        <v>5039</v>
+        <v>1607</v>
       </c>
       <c r="F37" t="s">
-        <v>5040</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -16998,19 +20177,19 @@
         <v>216</v>
       </c>
       <c r="B38" t="s">
-        <v>5041</v>
+        <v>1609</v>
       </c>
       <c r="C38" t="s">
-        <v>5042</v>
+        <v>1610</v>
       </c>
       <c r="D38" t="s">
-        <v>5043</v>
+        <v>1611</v>
       </c>
       <c r="E38" t="s">
-        <v>5044</v>
+        <v>1612</v>
       </c>
       <c r="F38" t="s">
-        <v>5045</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -17018,19 +20197,19 @@
         <v>222</v>
       </c>
       <c r="B39" t="s">
-        <v>5046</v>
+        <v>1614</v>
       </c>
       <c r="C39" t="s">
-        <v>5047</v>
+        <v>1615</v>
       </c>
       <c r="D39" t="s">
-        <v>5048</v>
+        <v>1616</v>
       </c>
       <c r="E39" t="s">
-        <v>5049</v>
+        <v>1617</v>
       </c>
       <c r="F39" t="s">
-        <v>5050</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -17038,19 +20217,19 @@
         <v>228</v>
       </c>
       <c r="B40" t="s">
-        <v>5051</v>
+        <v>1619</v>
       </c>
       <c r="C40" t="s">
-        <v>5052</v>
+        <v>1620</v>
       </c>
       <c r="D40" t="s">
-        <v>5053</v>
+        <v>1621</v>
       </c>
       <c r="E40" t="s">
-        <v>5054</v>
+        <v>1622</v>
       </c>
       <c r="F40" t="s">
-        <v>5055</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -17058,19 +20237,19 @@
         <v>234</v>
       </c>
       <c r="B41" t="s">
-        <v>5056</v>
+        <v>1624</v>
       </c>
       <c r="C41" t="s">
-        <v>5057</v>
+        <v>1625</v>
       </c>
       <c r="D41" t="s">
-        <v>5058</v>
+        <v>1626</v>
       </c>
       <c r="E41" t="s">
-        <v>5059</v>
+        <v>1627</v>
       </c>
       <c r="F41" t="s">
-        <v>5060</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -17078,19 +20257,19 @@
         <v>240</v>
       </c>
       <c r="B42" t="s">
-        <v>5061</v>
+        <v>1629</v>
       </c>
       <c r="C42" t="s">
-        <v>5062</v>
+        <v>1630</v>
       </c>
       <c r="D42" t="s">
-        <v>5063</v>
+        <v>1631</v>
       </c>
       <c r="E42" t="s">
-        <v>5064</v>
+        <v>1632</v>
       </c>
       <c r="F42" t="s">
-        <v>5065</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -17098,19 +20277,19 @@
         <v>246</v>
       </c>
       <c r="B43" t="s">
-        <v>5066</v>
+        <v>1634</v>
       </c>
       <c r="C43" t="s">
-        <v>5067</v>
+        <v>1635</v>
       </c>
       <c r="D43" t="s">
-        <v>5068</v>
+        <v>1636</v>
       </c>
       <c r="E43" t="s">
-        <v>5069</v>
+        <v>1637</v>
       </c>
       <c r="F43" t="s">
-        <v>5070</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -17118,19 +20297,19 @@
         <v>252</v>
       </c>
       <c r="B44" t="s">
-        <v>5071</v>
+        <v>1639</v>
       </c>
       <c r="C44" t="s">
-        <v>5072</v>
+        <v>1640</v>
       </c>
       <c r="D44" t="s">
-        <v>5073</v>
+        <v>1641</v>
       </c>
       <c r="E44" t="s">
-        <v>5074</v>
+        <v>1642</v>
       </c>
       <c r="F44" t="s">
-        <v>5075</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -17138,19 +20317,19 @@
         <v>258</v>
       </c>
       <c r="B45" t="s">
-        <v>5076</v>
+        <v>1644</v>
       </c>
       <c r="C45" t="s">
-        <v>5077</v>
+        <v>1645</v>
       </c>
       <c r="D45" t="s">
-        <v>4231</v>
+        <v>1646</v>
       </c>
       <c r="E45" t="s">
-        <v>5078</v>
+        <v>1647</v>
       </c>
       <c r="F45" t="s">
-        <v>5079</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -17158,19 +20337,19 @@
         <v>264</v>
       </c>
       <c r="B46" t="s">
-        <v>5080</v>
+        <v>1649</v>
       </c>
       <c r="C46" t="s">
-        <v>5081</v>
+        <v>1650</v>
       </c>
       <c r="D46" t="s">
-        <v>5082</v>
+        <v>1651</v>
       </c>
       <c r="E46" t="s">
-        <v>5083</v>
+        <v>1652</v>
       </c>
       <c r="F46" t="s">
-        <v>5084</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -17178,19 +20357,19 @@
         <v>270</v>
       </c>
       <c r="B47" t="s">
-        <v>5085</v>
+        <v>1654</v>
       </c>
       <c r="C47" t="s">
-        <v>5086</v>
+        <v>1655</v>
       </c>
       <c r="D47" t="s">
-        <v>5087</v>
+        <v>1656</v>
       </c>
       <c r="E47" t="s">
-        <v>5088</v>
+        <v>1657</v>
       </c>
       <c r="F47" t="s">
-        <v>5089</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -17198,19 +20377,19 @@
         <v>276</v>
       </c>
       <c r="B48" t="s">
-        <v>5090</v>
+        <v>1659</v>
       </c>
       <c r="C48" t="s">
-        <v>5091</v>
+        <v>1660</v>
       </c>
       <c r="D48" t="s">
-        <v>5092</v>
+        <v>1661</v>
       </c>
       <c r="E48" t="s">
-        <v>5093</v>
+        <v>1662</v>
       </c>
       <c r="F48" t="s">
-        <v>5094</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -17218,19 +20397,19 @@
         <v>282</v>
       </c>
       <c r="B49" t="s">
-        <v>5095</v>
+        <v>1664</v>
       </c>
       <c r="C49" t="s">
-        <v>5096</v>
+        <v>1665</v>
       </c>
       <c r="D49" t="s">
-        <v>5097</v>
+        <v>1666</v>
       </c>
       <c r="E49" t="s">
-        <v>5098</v>
+        <v>1667</v>
       </c>
       <c r="F49" t="s">
-        <v>5099</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -17238,19 +20417,19 @@
         <v>288</v>
       </c>
       <c r="B50" t="s">
-        <v>5100</v>
+        <v>1669</v>
       </c>
       <c r="C50" t="s">
-        <v>5101</v>
+        <v>1670</v>
       </c>
       <c r="D50" t="s">
-        <v>5102</v>
+        <v>1671</v>
       </c>
       <c r="E50" t="s">
-        <v>5103</v>
+        <v>1672</v>
       </c>
       <c r="F50" t="s">
-        <v>5104</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -17258,19 +20437,19 @@
         <v>294</v>
       </c>
       <c r="B51" t="s">
-        <v>5105</v>
+        <v>1674</v>
       </c>
       <c r="C51" t="s">
-        <v>4690</v>
+        <v>1675</v>
       </c>
       <c r="D51" t="s">
-        <v>5106</v>
+        <v>1676</v>
       </c>
       <c r="E51" t="s">
-        <v>5107</v>
+        <v>1677</v>
       </c>
       <c r="F51" t="s">
-        <v>5108</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -17278,19 +20457,19 @@
         <v>300</v>
       </c>
       <c r="B52" t="s">
-        <v>5109</v>
+        <v>1679</v>
       </c>
       <c r="C52" t="s">
-        <v>5110</v>
+        <v>1680</v>
       </c>
       <c r="D52" t="s">
-        <v>5111</v>
+        <v>1681</v>
       </c>
       <c r="E52" t="s">
-        <v>5112</v>
+        <v>1682</v>
       </c>
       <c r="F52" t="s">
-        <v>5113</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -17298,19 +20477,19 @@
         <v>306</v>
       </c>
       <c r="B53" t="s">
-        <v>5114</v>
+        <v>1684</v>
       </c>
       <c r="C53" t="s">
-        <v>5115</v>
+        <v>1685</v>
       </c>
       <c r="D53" t="s">
-        <v>5116</v>
+        <v>1686</v>
       </c>
       <c r="E53" t="s">
-        <v>5117</v>
+        <v>1687</v>
       </c>
       <c r="F53" t="s">
-        <v>5118</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -17318,19 +20497,19 @@
         <v>312</v>
       </c>
       <c r="B54" t="s">
-        <v>5119</v>
+        <v>1689</v>
       </c>
       <c r="C54" t="s">
-        <v>5120</v>
+        <v>1690</v>
       </c>
       <c r="D54" t="s">
-        <v>5121</v>
+        <v>1691</v>
       </c>
       <c r="E54" t="s">
-        <v>4707</v>
+        <v>1692</v>
       </c>
       <c r="F54" t="s">
-        <v>5122</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -17338,19 +20517,19 @@
         <v>318</v>
       </c>
       <c r="B55" t="s">
-        <v>5123</v>
+        <v>1694</v>
       </c>
       <c r="C55" t="s">
-        <v>5124</v>
+        <v>1695</v>
       </c>
       <c r="D55" t="s">
-        <v>5125</v>
+        <v>1696</v>
       </c>
       <c r="E55" t="s">
-        <v>5126</v>
+        <v>1697</v>
       </c>
       <c r="F55" t="s">
-        <v>5127</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -17358,19 +20537,19 @@
         <v>324</v>
       </c>
       <c r="B56" t="s">
-        <v>5128</v>
+        <v>1699</v>
       </c>
       <c r="C56" t="s">
-        <v>5129</v>
+        <v>1700</v>
       </c>
       <c r="D56" t="s">
-        <v>5130</v>
+        <v>1701</v>
       </c>
       <c r="E56" t="s">
-        <v>5131</v>
+        <v>1702</v>
       </c>
       <c r="F56" t="s">
-        <v>5132</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -17378,19 +20557,19 @@
         <v>330</v>
       </c>
       <c r="B57" t="s">
-        <v>3853</v>
+        <v>1704</v>
       </c>
       <c r="C57" t="s">
-        <v>5133</v>
+        <v>1705</v>
       </c>
       <c r="D57" t="s">
-        <v>5134</v>
+        <v>1706</v>
       </c>
       <c r="E57" t="s">
-        <v>5135</v>
+        <v>1707</v>
       </c>
       <c r="F57" t="s">
-        <v>5136</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -17398,19 +20577,19 @@
         <v>336</v>
       </c>
       <c r="B58" t="s">
-        <v>5137</v>
+        <v>1709</v>
       </c>
       <c r="C58" t="s">
-        <v>5138</v>
+        <v>1710</v>
       </c>
       <c r="D58" t="s">
-        <v>5139</v>
+        <v>1711</v>
       </c>
       <c r="E58" t="s">
-        <v>5140</v>
+        <v>1712</v>
       </c>
       <c r="F58" t="s">
-        <v>5141</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -17418,19 +20597,19 @@
         <v>342</v>
       </c>
       <c r="B59" t="s">
-        <v>5142</v>
+        <v>1714</v>
       </c>
       <c r="C59" t="s">
-        <v>5143</v>
+        <v>1715</v>
       </c>
       <c r="D59" t="s">
-        <v>5144</v>
+        <v>1716</v>
       </c>
       <c r="E59" t="s">
-        <v>5145</v>
+        <v>1717</v>
       </c>
       <c r="F59" t="s">
-        <v>5146</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -17438,19 +20617,19 @@
         <v>348</v>
       </c>
       <c r="B60" t="s">
-        <v>5147</v>
+        <v>1719</v>
       </c>
       <c r="C60" t="s">
-        <v>5148</v>
+        <v>1720</v>
       </c>
       <c r="D60" t="s">
-        <v>5149</v>
+        <v>1721</v>
       </c>
       <c r="E60" t="s">
-        <v>5150</v>
+        <v>1722</v>
       </c>
       <c r="F60" t="s">
-        <v>5151</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -17458,19 +20637,19 @@
         <v>354</v>
       </c>
       <c r="B61" t="s">
-        <v>5152</v>
+        <v>1724</v>
       </c>
       <c r="C61" t="s">
-        <v>5153</v>
+        <v>1725</v>
       </c>
       <c r="D61" t="s">
-        <v>5154</v>
+        <v>1726</v>
       </c>
       <c r="E61" t="s">
-        <v>4738</v>
+        <v>1727</v>
       </c>
       <c r="F61" t="s">
-        <v>5155</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -17478,19 +20657,19 @@
         <v>360</v>
       </c>
       <c r="B62" t="s">
-        <v>5156</v>
+        <v>1729</v>
       </c>
       <c r="C62" t="s">
-        <v>4742</v>
+        <v>1730</v>
       </c>
       <c r="D62" t="s">
-        <v>5157</v>
+        <v>1731</v>
       </c>
       <c r="E62" t="s">
-        <v>5158</v>
+        <v>1732</v>
       </c>
       <c r="F62" t="s">
-        <v>5159</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -17498,19 +20677,19 @@
         <v>366</v>
       </c>
       <c r="B63" t="s">
-        <v>5160</v>
+        <v>1734</v>
       </c>
       <c r="C63" t="s">
-        <v>5161</v>
+        <v>1735</v>
       </c>
       <c r="D63" t="s">
-        <v>5162</v>
+        <v>1736</v>
       </c>
       <c r="E63" t="s">
-        <v>5163</v>
+        <v>1737</v>
       </c>
       <c r="F63" t="s">
-        <v>5164</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -17518,19 +20697,19 @@
         <v>372</v>
       </c>
       <c r="B64" t="s">
-        <v>5165</v>
+        <v>1739</v>
       </c>
       <c r="C64" t="s">
-        <v>5166</v>
+        <v>1740</v>
       </c>
       <c r="D64" t="s">
-        <v>5167</v>
+        <v>1741</v>
       </c>
       <c r="E64" t="s">
-        <v>5168</v>
+        <v>1742</v>
       </c>
       <c r="F64" t="s">
-        <v>5169</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -17538,19 +20717,19 @@
         <v>378</v>
       </c>
       <c r="B65" t="s">
-        <v>3036</v>
+        <v>379</v>
       </c>
       <c r="C65" t="s">
-        <v>3448</v>
+        <v>381</v>
       </c>
       <c r="D65" t="s">
-        <v>381</v>
+        <v>1744</v>
       </c>
       <c r="E65" t="s">
-        <v>4755</v>
+        <v>1745</v>
       </c>
       <c r="F65" t="s">
-        <v>4328</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -17558,19 +20737,19 @@
         <v>384</v>
       </c>
       <c r="B66" t="s">
-        <v>5170</v>
+        <v>1747</v>
       </c>
       <c r="C66" t="s">
-        <v>5171</v>
+        <v>1748</v>
       </c>
       <c r="D66" t="s">
-        <v>5172</v>
+        <v>1749</v>
       </c>
       <c r="E66" t="s">
-        <v>4332</v>
+        <v>1750</v>
       </c>
       <c r="F66" t="s">
-        <v>5173</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -17578,19 +20757,19 @@
         <v>390</v>
       </c>
       <c r="B67" t="s">
-        <v>5174</v>
+        <v>1752</v>
       </c>
       <c r="C67" t="s">
-        <v>5175</v>
+        <v>1753</v>
       </c>
       <c r="D67" t="s">
-        <v>5176</v>
+        <v>1754</v>
       </c>
       <c r="E67" t="s">
-        <v>5177</v>
+        <v>1755</v>
       </c>
       <c r="F67" t="s">
-        <v>5178</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -17598,19 +20777,19 @@
         <v>396</v>
       </c>
       <c r="B68" t="s">
-        <v>4765</v>
+        <v>1757</v>
       </c>
       <c r="C68" t="s">
-        <v>5179</v>
+        <v>1758</v>
       </c>
       <c r="D68" t="s">
-        <v>5180</v>
+        <v>1759</v>
       </c>
       <c r="E68" t="s">
-        <v>4342</v>
+        <v>1760</v>
       </c>
       <c r="F68" t="s">
-        <v>5181</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -17618,19 +20797,19 @@
         <v>402</v>
       </c>
       <c r="B69" t="s">
-        <v>5182</v>
+        <v>1762</v>
       </c>
       <c r="C69" t="s">
-        <v>5183</v>
+        <v>1763</v>
       </c>
       <c r="D69" t="s">
-        <v>5184</v>
+        <v>1764</v>
       </c>
       <c r="E69" t="s">
-        <v>5185</v>
+        <v>1765</v>
       </c>
       <c r="F69" t="s">
-        <v>5186</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -17638,19 +20817,19 @@
         <v>408</v>
       </c>
       <c r="B70" t="s">
-        <v>4772</v>
+        <v>1767</v>
       </c>
       <c r="C70" t="s">
-        <v>5187</v>
+        <v>1768</v>
       </c>
       <c r="D70" t="s">
-        <v>5188</v>
+        <v>1769</v>
       </c>
       <c r="E70" t="s">
-        <v>5189</v>
+        <v>1770</v>
       </c>
       <c r="F70" t="s">
-        <v>5190</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -17658,19 +20837,19 @@
         <v>414</v>
       </c>
       <c r="B71" t="s">
-        <v>4351</v>
+        <v>1772</v>
       </c>
       <c r="C71" t="s">
-        <v>4774</v>
+        <v>1773</v>
       </c>
       <c r="D71" t="s">
-        <v>5191</v>
+        <v>1774</v>
       </c>
       <c r="E71" t="s">
-        <v>4352</v>
+        <v>1775</v>
       </c>
       <c r="F71" t="s">
-        <v>4775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -17678,19 +20857,19 @@
         <v>420</v>
       </c>
       <c r="B72" t="s">
-        <v>5192</v>
+        <v>1777</v>
       </c>
       <c r="C72" t="s">
-        <v>4777</v>
+        <v>1778</v>
       </c>
       <c r="D72" t="s">
-        <v>5193</v>
+        <v>1779</v>
       </c>
       <c r="E72" t="s">
-        <v>5194</v>
+        <v>1780</v>
       </c>
       <c r="F72" t="s">
-        <v>5195</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -17698,19 +20877,19 @@
         <v>426</v>
       </c>
       <c r="B73" t="s">
-        <v>5196</v>
+        <v>1782</v>
       </c>
       <c r="C73" t="s">
-        <v>5197</v>
+        <v>1783</v>
       </c>
       <c r="D73" t="s">
-        <v>5198</v>
+        <v>1784</v>
       </c>
       <c r="E73" t="s">
-        <v>5199</v>
+        <v>1785</v>
       </c>
       <c r="F73" t="s">
-        <v>5200</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -17718,19 +20897,19 @@
         <v>432</v>
       </c>
       <c r="B74" t="s">
-        <v>5201</v>
+        <v>1787</v>
       </c>
       <c r="C74" t="s">
-        <v>5202</v>
+        <v>1788</v>
       </c>
       <c r="D74" t="s">
-        <v>5203</v>
+        <v>1789</v>
       </c>
       <c r="E74" t="s">
-        <v>5204</v>
+        <v>1790</v>
       </c>
       <c r="F74" t="s">
-        <v>5205</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -17738,19 +20917,19 @@
         <v>438</v>
       </c>
       <c r="B75" t="s">
-        <v>5206</v>
+        <v>1792</v>
       </c>
       <c r="C75" t="s">
-        <v>5207</v>
+        <v>1793</v>
       </c>
       <c r="D75" t="s">
-        <v>5208</v>
+        <v>1794</v>
       </c>
       <c r="E75" t="s">
-        <v>4370</v>
+        <v>1795</v>
       </c>
       <c r="F75" t="s">
-        <v>5209</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -17758,19 +20937,19 @@
         <v>444</v>
       </c>
       <c r="B76" t="s">
-        <v>5210</v>
+        <v>1797</v>
       </c>
       <c r="C76" t="s">
-        <v>5211</v>
+        <v>1798</v>
       </c>
       <c r="D76" t="s">
-        <v>5212</v>
+        <v>1799</v>
       </c>
       <c r="E76" t="s">
-        <v>5213</v>
+        <v>1800</v>
       </c>
       <c r="F76" t="s">
-        <v>5214</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -17778,19 +20957,19 @@
         <v>450</v>
       </c>
       <c r="B77" t="s">
-        <v>5215</v>
+        <v>1802</v>
       </c>
       <c r="C77" t="s">
-        <v>5216</v>
+        <v>1803</v>
       </c>
       <c r="D77" t="s">
-        <v>5217</v>
+        <v>1804</v>
       </c>
       <c r="E77" t="s">
-        <v>5218</v>
+        <v>1805</v>
       </c>
       <c r="F77" t="s">
-        <v>5219</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -17798,19 +20977,19 @@
         <v>456</v>
       </c>
       <c r="B78" t="s">
-        <v>5220</v>
+        <v>1807</v>
       </c>
       <c r="C78" t="s">
-        <v>5221</v>
+        <v>1808</v>
       </c>
       <c r="D78" t="s">
-        <v>5222</v>
+        <v>1809</v>
       </c>
       <c r="E78" t="s">
-        <v>5223</v>
+        <v>1810</v>
       </c>
       <c r="F78" t="s">
-        <v>5224</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -17818,19 +20997,19 @@
         <v>462</v>
       </c>
       <c r="B79" t="s">
-        <v>5225</v>
+        <v>1812</v>
       </c>
       <c r="C79" t="s">
-        <v>5226</v>
+        <v>1813</v>
       </c>
       <c r="D79" t="s">
-        <v>5227</v>
+        <v>1814</v>
       </c>
       <c r="E79" t="s">
-        <v>5228</v>
+        <v>1815</v>
       </c>
       <c r="F79" t="s">
-        <v>5229</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -17838,19 +21017,19 @@
         <v>468</v>
       </c>
       <c r="B80" t="s">
-        <v>5230</v>
+        <v>1817</v>
       </c>
       <c r="C80" t="s">
-        <v>5231</v>
+        <v>1818</v>
       </c>
       <c r="D80" t="s">
-        <v>3513</v>
+        <v>1819</v>
       </c>
       <c r="E80" t="s">
-        <v>5232</v>
+        <v>1820</v>
       </c>
       <c r="F80" t="s">
-        <v>5233</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -17858,19 +21037,19 @@
         <v>474</v>
       </c>
       <c r="B81" t="s">
-        <v>5234</v>
+        <v>1822</v>
       </c>
       <c r="C81" t="s">
-        <v>5235</v>
+        <v>1823</v>
       </c>
       <c r="D81" t="s">
-        <v>5236</v>
+        <v>1824</v>
       </c>
       <c r="E81" t="s">
-        <v>5237</v>
+        <v>1825</v>
       </c>
       <c r="F81" t="s">
-        <v>5238</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -17878,19 +21057,19 @@
         <v>480</v>
       </c>
       <c r="B82" t="s">
-        <v>5239</v>
+        <v>1827</v>
       </c>
       <c r="C82" t="s">
-        <v>5240</v>
+        <v>1828</v>
       </c>
       <c r="D82" t="s">
-        <v>5241</v>
+        <v>1829</v>
       </c>
       <c r="E82" t="s">
-        <v>5242</v>
+        <v>1830</v>
       </c>
       <c r="F82" t="s">
-        <v>5243</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -17898,19 +21077,19 @@
         <v>486</v>
       </c>
       <c r="B83" t="s">
-        <v>5244</v>
+        <v>1832</v>
       </c>
       <c r="C83" t="s">
-        <v>5245</v>
+        <v>1833</v>
       </c>
       <c r="D83" t="s">
-        <v>5246</v>
+        <v>1834</v>
       </c>
       <c r="E83" t="s">
-        <v>5247</v>
+        <v>1835</v>
       </c>
       <c r="F83" t="s">
-        <v>5248</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -17918,19 +21097,19 @@
         <v>492</v>
       </c>
       <c r="B84" t="s">
-        <v>5249</v>
+        <v>1837</v>
       </c>
       <c r="C84" t="s">
-        <v>5250</v>
+        <v>1838</v>
       </c>
       <c r="D84" t="s">
-        <v>5251</v>
+        <v>1839</v>
       </c>
       <c r="E84" t="s">
-        <v>5252</v>
+        <v>1840</v>
       </c>
       <c r="F84" t="s">
-        <v>5253</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -17938,19 +21117,19 @@
         <v>498</v>
       </c>
       <c r="B85" t="s">
-        <v>4834</v>
+        <v>1842</v>
       </c>
       <c r="C85" t="s">
-        <v>4835</v>
+        <v>1843</v>
       </c>
       <c r="D85" t="s">
-        <v>4413</v>
+        <v>1844</v>
       </c>
       <c r="E85" t="s">
-        <v>4414</v>
+        <v>1845</v>
       </c>
       <c r="F85" t="s">
-        <v>4415</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -17958,19 +21137,19 @@
         <v>504</v>
       </c>
       <c r="B86" t="s">
-        <v>5254</v>
+        <v>1847</v>
       </c>
       <c r="C86" t="s">
-        <v>5255</v>
+        <v>1848</v>
       </c>
       <c r="D86" t="s">
-        <v>5256</v>
+        <v>1849</v>
       </c>
       <c r="E86" t="s">
-        <v>5257</v>
+        <v>1850</v>
       </c>
       <c r="F86" t="s">
-        <v>5258</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -17978,19 +21157,19 @@
         <v>510</v>
       </c>
       <c r="B87" t="s">
-        <v>5259</v>
+        <v>1852</v>
       </c>
       <c r="C87" t="s">
-        <v>5260</v>
+        <v>1853</v>
       </c>
       <c r="D87" t="s">
-        <v>5261</v>
+        <v>1854</v>
       </c>
       <c r="E87" t="s">
-        <v>5262</v>
+        <v>1855</v>
       </c>
       <c r="F87" t="s">
-        <v>5263</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -17998,19 +21177,19 @@
         <v>516</v>
       </c>
       <c r="B88" t="s">
-        <v>5264</v>
+        <v>1857</v>
       </c>
       <c r="C88" t="s">
-        <v>5265</v>
+        <v>1858</v>
       </c>
       <c r="D88" t="s">
-        <v>4846</v>
+        <v>1859</v>
       </c>
       <c r="E88" t="s">
-        <v>5266</v>
+        <v>1860</v>
       </c>
       <c r="F88" t="s">
-        <v>5267</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -18018,19 +21197,19 @@
         <v>522</v>
       </c>
       <c r="B89" t="s">
-        <v>5268</v>
+        <v>1862</v>
       </c>
       <c r="C89" t="s">
-        <v>5269</v>
+        <v>1863</v>
       </c>
       <c r="D89" t="s">
-        <v>5270</v>
+        <v>1864</v>
       </c>
       <c r="E89" t="s">
-        <v>5271</v>
+        <v>1865</v>
       </c>
       <c r="F89" t="s">
-        <v>5272</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -18038,19 +21217,19 @@
         <v>528</v>
       </c>
       <c r="B90" t="s">
-        <v>5273</v>
+        <v>1867</v>
       </c>
       <c r="C90" t="s">
-        <v>5274</v>
+        <v>1868</v>
       </c>
       <c r="D90" t="s">
-        <v>5275</v>
+        <v>1869</v>
       </c>
       <c r="E90" t="s">
-        <v>5276</v>
+        <v>1870</v>
       </c>
       <c r="F90" t="s">
-        <v>5277</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -18058,19 +21237,19 @@
         <v>534</v>
       </c>
       <c r="B91" t="s">
-        <v>5278</v>
+        <v>1872</v>
       </c>
       <c r="C91" t="s">
-        <v>5279</v>
+        <v>1873</v>
       </c>
       <c r="D91" t="s">
-        <v>5280</v>
+        <v>1874</v>
       </c>
       <c r="E91" t="s">
-        <v>5281</v>
+        <v>1875</v>
       </c>
       <c r="F91" t="s">
-        <v>5282</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -18078,19 +21257,19 @@
         <v>540</v>
       </c>
       <c r="B92" t="s">
-        <v>5283</v>
+        <v>1877</v>
       </c>
       <c r="C92" t="s">
-        <v>5284</v>
+        <v>983</v>
       </c>
       <c r="D92" t="s">
-        <v>5285</v>
+        <v>1878</v>
       </c>
       <c r="E92" t="s">
-        <v>5286</v>
+        <v>1879</v>
       </c>
       <c r="F92" t="s">
-        <v>5287</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -18098,19 +21277,19 @@
         <v>546</v>
       </c>
       <c r="B93" t="s">
-        <v>5288</v>
+        <v>1881</v>
       </c>
       <c r="C93" t="s">
-        <v>5289</v>
+        <v>1882</v>
       </c>
       <c r="D93" t="s">
-        <v>5290</v>
+        <v>1883</v>
       </c>
       <c r="E93" t="s">
-        <v>5291</v>
+        <v>1884</v>
       </c>
       <c r="F93" t="s">
-        <v>5292</v>
+        <v>1885</v>
       </c>
     </row>
   </sheetData>
@@ -18118,7 +21297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3009EEF-D0A3-4418-BB02-D308992E6389}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -19998,7 +23177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62503B16-5D5E-43EB-8EDC-28C65E9BFBAD}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -21878,7 +25057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -23759,6 +26938,1888 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8031CFF4-E8B1-4230-A6BE-8355C73394A8}">
+  <dimension ref="A1:F93"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4869</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4870</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4871</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4872</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4874</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4875</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4877</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4879</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4880</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4881</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4882</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4883</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4884</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4885</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4886</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4887</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4889</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4890</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4891</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4892</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4894</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4895</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4896</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4897</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4899</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4900</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4901</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4902</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4904</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4490</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4054</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4905</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4907</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4908</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4909</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4910</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4911</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4912</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4913</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4914</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4915</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4916</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4917</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4918</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4919</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4920</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4922</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4923</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4924</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4925</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4927</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4928</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4929</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4930</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4931</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4932</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4082</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4933</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4934</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4936</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4937</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4938</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4939</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4527</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3655</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4941</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4942</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4944</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4945</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4946</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4947</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4948</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4949</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4950</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4951</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4952</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4953</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4954</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4955</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4956</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4957</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4959</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4960</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4961</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4962</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4963</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4964</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4965</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4966</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4967</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4969</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4556</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4970</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4971</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4973</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4974</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4975</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4976</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4977</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4978</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4979</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4980</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4981</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4982</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4983</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4984</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4985</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4986</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4987</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4988</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4989</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4990</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4991</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4992</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4994</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4995</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4997</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4998</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4999</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5000</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5002</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5003</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5004</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5005</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5007</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5008</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5009</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5010</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5012</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5013</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5014</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5015</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5017</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5018</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5019</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5020</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5022</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5023</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5024</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5025</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5026</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5027</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5028</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4182</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5029</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5030</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5031</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5032</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5033</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5034</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5035</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5036</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5037</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5038</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5039</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5041</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5042</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5043</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5044</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5045</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5046</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5047</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5048</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5049</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5051</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5052</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5053</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5054</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5055</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5056</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5057</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5058</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5059</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5060</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5061</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5062</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5063</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5064</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5065</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5066</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5067</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5068</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5069</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5070</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5071</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5072</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5073</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5074</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5076</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5077</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4231</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5078</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5079</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5080</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5081</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5082</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5083</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5084</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5085</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5086</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5087</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5088</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5089</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5090</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5091</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5092</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5093</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5094</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5095</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5096</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5097</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5098</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5100</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5101</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5102</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5103</v>
+      </c>
+      <c r="F50" t="s">
+        <v>5104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4690</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5106</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5107</v>
+      </c>
+      <c r="F51" t="s">
+        <v>5108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5109</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5110</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5111</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5112</v>
+      </c>
+      <c r="F52" t="s">
+        <v>5113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5114</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5115</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5116</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5117</v>
+      </c>
+      <c r="F53" t="s">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>312</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5119</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5120</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5121</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4707</v>
+      </c>
+      <c r="F54" t="s">
+        <v>5122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>318</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5123</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5124</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5125</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5126</v>
+      </c>
+      <c r="F55" t="s">
+        <v>5127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5128</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5129</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5130</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5131</v>
+      </c>
+      <c r="F56" t="s">
+        <v>5132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>330</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3853</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5133</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5134</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5135</v>
+      </c>
+      <c r="F57" t="s">
+        <v>5136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>336</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5137</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5138</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5139</v>
+      </c>
+      <c r="E58" t="s">
+        <v>5140</v>
+      </c>
+      <c r="F58" t="s">
+        <v>5141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5142</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5143</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5144</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5145</v>
+      </c>
+      <c r="F59" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5147</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5148</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5149</v>
+      </c>
+      <c r="E60" t="s">
+        <v>5150</v>
+      </c>
+      <c r="F60" t="s">
+        <v>5151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5152</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5153</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5154</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4738</v>
+      </c>
+      <c r="F61" t="s">
+        <v>5155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>360</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5156</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4742</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5157</v>
+      </c>
+      <c r="E62" t="s">
+        <v>5158</v>
+      </c>
+      <c r="F62" t="s">
+        <v>5159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5160</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5161</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5162</v>
+      </c>
+      <c r="E63" t="s">
+        <v>5163</v>
+      </c>
+      <c r="F63" t="s">
+        <v>5164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>372</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5165</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5166</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5167</v>
+      </c>
+      <c r="E64" t="s">
+        <v>5168</v>
+      </c>
+      <c r="F64" t="s">
+        <v>5169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>378</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3448</v>
+      </c>
+      <c r="D65" t="s">
+        <v>381</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4755</v>
+      </c>
+      <c r="F65" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>384</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5170</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5171</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5172</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F66" t="s">
+        <v>5173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>390</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5174</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5175</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5176</v>
+      </c>
+      <c r="E67" t="s">
+        <v>5177</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>396</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4765</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5179</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5180</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4342</v>
+      </c>
+      <c r="F68" t="s">
+        <v>5181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>402</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5182</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5183</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5184</v>
+      </c>
+      <c r="E69" t="s">
+        <v>5185</v>
+      </c>
+      <c r="F69" t="s">
+        <v>5186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>408</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4772</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5187</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5188</v>
+      </c>
+      <c r="E70" t="s">
+        <v>5189</v>
+      </c>
+      <c r="F70" t="s">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>414</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4351</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4774</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5191</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4352</v>
+      </c>
+      <c r="F71" t="s">
+        <v>4775</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>420</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5192</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4777</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5193</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5194</v>
+      </c>
+      <c r="F72" t="s">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>426</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5196</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5197</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5198</v>
+      </c>
+      <c r="E73" t="s">
+        <v>5199</v>
+      </c>
+      <c r="F73" t="s">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>432</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5201</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5202</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5203</v>
+      </c>
+      <c r="E74" t="s">
+        <v>5204</v>
+      </c>
+      <c r="F74" t="s">
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>438</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5206</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5207</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5208</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4370</v>
+      </c>
+      <c r="F75" t="s">
+        <v>5209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>444</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5210</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5211</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5212</v>
+      </c>
+      <c r="E76" t="s">
+        <v>5213</v>
+      </c>
+      <c r="F76" t="s">
+        <v>5214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>450</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5215</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5216</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5217</v>
+      </c>
+      <c r="E77" t="s">
+        <v>5218</v>
+      </c>
+      <c r="F77" t="s">
+        <v>5219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>456</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5220</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5221</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5222</v>
+      </c>
+      <c r="E78" t="s">
+        <v>5223</v>
+      </c>
+      <c r="F78" t="s">
+        <v>5224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>462</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5225</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5226</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5227</v>
+      </c>
+      <c r="E79" t="s">
+        <v>5228</v>
+      </c>
+      <c r="F79" t="s">
+        <v>5229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5230</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5231</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E80" t="s">
+        <v>5232</v>
+      </c>
+      <c r="F80" t="s">
+        <v>5233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>474</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5234</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5235</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5236</v>
+      </c>
+      <c r="E81" t="s">
+        <v>5237</v>
+      </c>
+      <c r="F81" t="s">
+        <v>5238</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>480</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5239</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5240</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5241</v>
+      </c>
+      <c r="E82" t="s">
+        <v>5242</v>
+      </c>
+      <c r="F82" t="s">
+        <v>5243</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>486</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5244</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5245</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5246</v>
+      </c>
+      <c r="E83" t="s">
+        <v>5247</v>
+      </c>
+      <c r="F83" t="s">
+        <v>5248</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>492</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5249</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5250</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5251</v>
+      </c>
+      <c r="E84" t="s">
+        <v>5252</v>
+      </c>
+      <c r="F84" t="s">
+        <v>5253</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>498</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4834</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4835</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4413</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4414</v>
+      </c>
+      <c r="F85" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>504</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5254</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5255</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5256</v>
+      </c>
+      <c r="E86" t="s">
+        <v>5257</v>
+      </c>
+      <c r="F86" t="s">
+        <v>5258</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>510</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5259</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5260</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5261</v>
+      </c>
+      <c r="E87" t="s">
+        <v>5262</v>
+      </c>
+      <c r="F87" t="s">
+        <v>5263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>516</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5264</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5265</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4846</v>
+      </c>
+      <c r="E88" t="s">
+        <v>5266</v>
+      </c>
+      <c r="F88" t="s">
+        <v>5267</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>522</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5268</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5269</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5270</v>
+      </c>
+      <c r="E89" t="s">
+        <v>5271</v>
+      </c>
+      <c r="F89" t="s">
+        <v>5272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>528</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5273</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5274</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5275</v>
+      </c>
+      <c r="E90" t="s">
+        <v>5276</v>
+      </c>
+      <c r="F90" t="s">
+        <v>5277</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>534</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5278</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5279</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5280</v>
+      </c>
+      <c r="E91" t="s">
+        <v>5281</v>
+      </c>
+      <c r="F91" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>540</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5283</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5284</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5285</v>
+      </c>
+      <c r="E92" t="s">
+        <v>5286</v>
+      </c>
+      <c r="F92" t="s">
+        <v>5287</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>546</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5288</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5289</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5290</v>
+      </c>
+      <c r="E93" t="s">
+        <v>5291</v>
+      </c>
+      <c r="F93" t="s">
+        <v>5292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEE11C3-3B44-4022-BB32-BDF73F267C1B}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -25639,7 +30700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDA9053-1E1E-4544-B000-C7441587AE1E}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -27521,7 +32582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60595582-9969-482E-9896-05463C5DE0AD}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -29402,7 +34463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001CC29C-638A-4E4E-829D-66241B93D88A}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -31283,7 +36344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C0AFDA-3FBB-41A3-BA62-46EDDC71FB68}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -33165,7 +38226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676205A0-C5FF-4AEC-B10B-18D60F60A28C}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -35047,7 +40108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FC7E8D-1DE3-4DBF-BC92-6657EED87D10}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -36928,1886 +41989,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EEF453-2C93-48DA-92A9-F02917F02C21}">
-  <dimension ref="A1:F93"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1429</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1430</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1431</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1432</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1436</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1437</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1441</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1442</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1446</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1447</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1449</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1452</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1455</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1456</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1459</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1466</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1467</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1470</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1471</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1472</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1475</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1477</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1480</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1482</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1485</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1486</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1487</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1489</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1490</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1492</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1496</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1497</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1500</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1501</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1502</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1505</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1506</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1507</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1511</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1512</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1516</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1517</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1522</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1524</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1525</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1526</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1531</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1532</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1534</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1536</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1537</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1539</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1541</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1542</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1544</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1546</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1547</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1549</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1550</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1551</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1552</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1556</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1557</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>156</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1559</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1561</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1562</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1564</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1566</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1567</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1569</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1570</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1571</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1572</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1574</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1575</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1576</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1577</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1580</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1581</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1582</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>186</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1584</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1585</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1587</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1590</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1592</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>198</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1597</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>204</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1600</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1601</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1602</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1606</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1607</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>216</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1610</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1612</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>222</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1616</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1617</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>228</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1620</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1621</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1622</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>234</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1624</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1625</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1626</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1627</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>240</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1629</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1631</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1632</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>246</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1635</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1636</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1637</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>252</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1641</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1642</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>258</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1645</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1646</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1647</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>264</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1650</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1651</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>270</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1655</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1656</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1657</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>276</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1660</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1661</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1662</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>282</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1664</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1665</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1666</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1667</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>288</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1669</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1671</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1672</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>294</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1674</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1675</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1676</v>
-      </c>
-      <c r="E51" t="s">
-        <v>1677</v>
-      </c>
-      <c r="F51" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1681</v>
-      </c>
-      <c r="E52" t="s">
-        <v>1682</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>306</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1684</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E53" t="s">
-        <v>1687</v>
-      </c>
-      <c r="F53" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>312</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1690</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1691</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1692</v>
-      </c>
-      <c r="F54" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>318</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1695</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1696</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1697</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>324</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1700</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1701</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1702</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>330</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1704</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1705</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1706</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F57" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>336</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1710</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1711</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1712</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>342</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1714</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1715</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1716</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1717</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>348</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E60" t="s">
-        <v>1722</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>354</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1724</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1725</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1726</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1727</v>
-      </c>
-      <c r="F61" t="s">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>360</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1729</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1730</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1731</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1732</v>
-      </c>
-      <c r="F62" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>366</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F63" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>372</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1740</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1741</v>
-      </c>
-      <c r="E64" t="s">
-        <v>1742</v>
-      </c>
-      <c r="F64" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>378</v>
-      </c>
-      <c r="B65" t="s">
-        <v>379</v>
-      </c>
-      <c r="C65" t="s">
-        <v>381</v>
-      </c>
-      <c r="D65" t="s">
-        <v>1744</v>
-      </c>
-      <c r="E65" t="s">
-        <v>1745</v>
-      </c>
-      <c r="F65" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>384</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1748</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1749</v>
-      </c>
-      <c r="E66" t="s">
-        <v>1750</v>
-      </c>
-      <c r="F66" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>390</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1752</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1753</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1754</v>
-      </c>
-      <c r="E67" t="s">
-        <v>1755</v>
-      </c>
-      <c r="F67" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>396</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1757</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1759</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1760</v>
-      </c>
-      <c r="F68" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>402</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1762</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1763</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1764</v>
-      </c>
-      <c r="E69" t="s">
-        <v>1765</v>
-      </c>
-      <c r="F69" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>408</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1767</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1768</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1769</v>
-      </c>
-      <c r="E70" t="s">
-        <v>1770</v>
-      </c>
-      <c r="F70" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>414</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1772</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1773</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1774</v>
-      </c>
-      <c r="E71" t="s">
-        <v>1775</v>
-      </c>
-      <c r="F71" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>420</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1777</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1779</v>
-      </c>
-      <c r="E72" t="s">
-        <v>1780</v>
-      </c>
-      <c r="F72" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>426</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1782</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1783</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1784</v>
-      </c>
-      <c r="E73" t="s">
-        <v>1785</v>
-      </c>
-      <c r="F73" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>432</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1787</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1788</v>
-      </c>
-      <c r="D74" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E74" t="s">
-        <v>1790</v>
-      </c>
-      <c r="F74" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>438</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1792</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1793</v>
-      </c>
-      <c r="D75" t="s">
-        <v>1794</v>
-      </c>
-      <c r="E75" t="s">
-        <v>1795</v>
-      </c>
-      <c r="F75" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>444</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1797</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1798</v>
-      </c>
-      <c r="D76" t="s">
-        <v>1799</v>
-      </c>
-      <c r="E76" t="s">
-        <v>1800</v>
-      </c>
-      <c r="F76" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>450</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1802</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1804</v>
-      </c>
-      <c r="E77" t="s">
-        <v>1805</v>
-      </c>
-      <c r="F77" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>456</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1807</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D78" t="s">
-        <v>1809</v>
-      </c>
-      <c r="E78" t="s">
-        <v>1810</v>
-      </c>
-      <c r="F78" t="s">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>462</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1812</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1813</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1814</v>
-      </c>
-      <c r="E79" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F79" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>468</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1817</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1818</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1819</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1820</v>
-      </c>
-      <c r="F80" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>474</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1822</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1824</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1825</v>
-      </c>
-      <c r="F81" t="s">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>480</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1827</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1828</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1829</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1830</v>
-      </c>
-      <c r="F82" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>486</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1832</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1833</v>
-      </c>
-      <c r="D83" t="s">
-        <v>1834</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1835</v>
-      </c>
-      <c r="F83" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>492</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1837</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1838</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1839</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1840</v>
-      </c>
-      <c r="F84" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>498</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1842</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1843</v>
-      </c>
-      <c r="D85" t="s">
-        <v>1844</v>
-      </c>
-      <c r="E85" t="s">
-        <v>1845</v>
-      </c>
-      <c r="F85" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>504</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1848</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1849</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1850</v>
-      </c>
-      <c r="F86" t="s">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>510</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1852</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1853</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1854</v>
-      </c>
-      <c r="E87" t="s">
-        <v>1855</v>
-      </c>
-      <c r="F87" t="s">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>516</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1858</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1859</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1860</v>
-      </c>
-      <c r="F88" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>522</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1862</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1863</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1864</v>
-      </c>
-      <c r="E89" t="s">
-        <v>1865</v>
-      </c>
-      <c r="F89" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>528</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D90" t="s">
-        <v>1869</v>
-      </c>
-      <c r="E90" t="s">
-        <v>1870</v>
-      </c>
-      <c r="F90" t="s">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>534</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1872</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1873</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E91" t="s">
-        <v>1875</v>
-      </c>
-      <c r="F91" t="s">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>540</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1877</v>
-      </c>
-      <c r="C92" t="s">
-        <v>983</v>
-      </c>
-      <c r="D92" t="s">
-        <v>1878</v>
-      </c>
-      <c r="E92" t="s">
-        <v>1879</v>
-      </c>
-      <c r="F92" t="s">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>546</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1881</v>
-      </c>
-      <c r="C93" t="s">
-        <v>1882</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1883</v>
-      </c>
-      <c r="E93" t="s">
-        <v>1884</v>
-      </c>
-      <c r="F93" t="s">
-        <v>1885</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Broker_Analysis.xlsx
+++ b/Broker_Analysis.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\OneDrive\Desktop\Others\python scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F91402-F055-4ECD-96A1-AA3F0B151005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DCC2D1-F692-4A8F-8308-368685B71405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015-06-15" sheetId="14" r:id="rId1"/>
+    <sheet name="2025-06-15" sheetId="14" r:id="rId1"/>
     <sheet name="2025-06-12" sheetId="13" r:id="rId2"/>
     <sheet name="2025-06-11" sheetId="12" r:id="rId3"/>
     <sheet name="2025-06-10" sheetId="11" r:id="rId4"/>
@@ -18862,7 +18862,7 @@
   <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F93"/>
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Broker_Analysis.xlsx
+++ b/Broker_Analysis.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\OneDrive\Desktop\Others\python scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DCC2D1-F692-4A8F-8308-368685B71405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E60CE6-6760-4F9F-B277-4661C8CC8DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-06-15" sheetId="14" r:id="rId1"/>
-    <sheet name="2025-06-12" sheetId="13" r:id="rId2"/>
-    <sheet name="2025-06-11" sheetId="12" r:id="rId3"/>
-    <sheet name="2025-06-10" sheetId="11" r:id="rId4"/>
-    <sheet name="2025-06-09" sheetId="10" r:id="rId5"/>
-    <sheet name="2025-06-08" sheetId="9" r:id="rId6"/>
-    <sheet name="2025-06-05" sheetId="8" r:id="rId7"/>
-    <sheet name="2025-06-04" sheetId="7" r:id="rId8"/>
-    <sheet name="2025-06-03" sheetId="6" r:id="rId9"/>
-    <sheet name="2025-06-02" sheetId="5" r:id="rId10"/>
-    <sheet name="2025-05-28" sheetId="4" r:id="rId11"/>
-    <sheet name="2025-05-21" sheetId="3" r:id="rId12"/>
-    <sheet name="2025-05-20" sheetId="2" r:id="rId13"/>
-    <sheet name="2025-05-19" sheetId="1" r:id="rId14"/>
+    <sheet name="2025-06-16" sheetId="15" r:id="rId1"/>
+    <sheet name="2025-06-15" sheetId="14" r:id="rId2"/>
+    <sheet name="2025-06-12" sheetId="13" r:id="rId3"/>
+    <sheet name="2025-06-11" sheetId="12" r:id="rId4"/>
+    <sheet name="2025-06-10" sheetId="11" r:id="rId5"/>
+    <sheet name="2025-06-09" sheetId="10" r:id="rId6"/>
+    <sheet name="2025-06-08" sheetId="9" r:id="rId7"/>
+    <sheet name="2025-06-05" sheetId="8" r:id="rId8"/>
+    <sheet name="2025-06-04" sheetId="7" r:id="rId9"/>
+    <sheet name="2025-06-03" sheetId="6" r:id="rId10"/>
+    <sheet name="2025-06-02" sheetId="5" r:id="rId11"/>
+    <sheet name="2025-05-28" sheetId="4" r:id="rId12"/>
+    <sheet name="2025-05-21" sheetId="3" r:id="rId13"/>
+    <sheet name="2025-05-20" sheetId="2" r:id="rId14"/>
+    <sheet name="2025-05-19" sheetId="1" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7812" uniqueCount="6166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8370" uniqueCount="6600">
   <si>
     <t>B1</t>
   </si>
@@ -18536,6 +18537,1308 @@
   </si>
   <si>
     <t>RADHI/8117/818.11</t>
+  </si>
+  <si>
+    <t>RADHI/39729/807.44</t>
+  </si>
+  <si>
+    <t>CHDC/11955/2,607.03</t>
+  </si>
+  <si>
+    <t>NRN/15213/2,030.98</t>
+  </si>
+  <si>
+    <t>NIFRA/93958/283.12</t>
+  </si>
+  <si>
+    <t>SHIVM/47132/521.86</t>
+  </si>
+  <si>
+    <t>SHIVM/18991/528.19</t>
+  </si>
+  <si>
+    <t>OMPL/6520/1,575.65</t>
+  </si>
+  <si>
+    <t>MBL/38448/220.89</t>
+  </si>
+  <si>
+    <t>HLI/19300/405.47</t>
+  </si>
+  <si>
+    <t>PRVU/24310/208.18</t>
+  </si>
+  <si>
+    <t>SARBTM/71072/844.96</t>
+  </si>
+  <si>
+    <t>HRL/40608/934.13</t>
+  </si>
+  <si>
+    <t>UMRH/44446/610.21</t>
+  </si>
+  <si>
+    <t>GMFIL/43531/492.25</t>
+  </si>
+  <si>
+    <t>API/57495/300.99</t>
+  </si>
+  <si>
+    <t>HIDCLP/109453/211.79</t>
+  </si>
+  <si>
+    <t>HRL/12099/955.22</t>
+  </si>
+  <si>
+    <t>CHDC/4557/2,611.51</t>
+  </si>
+  <si>
+    <t>NGPL/27815/392.55</t>
+  </si>
+  <si>
+    <t>LBBL/17067/446.39</t>
+  </si>
+  <si>
+    <t>NRIC/511570/1,296.22</t>
+  </si>
+  <si>
+    <t>UPCL/167968/447.39</t>
+  </si>
+  <si>
+    <t>RIDI/168796/278.28</t>
+  </si>
+  <si>
+    <t>HRL/49334/946.85</t>
+  </si>
+  <si>
+    <t>HIDCLP/151839/210.92</t>
+  </si>
+  <si>
+    <t>NRN/16333/2,047.66</t>
+  </si>
+  <si>
+    <t>CHDC/10817/2,591.12</t>
+  </si>
+  <si>
+    <t>RADHI/23887/788.81</t>
+  </si>
+  <si>
+    <t>GHL/44340/257.69</t>
+  </si>
+  <si>
+    <t>SIFC/17770/576.10</t>
+  </si>
+  <si>
+    <t>NGPL/219265/406.27</t>
+  </si>
+  <si>
+    <t>HIDCLP/169023/214.09</t>
+  </si>
+  <si>
+    <t>SADBL/66870/427.03</t>
+  </si>
+  <si>
+    <t>SAHAS/49699/557.32</t>
+  </si>
+  <si>
+    <t>LSL/107199/223.82</t>
+  </si>
+  <si>
+    <t>HIDCLP/79410/213.63</t>
+  </si>
+  <si>
+    <t>SHPC/16460/626.69</t>
+  </si>
+  <si>
+    <t>CIT/3559/1,921.25</t>
+  </si>
+  <si>
+    <t>CHCL/9438/576.65</t>
+  </si>
+  <si>
+    <t>NABIL/16858/497.17</t>
+  </si>
+  <si>
+    <t>RHPL/15356/413.79</t>
+  </si>
+  <si>
+    <t>CIT/3220/1,910.72</t>
+  </si>
+  <si>
+    <t>ALICL/7896/659.16</t>
+  </si>
+  <si>
+    <t>SINDU/6382/844.66</t>
+  </si>
+  <si>
+    <t>BPCL/24724/702.00</t>
+  </si>
+  <si>
+    <t>UMHL/26140/520.29</t>
+  </si>
+  <si>
+    <t>CORBL/3913/2,542.93</t>
+  </si>
+  <si>
+    <t>NGPL/26382/392.01</t>
+  </si>
+  <si>
+    <t>HRL/8464/973.13</t>
+  </si>
+  <si>
+    <t>CGH/51941/927.87</t>
+  </si>
+  <si>
+    <t>HRL/36173/941.31</t>
+  </si>
+  <si>
+    <t>HIDCLP/137778/211.41</t>
+  </si>
+  <si>
+    <t>CHCL/43140/577.14</t>
+  </si>
+  <si>
+    <t>SAHAS/44876/537.46</t>
+  </si>
+  <si>
+    <t>RADHI/119060/817.97</t>
+  </si>
+  <si>
+    <t>CHDC/30520/2,697.51</t>
+  </si>
+  <si>
+    <t>CREST/16644/1,815.47</t>
+  </si>
+  <si>
+    <t>NMIC/15864/1,842.98</t>
+  </si>
+  <si>
+    <t>SHL/52860/567.26</t>
+  </si>
+  <si>
+    <t>NGPL/419689/400.85</t>
+  </si>
+  <si>
+    <t>HIDCLP/575031/216.05</t>
+  </si>
+  <si>
+    <t>HIDCL/211702/312.52</t>
+  </si>
+  <si>
+    <t>MEN/85008/616.51</t>
+  </si>
+  <si>
+    <t>SPDL/77517/413.80</t>
+  </si>
+  <si>
+    <t>RADHI/16065/801.46</t>
+  </si>
+  <si>
+    <t>NLICL/19339/611.26</t>
+  </si>
+  <si>
+    <t>NLIC/12855/752.94</t>
+  </si>
+  <si>
+    <t>NRN/4527/2,040.05</t>
+  </si>
+  <si>
+    <t>BPCL/111187/646.16</t>
+  </si>
+  <si>
+    <t>CHDC/9482/2,661.98</t>
+  </si>
+  <si>
+    <t>LBBL/31857/464.86</t>
+  </si>
+  <si>
+    <t>NADEP/15386/850.57</t>
+  </si>
+  <si>
+    <t>OMPL/6035/1,765.64</t>
+  </si>
+  <si>
+    <t>CHDC/7716/2,572.49</t>
+  </si>
+  <si>
+    <t>SHPC/28022/616.29</t>
+  </si>
+  <si>
+    <t>SHIVM/29759/523.07</t>
+  </si>
+  <si>
+    <t>RADHI/18805/798.24</t>
+  </si>
+  <si>
+    <t>EBL/20076/657.36</t>
+  </si>
+  <si>
+    <t>SHIVM/57353/521.59</t>
+  </si>
+  <si>
+    <t>SHPC/42026/608.15</t>
+  </si>
+  <si>
+    <t>SMHL/18266/1,059.98</t>
+  </si>
+  <si>
+    <t>HIDCLP/79337/218.12</t>
+  </si>
+  <si>
+    <t>HIDCL/39566/306.84</t>
+  </si>
+  <si>
+    <t>UPCL/85415/455.50</t>
+  </si>
+  <si>
+    <t>SHIVM/55086/525.82</t>
+  </si>
+  <si>
+    <t>KPCL/40380/553.91</t>
+  </si>
+  <si>
+    <t>GHL/76179/259.87</t>
+  </si>
+  <si>
+    <t>UNHPL/35020/389.48</t>
+  </si>
+  <si>
+    <t>KBL/195292/215.04</t>
+  </si>
+  <si>
+    <t>SHPC/33009/620.51</t>
+  </si>
+  <si>
+    <t>HIDCL/65469/307.80</t>
+  </si>
+  <si>
+    <t>NGPL/40583/399.79</t>
+  </si>
+  <si>
+    <t>NRN/8996/2,048.96</t>
+  </si>
+  <si>
+    <t>RADHI/125376/801.41</t>
+  </si>
+  <si>
+    <t>LBBL/55387/456.45</t>
+  </si>
+  <si>
+    <t>NGPL/58586/391.77</t>
+  </si>
+  <si>
+    <t>SHIVM/31230/523.52</t>
+  </si>
+  <si>
+    <t>NLIC/20531/757.19</t>
+  </si>
+  <si>
+    <t>SAHAS/104199/535.34</t>
+  </si>
+  <si>
+    <t>NIFRA/122748/286.06</t>
+  </si>
+  <si>
+    <t>MNBBL/81503/361.26</t>
+  </si>
+  <si>
+    <t>CORBL/9666/2,422.47</t>
+  </si>
+  <si>
+    <t>UNHPL/53220/398.10</t>
+  </si>
+  <si>
+    <t>BPCL/108792/690.85</t>
+  </si>
+  <si>
+    <t>GRDBL/19732/1,267.53</t>
+  </si>
+  <si>
+    <t>CHDC/7028/2,575.41</t>
+  </si>
+  <si>
+    <t>AHPC/59914/296.52</t>
+  </si>
+  <si>
+    <t>SHIVM/23841/524.08</t>
+  </si>
+  <si>
+    <t>CHDC/30877/2,588.51</t>
+  </si>
+  <si>
+    <t>CGH/53880/984.79</t>
+  </si>
+  <si>
+    <t>NRIC/41051/1,280.32</t>
+  </si>
+  <si>
+    <t>SHL/76769/579.60</t>
+  </si>
+  <si>
+    <t>BARUN/81978/385.61</t>
+  </si>
+  <si>
+    <t>SBL/593960/297.39</t>
+  </si>
+  <si>
+    <t>UPCL/185701/456.05</t>
+  </si>
+  <si>
+    <t>CHCL/130371/569.21</t>
+  </si>
+  <si>
+    <t>EBL/94050/652.67</t>
+  </si>
+  <si>
+    <t>CBBL/40152/905.27</t>
+  </si>
+  <si>
+    <t>SHPC/252687/616.01</t>
+  </si>
+  <si>
+    <t>RADHI/93130/798.51</t>
+  </si>
+  <si>
+    <t>HRL/71880/960.76</t>
+  </si>
+  <si>
+    <t>SHIVM/87487/523.55</t>
+  </si>
+  <si>
+    <t>API/136033/301.74</t>
+  </si>
+  <si>
+    <t>GBIME/271020/240.05</t>
+  </si>
+  <si>
+    <t>UPCL/144728/446.06</t>
+  </si>
+  <si>
+    <t>SBL/108577/299.05</t>
+  </si>
+  <si>
+    <t>HURJA/102602/263.20</t>
+  </si>
+  <si>
+    <t>CGH/29350/921.57</t>
+  </si>
+  <si>
+    <t>SBI/169393/411.44</t>
+  </si>
+  <si>
+    <t>SPDL/61525/417.69</t>
+  </si>
+  <si>
+    <t>SHPC/34106/618.45</t>
+  </si>
+  <si>
+    <t>BARUN/35215/395.25</t>
+  </si>
+  <si>
+    <t>KBL/57854/214.35</t>
+  </si>
+  <si>
+    <t>MEN/9844/596.47</t>
+  </si>
+  <si>
+    <t>NRN/2150/2,068.32</t>
+  </si>
+  <si>
+    <t>BHPL/3885/951.93</t>
+  </si>
+  <si>
+    <t>MNBBL/8654/364.87</t>
+  </si>
+  <si>
+    <t>MBJC/10060/310.87</t>
+  </si>
+  <si>
+    <t>BPCL/252160/621.21</t>
+  </si>
+  <si>
+    <t>SHIVM/82572/523.21</t>
+  </si>
+  <si>
+    <t>HPPL/69893/520.21</t>
+  </si>
+  <si>
+    <t>SHL/48774/574.47</t>
+  </si>
+  <si>
+    <t>MBJC/80916/331.39</t>
+  </si>
+  <si>
+    <t>RADHI/275243/814.39</t>
+  </si>
+  <si>
+    <t>NRN/33142/2,055.75</t>
+  </si>
+  <si>
+    <t>HPPL/100152/551.02</t>
+  </si>
+  <si>
+    <t>UPCL/136084/439.98</t>
+  </si>
+  <si>
+    <t>AKPL/61901/278.91</t>
+  </si>
+  <si>
+    <t>BPCL/76358/622.40</t>
+  </si>
+  <si>
+    <t>SANIMA/46798/318.19</t>
+  </si>
+  <si>
+    <t>EBL/20102/645.64</t>
+  </si>
+  <si>
+    <t>SHIVM/24218/522.24</t>
+  </si>
+  <si>
+    <t>RURU/11077/699.54</t>
+  </si>
+  <si>
+    <t>SAPDBL/140605/1,031.77</t>
+  </si>
+  <si>
+    <t>RADHI/62622/807.75</t>
+  </si>
+  <si>
+    <t>NMIC/18357/1,861.05</t>
+  </si>
+  <si>
+    <t>SHIVM/45328/523.04</t>
+  </si>
+  <si>
+    <t>BARUN/34740/387.37</t>
+  </si>
+  <si>
+    <t>GBIME/1038391/240.31</t>
+  </si>
+  <si>
+    <t>NRN/40244/2,022.50</t>
+  </si>
+  <si>
+    <t>MERO/94300/745.37</t>
+  </si>
+  <si>
+    <t>SHIVM/116733/522.20</t>
+  </si>
+  <si>
+    <t>BARUN/107680/390.87</t>
+  </si>
+  <si>
+    <t>SPDL/79440/424.46</t>
+  </si>
+  <si>
+    <t>SPIL/24618/825.28</t>
+  </si>
+  <si>
+    <t>USLB/8389/1,979.59</t>
+  </si>
+  <si>
+    <t>MEN/24467/603.51</t>
+  </si>
+  <si>
+    <t>SHL/22773/571.84</t>
+  </si>
+  <si>
+    <t>CHCL/198483/568.71</t>
+  </si>
+  <si>
+    <t>NIFRA/238477/284.68</t>
+  </si>
+  <si>
+    <t>EBL/103389/652.08</t>
+  </si>
+  <si>
+    <t>UPCL/110590/451.34</t>
+  </si>
+  <si>
+    <t>SANIMA/128386/320.98</t>
+  </si>
+  <si>
+    <t>MEN/171507/601.16</t>
+  </si>
+  <si>
+    <t>GBIME/255156/226.30</t>
+  </si>
+  <si>
+    <t>SHL/88816/572.71</t>
+  </si>
+  <si>
+    <t>CZBIL/192061/216.11</t>
+  </si>
+  <si>
+    <t>SHPC/83154/601.97</t>
+  </si>
+  <si>
+    <t>HRL/19693/939.21</t>
+  </si>
+  <si>
+    <t>SHPC/24665/615.06</t>
+  </si>
+  <si>
+    <t>AHPC/38298/303.78</t>
+  </si>
+  <si>
+    <t>SARBTM/13612/840.42</t>
+  </si>
+  <si>
+    <t>CREST/4676/1,775.23</t>
+  </si>
+  <si>
+    <t>AKPL/150608/274.91</t>
+  </si>
+  <si>
+    <t>NGPL/90592/397.60</t>
+  </si>
+  <si>
+    <t>NRN/6825/2,037.60</t>
+  </si>
+  <si>
+    <t>CREST/7901/1,728.25</t>
+  </si>
+  <si>
+    <t>CHDC/4491/2,631.51</t>
+  </si>
+  <si>
+    <t>GHL/370313/264.13</t>
+  </si>
+  <si>
+    <t>SHIVM/88010/522.74</t>
+  </si>
+  <si>
+    <t>MEN/70258/626.26</t>
+  </si>
+  <si>
+    <t>HPPL/67387/559.44</t>
+  </si>
+  <si>
+    <t>NGPL/101956/392.88</t>
+  </si>
+  <si>
+    <t>SHEL/191907/283.85</t>
+  </si>
+  <si>
+    <t>RADHI/42924/792.39</t>
+  </si>
+  <si>
+    <t>NGPL/81132/395.18</t>
+  </si>
+  <si>
+    <t>SHIVM/62955/523.38</t>
+  </si>
+  <si>
+    <t>API/106144/301.56</t>
+  </si>
+  <si>
+    <t>RADHI/436410/795.52</t>
+  </si>
+  <si>
+    <t>SHEL/124861/293.46</t>
+  </si>
+  <si>
+    <t>NGPL/104877/388.24</t>
+  </si>
+  <si>
+    <t>SHL/49129/577.39</t>
+  </si>
+  <si>
+    <t>AHPC/63297/297.72</t>
+  </si>
+  <si>
+    <t>CHDC/8571/2,608.31</t>
+  </si>
+  <si>
+    <t>AHPC/61953/299.33</t>
+  </si>
+  <si>
+    <t>BARUN/45823/391.67</t>
+  </si>
+  <si>
+    <t>RADHI/21693/799.03</t>
+  </si>
+  <si>
+    <t>AKPL/47813/265.43</t>
+  </si>
+  <si>
+    <t>HIDCLP/127549/215.96</t>
+  </si>
+  <si>
+    <t>CHDC/8488/2,602.53</t>
+  </si>
+  <si>
+    <t>SHPC/32022/606.18</t>
+  </si>
+  <si>
+    <t>SHIVM/24974/522.06</t>
+  </si>
+  <si>
+    <t>NRN/6392/2,028.22</t>
+  </si>
+  <si>
+    <t>SHEL/34395/283.75</t>
+  </si>
+  <si>
+    <t>MLBL/24882/393.53</t>
+  </si>
+  <si>
+    <t>HURJA/30837/262.63</t>
+  </si>
+  <si>
+    <t>MEN/13009/611.40</t>
+  </si>
+  <si>
+    <t>UPCL/205562/466.34</t>
+  </si>
+  <si>
+    <t>STC/14321/5,002.89</t>
+  </si>
+  <si>
+    <t>CHCL/38572/562.68</t>
+  </si>
+  <si>
+    <t>CYCL/7011/1,669.84</t>
+  </si>
+  <si>
+    <t>SADBL/24191/425.13</t>
+  </si>
+  <si>
+    <t>GMLI/139921/2,574.55</t>
+  </si>
+  <si>
+    <t>NRIC/261858/1,295.52</t>
+  </si>
+  <si>
+    <t>NMIC/95107/1,826.45</t>
+  </si>
+  <si>
+    <t>NLG/116518/828.81</t>
+  </si>
+  <si>
+    <t>HRL/34217/947.28</t>
+  </si>
+  <si>
+    <t>NGPL/210587/401.75</t>
+  </si>
+  <si>
+    <t>BPCL/108758/699.37</t>
+  </si>
+  <si>
+    <t>UPCL/153976/458.52</t>
+  </si>
+  <si>
+    <t>HIDCLP/166359/218.89</t>
+  </si>
+  <si>
+    <t>SMHL/36815/1,000.35</t>
+  </si>
+  <si>
+    <t>CHCL/74172/565.34</t>
+  </si>
+  <si>
+    <t>MEN/53613/606.78</t>
+  </si>
+  <si>
+    <t>UPCL/61470/452.15</t>
+  </si>
+  <si>
+    <t>NTC/28725/854.27</t>
+  </si>
+  <si>
+    <t>AHPC/78290/297.79</t>
+  </si>
+  <si>
+    <t>KBL/1211097/214.18</t>
+  </si>
+  <si>
+    <t>NRN/93316/2,032.23</t>
+  </si>
+  <si>
+    <t>HPPL/309614/535.25</t>
+  </si>
+  <si>
+    <t>HIDCLP/752979/218.77</t>
+  </si>
+  <si>
+    <t>LSL/461366/220.53</t>
+  </si>
+  <si>
+    <t>API/169244/302.19</t>
+  </si>
+  <si>
+    <t>SHIVM/48234/522.99</t>
+  </si>
+  <si>
+    <t>AHPC/57092/301.40</t>
+  </si>
+  <si>
+    <t>ALICL/23360/681.11</t>
+  </si>
+  <si>
+    <t>HIDCLP/65146/213.78</t>
+  </si>
+  <si>
+    <t>RADHI/126847/802.14</t>
+  </si>
+  <si>
+    <t>SHPC/123701/629.38</t>
+  </si>
+  <si>
+    <t>SHL/105682/577.34</t>
+  </si>
+  <si>
+    <t>HPPL/85782/528.62</t>
+  </si>
+  <si>
+    <t>BPCL/48140/687.40</t>
+  </si>
+  <si>
+    <t>RADHI/49172/814.95</t>
+  </si>
+  <si>
+    <t>NGPL/58310/400.53</t>
+  </si>
+  <si>
+    <t>HIDCL/54149/308.72</t>
+  </si>
+  <si>
+    <t>HIDCLP/51753/218.27</t>
+  </si>
+  <si>
+    <t>UMHL/278829/515.17</t>
+  </si>
+  <si>
+    <t>UNHPL/259192/383.17</t>
+  </si>
+  <si>
+    <t>RADHI/68541/799.30</t>
+  </si>
+  <si>
+    <t>SPDL/100762/417.88</t>
+  </si>
+  <si>
+    <t>ANLB/4513/5,394.85</t>
+  </si>
+  <si>
+    <t>RADHI/48086/798.33</t>
+  </si>
+  <si>
+    <t>OMPL/11938/1,718.00</t>
+  </si>
+  <si>
+    <t>PPCL/40957/335.26</t>
+  </si>
+  <si>
+    <t>CHCL/20597/554.06</t>
+  </si>
+  <si>
+    <t>KBL/42191/212.13</t>
+  </si>
+  <si>
+    <t>BPCL/394960/641.39</t>
+  </si>
+  <si>
+    <t>NRN/19401/2,063.92</t>
+  </si>
+  <si>
+    <t>SHL/53841/581.25</t>
+  </si>
+  <si>
+    <t>UNHPL/77062/399.14</t>
+  </si>
+  <si>
+    <t>CHDC/8801/2,564.03</t>
+  </si>
+  <si>
+    <t>SARBTM/54580/841.33</t>
+  </si>
+  <si>
+    <t>RFPL/72961/623.28</t>
+  </si>
+  <si>
+    <t>NIFRA/125622/282.74</t>
+  </si>
+  <si>
+    <t>SANIMA/106987/318.67</t>
+  </si>
+  <si>
+    <t>SHPC/54334/607.97</t>
+  </si>
+  <si>
+    <t>HIDCL/96377/304.77</t>
+  </si>
+  <si>
+    <t>CHDC/7582/2,589.41</t>
+  </si>
+  <si>
+    <t>BPCL/29594/650.73</t>
+  </si>
+  <si>
+    <t>NRN/7032/2,026.69</t>
+  </si>
+  <si>
+    <t>NGPL/34911/383.38</t>
+  </si>
+  <si>
+    <t>RADHI/152046/785.65</t>
+  </si>
+  <si>
+    <t>HIDCL/168201/303.93</t>
+  </si>
+  <si>
+    <t>MEN/45354/621.45</t>
+  </si>
+  <si>
+    <t>UMHL/49617/511.37</t>
+  </si>
+  <si>
+    <t>NGPL/48829/395.75</t>
+  </si>
+  <si>
+    <t>HIDCLP/216641/211.44</t>
+  </si>
+  <si>
+    <t>NGPL/80704/386.86</t>
+  </si>
+  <si>
+    <t>BPCL/28930/596.19</t>
+  </si>
+  <si>
+    <t>AHPC/53523/299.27</t>
+  </si>
+  <si>
+    <t>RIDI/58755/263.48</t>
+  </si>
+  <si>
+    <t>BPCL/92814/700.05</t>
+  </si>
+  <si>
+    <t>SHL/87203/576.55</t>
+  </si>
+  <si>
+    <t>SPDL/53053/427.77</t>
+  </si>
+  <si>
+    <t>SHEL/47740/288.79</t>
+  </si>
+  <si>
+    <t>NRN/5772/2,029.68</t>
+  </si>
+  <si>
+    <t>UNHPL/76391/390.07</t>
+  </si>
+  <si>
+    <t>BPCL/55265/624.21</t>
+  </si>
+  <si>
+    <t>PRVU/79090/217.43</t>
+  </si>
+  <si>
+    <t>RADHI/19828/793.67</t>
+  </si>
+  <si>
+    <t>UPCL/29417/451.12</t>
+  </si>
+  <si>
+    <t>CHDC/8791/2,603.94</t>
+  </si>
+  <si>
+    <t>HIDCL/64871/311.05</t>
+  </si>
+  <si>
+    <t>SHPC/22754/642.47</t>
+  </si>
+  <si>
+    <t>UPCL/34881/446.62</t>
+  </si>
+  <si>
+    <t>CORBL/4656/2,343.91</t>
+  </si>
+  <si>
+    <t>CORBL/38542/2,378.38</t>
+  </si>
+  <si>
+    <t>SAPDBL/32219/992.64</t>
+  </si>
+  <si>
+    <t>NRN/7066/2,038.86</t>
+  </si>
+  <si>
+    <t>KBL/60299/208.32</t>
+  </si>
+  <si>
+    <t>LBBL/27251/447.53</t>
+  </si>
+  <si>
+    <t>RADHI/77870/826.60</t>
+  </si>
+  <si>
+    <t>SAPDBL/29337/1,036.06</t>
+  </si>
+  <si>
+    <t>SMHL/8722/1,009.86</t>
+  </si>
+  <si>
+    <t>CGH/32559/995.08</t>
+  </si>
+  <si>
+    <t>HIDCLP/122420/222.31</t>
+  </si>
+  <si>
+    <t>BPCL/37613/675.24</t>
+  </si>
+  <si>
+    <t>SHPC/26842/632.16</t>
+  </si>
+  <si>
+    <t>GBIME/36153/234.56</t>
+  </si>
+  <si>
+    <t>BPCL/81506/733.54</t>
+  </si>
+  <si>
+    <t>SHIVM/21722/519.98</t>
+  </si>
+  <si>
+    <t>UMRH/6524/623.95</t>
+  </si>
+  <si>
+    <t>HIDCL/9386/314.43</t>
+  </si>
+  <si>
+    <t>MEN/4684/581.67</t>
+  </si>
+  <si>
+    <t>BPCL/279333/614.23</t>
+  </si>
+  <si>
+    <t>NGPL/145469/402.86</t>
+  </si>
+  <si>
+    <t>AHPC/118928/306.46</t>
+  </si>
+  <si>
+    <t>MEN/38568/615.00</t>
+  </si>
+  <si>
+    <t>LBBL/48172/469.45</t>
+  </si>
+  <si>
+    <t>CHDC/2956/2,643.70</t>
+  </si>
+  <si>
+    <t>HIDCLP/20213/219.38</t>
+  </si>
+  <si>
+    <t>NGPL/9699/396.24</t>
+  </si>
+  <si>
+    <t>SINDU/3020/855.60</t>
+  </si>
+  <si>
+    <t>SHIVM/1600/520.50</t>
+  </si>
+  <si>
+    <t>NIFRA/95287/287.08</t>
+  </si>
+  <si>
+    <t>NMLBBL/39463/658.87</t>
+  </si>
+  <si>
+    <t>CHCL/26361/551.37</t>
+  </si>
+  <si>
+    <t>USLB/6883/1,849.41</t>
+  </si>
+  <si>
+    <t>MEN/22305/590.68</t>
+  </si>
+  <si>
+    <t>CHCL/126508/562.89</t>
+  </si>
+  <si>
+    <t>NGPL/151977/395.77</t>
+  </si>
+  <si>
+    <t>HRL/44228/966.10</t>
+  </si>
+  <si>
+    <t>SHPC/60307/606.42</t>
+  </si>
+  <si>
+    <t>CHDC/10296/2,614.60</t>
+  </si>
+  <si>
+    <t>SHPC/52883/601.62</t>
+  </si>
+  <si>
+    <t>NRN/13502/2,043.78</t>
+  </si>
+  <si>
+    <t>NICA/25422/372.12</t>
+  </si>
+  <si>
+    <t>HRL/10698/951.94</t>
+  </si>
+  <si>
+    <t>NLIC/12878/755.85</t>
+  </si>
+  <si>
+    <t>HRL/28887/942.77</t>
+  </si>
+  <si>
+    <t>NGPL/53985/401.22</t>
+  </si>
+  <si>
+    <t>SHPC/30230/626.19</t>
+  </si>
+  <si>
+    <t>HIDCL/97416/308.24</t>
+  </si>
+  <si>
+    <t>UPCL/60805/451.77</t>
+  </si>
+  <si>
+    <t>BPCL/36467/703.94</t>
+  </si>
+  <si>
+    <t>SADBL/67875/421.04</t>
+  </si>
+  <si>
+    <t>NGPL/56710/400.50</t>
+  </si>
+  <si>
+    <t>NGPL/234021/385.35</t>
+  </si>
+  <si>
+    <t>SHL/66561/583.61</t>
+  </si>
+  <si>
+    <t>AHPC/75054/298.31</t>
+  </si>
+  <si>
+    <t>API/68186/302.76</t>
+  </si>
+  <si>
+    <t>SPDL/27097/412.50</t>
+  </si>
+  <si>
+    <t>RADHI/30445/801.14</t>
+  </si>
+  <si>
+    <t>SHPC/25971/618.94</t>
+  </si>
+  <si>
+    <t>AKPL/28465/272.85</t>
+  </si>
+  <si>
+    <t>NRN/3764/2,023.67</t>
+  </si>
+  <si>
+    <t>API/24420/299.70</t>
+  </si>
+  <si>
+    <t>BPCL/48449/741.54</t>
+  </si>
+  <si>
+    <t>RADHI/47373/803.90</t>
+  </si>
+  <si>
+    <t>CGH/6405/968.10</t>
+  </si>
+  <si>
+    <t>AKPL/19752/281.20</t>
+  </si>
+  <si>
+    <t>NGPL/17061/389.01</t>
+  </si>
+  <si>
+    <t>SAPDBL/60246/1,049.78</t>
+  </si>
+  <si>
+    <t>CHCL/56976/568.74</t>
+  </si>
+  <si>
+    <t>CORBL/4693/2,617.66</t>
+  </si>
+  <si>
+    <t>NHPC/48131/223.39</t>
+  </si>
+  <si>
+    <t>GBIME/111393/238.71</t>
+  </si>
+  <si>
+    <t>BPCL/15296/689.78</t>
+  </si>
+  <si>
+    <t>CGH/7956/965.88</t>
+  </si>
+  <si>
+    <t>UNHPL/13561/412.68</t>
+  </si>
+  <si>
+    <t>MEN/8613/616.04</t>
+  </si>
+  <si>
+    <t>HBL/113377/229.39</t>
+  </si>
+  <si>
+    <t>API/58129/311.32</t>
+  </si>
+  <si>
+    <t>LEC/20741/224.25</t>
+  </si>
+  <si>
+    <t>NGPL/62977/393.14</t>
+  </si>
+  <si>
+    <t>RADHI/28104/795.91</t>
+  </si>
+  <si>
+    <t>BPCL/29965/656.03</t>
+  </si>
+  <si>
+    <t>SARBTM/17294/842.98</t>
+  </si>
+  <si>
+    <t>CHDC/5241/2,614.09</t>
+  </si>
+  <si>
+    <t>HIDCL/103329/304.19</t>
+  </si>
+  <si>
+    <t>UPCL/35717/450.94</t>
+  </si>
+  <si>
+    <t>BPCL/12087/673.28</t>
+  </si>
+  <si>
+    <t>NGPL/18738/391.19</t>
+  </si>
+  <si>
+    <t>HRL/7529/956.96</t>
+  </si>
+  <si>
+    <t>MBJC/21250/335.67</t>
+  </si>
+  <si>
+    <t>CHCL/3227/545.51</t>
+  </si>
+  <si>
+    <t>RADHI/128662/792.47</t>
+  </si>
+  <si>
+    <t>SHL/41223/570.38</t>
+  </si>
+  <si>
+    <t>MKHL/29191/745.23</t>
+  </si>
+  <si>
+    <t>PRIN/17725/844.95</t>
+  </si>
+  <si>
+    <t>SHIVM/19328/519.38</t>
+  </si>
+  <si>
+    <t>NGPL/67372/398.02</t>
+  </si>
+  <si>
+    <t>UPCL/45075/454.84</t>
+  </si>
+  <si>
+    <t>RADHI/18844/819.35</t>
+  </si>
+  <si>
+    <t>SHPC/23719/597.44</t>
+  </si>
+  <si>
+    <t>NRN/5063/2,058.99</t>
+  </si>
+  <si>
+    <t>NRN/35354/2,043.52</t>
+  </si>
+  <si>
+    <t>NICA/104431/365.65</t>
+  </si>
+  <si>
+    <t>BPCL/45007/684.97</t>
+  </si>
+  <si>
+    <t>SHPC/49061/619.47</t>
+  </si>
+  <si>
+    <t>RADHI/35532/824.05</t>
+  </si>
+  <si>
+    <t>NRN/4551/2,028.54</t>
+  </si>
+  <si>
+    <t>MEN/11700/633.74</t>
+  </si>
+  <si>
+    <t>UPCL/16179/451.50</t>
+  </si>
+  <si>
+    <t>SPDL/14296/401.84</t>
+  </si>
+  <si>
+    <t>BPCL/64464/746.92</t>
+  </si>
+  <si>
+    <t>OMPL/8870/1,823.74</t>
+  </si>
+  <si>
+    <t>AKPL/52329/283.73</t>
+  </si>
+  <si>
+    <t>SHIVM/11710/524.31</t>
+  </si>
+  <si>
+    <t>RIDI/20290/288.71</t>
+  </si>
+  <si>
+    <t>SHEL/51665/296.52</t>
+  </si>
+  <si>
+    <t>BPCL/15186/652.43</t>
+  </si>
+  <si>
+    <t>CGH/7486/992.83</t>
+  </si>
+  <si>
+    <t>HIDCLP/30115/210.30</t>
+  </si>
+  <si>
+    <t>CHDC/2090/2,619.22</t>
+  </si>
+  <si>
+    <t>MLBL/153277/389.17</t>
+  </si>
+  <si>
+    <t>PHCL/44005/581.11</t>
+  </si>
+  <si>
+    <t>BPCL/29353/737.25</t>
+  </si>
+  <si>
+    <t>LBBL/44169/448.48</t>
+  </si>
+  <si>
+    <t>HIDCLP/56750/217.48</t>
+  </si>
+  <si>
+    <t>CHDC/4087/2,645.00</t>
+  </si>
+  <si>
+    <t>AKPL/36877/276.61</t>
+  </si>
+  <si>
+    <t>AHPC/27574/307.21</t>
+  </si>
+  <si>
+    <t>RADHI/9917/817.89</t>
   </si>
 </sst>
 </file>
@@ -18858,18 +20161,1901 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48462DF2-2B8F-4894-A625-67421D5E4309}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB37F3A-BDA4-4F72-9AC9-F35513770699}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6166</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6168</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6169</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6171</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6172</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6173</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6174</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6177</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6178</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6179</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6181</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6182</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6183</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6184</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6186</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6187</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6188</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6189</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6191</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6192</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6193</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6194</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6196</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6197</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6198</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6199</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6201</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6202</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6203</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5762</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6205</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6206</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6207</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6208</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6210</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6211</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6212</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6213</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6215</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6216</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6217</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6218</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6220</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6221</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6222</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6223</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6225</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6226</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6227</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6228</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5790</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6230</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6231</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6232</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6234</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6235</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6236</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6237</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6239</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6240</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6241</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6242</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6244</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6245</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6246</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6247</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6249</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6250</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6251</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6252</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6254</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6255</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6256</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6257</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6259</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6260</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6261</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6262</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6264</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6265</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6266</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6267</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6269</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6270</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6271</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6272</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6274</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6275</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6276</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6277</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6279</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6280</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6281</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6282</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6284</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6285</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6286</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6287</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6289</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6290</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6291</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6292</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6294</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6295</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6296</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6297</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6299</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6300</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6301</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6302</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6304</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6305</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6306</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6307</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6309</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6310</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6311</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6312</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6314</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6315</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6316</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6317</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6319</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6320</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6321</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6322</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6324</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6325</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6326</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6327</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6329</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6330</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6331</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6332</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6334</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6335</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6336</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6337</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6339</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6340</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6341</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6342</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6344</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6345</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6346</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6347</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6348</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6349</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6350</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6351</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6352</v>
+      </c>
+      <c r="F39" t="s">
+        <v>6353</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6354</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6355</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6356</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6357</v>
+      </c>
+      <c r="F40" t="s">
+        <v>6358</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6359</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6360</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6361</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6362</v>
+      </c>
+      <c r="F41" t="s">
+        <v>6363</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6364</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6365</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6366</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6367</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6369</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6370</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6371</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6372</v>
+      </c>
+      <c r="F43" t="s">
+        <v>6373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6374</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6375</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6376</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6377</v>
+      </c>
+      <c r="F44" t="s">
+        <v>6378</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6379</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6380</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4231</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6381</v>
+      </c>
+      <c r="F45" t="s">
+        <v>6382</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6383</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6384</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6385</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6386</v>
+      </c>
+      <c r="F46" t="s">
+        <v>6387</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6388</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6389</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6390</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6391</v>
+      </c>
+      <c r="F47" t="s">
+        <v>6392</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6393</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6394</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6395</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6396</v>
+      </c>
+      <c r="F48" t="s">
+        <v>6397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6398</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6399</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6400</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6401</v>
+      </c>
+      <c r="F49" t="s">
+        <v>6402</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6403</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6404</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6405</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6406</v>
+      </c>
+      <c r="F50" t="s">
+        <v>6407</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6408</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6409</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6410</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6411</v>
+      </c>
+      <c r="F51" t="s">
+        <v>6412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6413</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6414</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6415</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6416</v>
+      </c>
+      <c r="F52" t="s">
+        <v>6417</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6418</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6419</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5980</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6420</v>
+      </c>
+      <c r="F53" t="s">
+        <v>6421</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>312</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6422</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6423</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6424</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6425</v>
+      </c>
+      <c r="F54" t="s">
+        <v>6426</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>318</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6427</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6428</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6429</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6430</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6431</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6432</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6433</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6434</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6435</v>
+      </c>
+      <c r="F56" t="s">
+        <v>6436</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>330</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6437</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6438</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6439</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6440</v>
+      </c>
+      <c r="F57" t="s">
+        <v>6441</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>336</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6442</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6443</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6444</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6445</v>
+      </c>
+      <c r="F58" t="s">
+        <v>6446</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6447</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6448</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6449</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6450</v>
+      </c>
+      <c r="F59" t="s">
+        <v>6451</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6452</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6453</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6454</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6455</v>
+      </c>
+      <c r="F60" t="s">
+        <v>6456</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6457</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6458</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6459</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6460</v>
+      </c>
+      <c r="F61" t="s">
+        <v>6461</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>360</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6462</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6463</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6464</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6465</v>
+      </c>
+      <c r="F62" t="s">
+        <v>6466</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6467</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6468</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6469</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6470</v>
+      </c>
+      <c r="F63" t="s">
+        <v>6471</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>372</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6472</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6473</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6474</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6475</v>
+      </c>
+      <c r="F64" t="s">
+        <v>6476</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>378</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3448</v>
+      </c>
+      <c r="D65" t="s">
+        <v>381</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4755</v>
+      </c>
+      <c r="F65" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>384</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6477</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6478</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6038</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6040</v>
+      </c>
+      <c r="F66" t="s">
+        <v>6479</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>390</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6480</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6481</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6482</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6483</v>
+      </c>
+      <c r="F67" t="s">
+        <v>6484</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>396</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6485</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6486</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6487</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6488</v>
+      </c>
+      <c r="F68" t="s">
+        <v>6489</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>402</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6490</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6491</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6492</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6493</v>
+      </c>
+      <c r="F69" t="s">
+        <v>6494</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>408</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6495</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6057</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6496</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6497</v>
+      </c>
+      <c r="F70" t="s">
+        <v>6498</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>414</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5623</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5191</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6061</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6499</v>
+      </c>
+      <c r="F71" t="s">
+        <v>6062</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>420</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6500</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6501</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6502</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6503</v>
+      </c>
+      <c r="F72" t="s">
+        <v>6504</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>426</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6505</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6506</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6507</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6508</v>
+      </c>
+      <c r="F73" t="s">
+        <v>6509</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>432</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6510</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6511</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6512</v>
+      </c>
+      <c r="E74" t="s">
+        <v>6513</v>
+      </c>
+      <c r="F74" t="s">
+        <v>6514</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>438</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6515</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6516</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6517</v>
+      </c>
+      <c r="E75" t="s">
+        <v>6081</v>
+      </c>
+      <c r="F75" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>444</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6518</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6519</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6520</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6521</v>
+      </c>
+      <c r="F76" t="s">
+        <v>6522</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>450</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6523</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6524</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6525</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6526</v>
+      </c>
+      <c r="F77" t="s">
+        <v>6527</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>456</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6528</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6529</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6530</v>
+      </c>
+      <c r="E78" t="s">
+        <v>6531</v>
+      </c>
+      <c r="F78" t="s">
+        <v>6532</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>462</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6533</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6534</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6535</v>
+      </c>
+      <c r="E79" t="s">
+        <v>6536</v>
+      </c>
+      <c r="F79" t="s">
+        <v>6537</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6538</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6539</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6104</v>
+      </c>
+      <c r="E80" t="s">
+        <v>6540</v>
+      </c>
+      <c r="F80" t="s">
+        <v>6541</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>474</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6542</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6543</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6544</v>
+      </c>
+      <c r="E81" t="s">
+        <v>6545</v>
+      </c>
+      <c r="F81" t="s">
+        <v>6546</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>480</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6547</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6548</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6113</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6549</v>
+      </c>
+      <c r="F82" t="s">
+        <v>6114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>486</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6550</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6551</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6552</v>
+      </c>
+      <c r="E83" t="s">
+        <v>6553</v>
+      </c>
+      <c r="F83" t="s">
+        <v>6554</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>492</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6555</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6556</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6557</v>
+      </c>
+      <c r="E84" t="s">
+        <v>6558</v>
+      </c>
+      <c r="F84" t="s">
+        <v>6559</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>498</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6560</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6124</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4414</v>
+      </c>
+      <c r="E85" t="s">
+        <v>5688</v>
+      </c>
+      <c r="F85" t="s">
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>504</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6562</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6563</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6564</v>
+      </c>
+      <c r="E86" t="s">
+        <v>6565</v>
+      </c>
+      <c r="F86" t="s">
+        <v>6566</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>510</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6567</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6568</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6569</v>
+      </c>
+      <c r="E87" t="s">
+        <v>6570</v>
+      </c>
+      <c r="F87" t="s">
+        <v>6571</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>516</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6572</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6573</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6574</v>
+      </c>
+      <c r="E88" t="s">
+        <v>6575</v>
+      </c>
+      <c r="F88" t="s">
+        <v>6576</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>522</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6142</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6577</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6578</v>
+      </c>
+      <c r="E89" t="s">
+        <v>6579</v>
+      </c>
+      <c r="F89" t="s">
+        <v>6580</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>528</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6581</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6582</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6583</v>
+      </c>
+      <c r="E90" t="s">
+        <v>6584</v>
+      </c>
+      <c r="F90" t="s">
+        <v>6585</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>534</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6586</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6587</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6588</v>
+      </c>
+      <c r="E91" t="s">
+        <v>6589</v>
+      </c>
+      <c r="F91" t="s">
+        <v>6590</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>540</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6591</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6592</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6158</v>
+      </c>
+      <c r="E92" t="s">
+        <v>6593</v>
+      </c>
+      <c r="F92" t="s">
+        <v>6594</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>546</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6595</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6596</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6597</v>
+      </c>
+      <c r="E93" t="s">
+        <v>6598</v>
+      </c>
+      <c r="F93" t="s">
+        <v>6599</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676205A0-C5FF-4AEC-B10B-18D60F60A28C}">
+  <dimension ref="A1:F93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18898,19 +22084,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5725</v>
+        <v>2334</v>
       </c>
       <c r="C2" t="s">
-        <v>5726</v>
+        <v>2335</v>
       </c>
       <c r="D2" t="s">
-        <v>5727</v>
+        <v>2336</v>
       </c>
       <c r="E2" t="s">
-        <v>5728</v>
+        <v>2337</v>
       </c>
       <c r="F2" t="s">
-        <v>5729</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -18918,19 +22104,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5730</v>
+        <v>2339</v>
       </c>
       <c r="C3" t="s">
-        <v>5731</v>
+        <v>2340</v>
       </c>
       <c r="D3" t="s">
-        <v>5732</v>
+        <v>2341</v>
       </c>
       <c r="E3" t="s">
-        <v>5733</v>
+        <v>2342</v>
       </c>
       <c r="F3" t="s">
-        <v>5734</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -18938,19 +22124,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>5735</v>
+        <v>2343</v>
       </c>
       <c r="C4" t="s">
-        <v>5736</v>
+        <v>2344</v>
       </c>
       <c r="D4" t="s">
-        <v>5737</v>
+        <v>2345</v>
       </c>
       <c r="E4" t="s">
-        <v>5738</v>
+        <v>2346</v>
       </c>
       <c r="F4" t="s">
-        <v>5739</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -18958,19 +22144,19 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>5740</v>
+        <v>2348</v>
       </c>
       <c r="C5" t="s">
-        <v>5741</v>
+        <v>2349</v>
       </c>
       <c r="D5" t="s">
-        <v>5742</v>
+        <v>2350</v>
       </c>
       <c r="E5" t="s">
-        <v>5743</v>
+        <v>2351</v>
       </c>
       <c r="F5" t="s">
-        <v>5744</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -18978,19 +22164,19 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>5745</v>
+        <v>2353</v>
       </c>
       <c r="C6" t="s">
-        <v>5746</v>
+        <v>2354</v>
       </c>
       <c r="D6" t="s">
-        <v>5747</v>
+        <v>2355</v>
       </c>
       <c r="E6" t="s">
-        <v>5748</v>
+        <v>2356</v>
       </c>
       <c r="F6" t="s">
-        <v>5749</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -18998,19 +22184,19 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>5750</v>
+        <v>2358</v>
       </c>
       <c r="C7" t="s">
-        <v>5751</v>
+        <v>2359</v>
       </c>
       <c r="D7" t="s">
-        <v>5752</v>
+        <v>2360</v>
       </c>
       <c r="E7" t="s">
-        <v>5753</v>
+        <v>2361</v>
       </c>
       <c r="F7" t="s">
-        <v>5754</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -19018,19 +22204,19 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>5755</v>
+        <v>2363</v>
       </c>
       <c r="C8" t="s">
-        <v>5756</v>
+        <v>2364</v>
       </c>
       <c r="D8" t="s">
-        <v>5757</v>
+        <v>2365</v>
       </c>
       <c r="E8" t="s">
-        <v>5758</v>
+        <v>2366</v>
       </c>
       <c r="F8" t="s">
-        <v>5759</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -19038,19 +22224,19 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>5760</v>
+        <v>2368</v>
       </c>
       <c r="C9" t="s">
-        <v>5761</v>
+        <v>2369</v>
       </c>
       <c r="D9" t="s">
-        <v>5762</v>
+        <v>2370</v>
       </c>
       <c r="E9" t="s">
-        <v>5763</v>
+        <v>1923</v>
       </c>
       <c r="F9" t="s">
-        <v>5764</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -19058,19 +22244,19 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>5765</v>
+        <v>2372</v>
       </c>
       <c r="C10" t="s">
-        <v>5766</v>
+        <v>2373</v>
       </c>
       <c r="D10" t="s">
-        <v>5767</v>
+        <v>2374</v>
       </c>
       <c r="E10" t="s">
-        <v>5768</v>
+        <v>2375</v>
       </c>
       <c r="F10" t="s">
-        <v>5769</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -19078,19 +22264,19 @@
         <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>5770</v>
+        <v>2377</v>
       </c>
       <c r="C11" t="s">
-        <v>5771</v>
+        <v>2378</v>
       </c>
       <c r="D11" t="s">
-        <v>5772</v>
+        <v>2379</v>
       </c>
       <c r="E11" t="s">
-        <v>5773</v>
+        <v>2380</v>
       </c>
       <c r="F11" t="s">
-        <v>5774</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -19098,19 +22284,19 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>5775</v>
+        <v>2382</v>
       </c>
       <c r="C12" t="s">
-        <v>5776</v>
+        <v>2383</v>
       </c>
       <c r="D12" t="s">
-        <v>5777</v>
+        <v>2384</v>
       </c>
       <c r="E12" t="s">
-        <v>5778</v>
+        <v>2385</v>
       </c>
       <c r="F12" t="s">
-        <v>5779</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -19118,19 +22304,19 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>5780</v>
+        <v>2387</v>
       </c>
       <c r="C13" t="s">
-        <v>5781</v>
+        <v>2388</v>
       </c>
       <c r="D13" t="s">
-        <v>5782</v>
+        <v>2389</v>
       </c>
       <c r="E13" t="s">
-        <v>5783</v>
+        <v>2390</v>
       </c>
       <c r="F13" t="s">
-        <v>5784</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -19138,19 +22324,19 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>5785</v>
+        <v>2392</v>
       </c>
       <c r="C14" t="s">
-        <v>5786</v>
+        <v>2393</v>
       </c>
       <c r="D14" t="s">
-        <v>5787</v>
+        <v>2394</v>
       </c>
       <c r="E14" t="s">
-        <v>5788</v>
+        <v>2395</v>
       </c>
       <c r="F14" t="s">
-        <v>5789</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -19158,19 +22344,19 @@
         <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>5790</v>
+        <v>1951</v>
       </c>
       <c r="C15" t="s">
-        <v>5791</v>
+        <v>2397</v>
       </c>
       <c r="D15" t="s">
-        <v>5792</v>
+        <v>2398</v>
       </c>
       <c r="E15" t="s">
-        <v>5793</v>
+        <v>1954</v>
       </c>
       <c r="F15" t="s">
-        <v>5794</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -19178,19 +22364,19 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>5795</v>
+        <v>2400</v>
       </c>
       <c r="C16" t="s">
-        <v>5796</v>
+        <v>2401</v>
       </c>
       <c r="D16" t="s">
-        <v>5797</v>
+        <v>2402</v>
       </c>
       <c r="E16" t="s">
-        <v>5798</v>
+        <v>2403</v>
       </c>
       <c r="F16" t="s">
-        <v>5799</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -19198,19 +22384,19 @@
         <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>5800</v>
+        <v>2405</v>
       </c>
       <c r="C17" t="s">
-        <v>5367</v>
+        <v>2406</v>
       </c>
       <c r="D17" t="s">
-        <v>5801</v>
+        <v>2407</v>
       </c>
       <c r="E17" t="s">
-        <v>5802</v>
+        <v>2408</v>
       </c>
       <c r="F17" t="s">
-        <v>5803</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -19218,19 +22404,19 @@
         <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>5804</v>
+        <v>2410</v>
       </c>
       <c r="C18" t="s">
-        <v>5805</v>
+        <v>2411</v>
       </c>
       <c r="D18" t="s">
-        <v>5806</v>
+        <v>2412</v>
       </c>
       <c r="E18" t="s">
-        <v>5807</v>
+        <v>2413</v>
       </c>
       <c r="F18" t="s">
-        <v>5808</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -19238,19 +22424,19 @@
         <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>5809</v>
+        <v>2415</v>
       </c>
       <c r="C19" t="s">
-        <v>5810</v>
+        <v>2416</v>
       </c>
       <c r="D19" t="s">
-        <v>5811</v>
+        <v>2417</v>
       </c>
       <c r="E19" t="s">
-        <v>5812</v>
+        <v>2418</v>
       </c>
       <c r="F19" t="s">
-        <v>5813</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -19258,19 +22444,19 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>5814</v>
+        <v>2419</v>
       </c>
       <c r="C20" t="s">
-        <v>5815</v>
+        <v>2420</v>
       </c>
       <c r="D20" t="s">
-        <v>5816</v>
+        <v>2421</v>
       </c>
       <c r="E20" t="s">
-        <v>5817</v>
+        <v>2422</v>
       </c>
       <c r="F20" t="s">
-        <v>5818</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -19278,19 +22464,19 @@
         <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>5819</v>
+        <v>2424</v>
       </c>
       <c r="C21" t="s">
-        <v>5820</v>
+        <v>2425</v>
       </c>
       <c r="D21" t="s">
-        <v>5821</v>
+        <v>2426</v>
       </c>
       <c r="E21" t="s">
-        <v>5822</v>
+        <v>2427</v>
       </c>
       <c r="F21" t="s">
-        <v>5823</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -19298,19 +22484,19 @@
         <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>5824</v>
+        <v>2429</v>
       </c>
       <c r="C22" t="s">
-        <v>5825</v>
+        <v>2430</v>
       </c>
       <c r="D22" t="s">
-        <v>5826</v>
+        <v>2431</v>
       </c>
       <c r="E22" t="s">
-        <v>5827</v>
+        <v>2432</v>
       </c>
       <c r="F22" t="s">
-        <v>5828</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -19318,19 +22504,19 @@
         <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>5829</v>
+        <v>2434</v>
       </c>
       <c r="C23" t="s">
-        <v>5830</v>
+        <v>2435</v>
       </c>
       <c r="D23" t="s">
-        <v>5831</v>
+        <v>2436</v>
       </c>
       <c r="E23" t="s">
-        <v>5832</v>
+        <v>2437</v>
       </c>
       <c r="F23" t="s">
-        <v>5833</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -19338,19 +22524,19 @@
         <v>132</v>
       </c>
       <c r="B24" t="s">
-        <v>5834</v>
+        <v>2439</v>
       </c>
       <c r="C24" t="s">
-        <v>5835</v>
+        <v>2440</v>
       </c>
       <c r="D24" t="s">
-        <v>5836</v>
+        <v>2441</v>
       </c>
       <c r="E24" t="s">
-        <v>5837</v>
+        <v>2442</v>
       </c>
       <c r="F24" t="s">
-        <v>5838</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -19358,19 +22544,19 @@
         <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>5839</v>
+        <v>2444</v>
       </c>
       <c r="C25" t="s">
-        <v>5840</v>
+        <v>2445</v>
       </c>
       <c r="D25" t="s">
-        <v>5841</v>
+        <v>2446</v>
       </c>
       <c r="E25" t="s">
-        <v>5842</v>
+        <v>2447</v>
       </c>
       <c r="F25" t="s">
-        <v>5843</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -19378,19 +22564,19 @@
         <v>144</v>
       </c>
       <c r="B26" t="s">
-        <v>5844</v>
+        <v>2448</v>
       </c>
       <c r="C26" t="s">
-        <v>5845</v>
+        <v>2449</v>
       </c>
       <c r="D26" t="s">
-        <v>5846</v>
+        <v>2450</v>
       </c>
       <c r="E26" t="s">
-        <v>5847</v>
+        <v>2451</v>
       </c>
       <c r="F26" t="s">
-        <v>5848</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -19398,19 +22584,19 @@
         <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>5849</v>
+        <v>2453</v>
       </c>
       <c r="C27" t="s">
-        <v>5850</v>
+        <v>2454</v>
       </c>
       <c r="D27" t="s">
-        <v>5851</v>
+        <v>2455</v>
       </c>
       <c r="E27" t="s">
-        <v>5852</v>
+        <v>2456</v>
       </c>
       <c r="F27" t="s">
-        <v>5853</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -19418,19 +22604,19 @@
         <v>156</v>
       </c>
       <c r="B28" t="s">
-        <v>5854</v>
+        <v>2458</v>
       </c>
       <c r="C28" t="s">
-        <v>5855</v>
+        <v>2459</v>
       </c>
       <c r="D28" t="s">
-        <v>5856</v>
+        <v>2460</v>
       </c>
       <c r="E28" t="s">
-        <v>5857</v>
+        <v>2461</v>
       </c>
       <c r="F28" t="s">
-        <v>5858</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -19438,19 +22624,19 @@
         <v>162</v>
       </c>
       <c r="B29" t="s">
-        <v>5859</v>
+        <v>2463</v>
       </c>
       <c r="C29" t="s">
-        <v>5860</v>
+        <v>2464</v>
       </c>
       <c r="D29" t="s">
-        <v>5861</v>
+        <v>2465</v>
       </c>
       <c r="E29" t="s">
-        <v>5862</v>
+        <v>2466</v>
       </c>
       <c r="F29" t="s">
-        <v>5863</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -19458,19 +22644,19 @@
         <v>168</v>
       </c>
       <c r="B30" t="s">
-        <v>5864</v>
+        <v>2468</v>
       </c>
       <c r="C30" t="s">
-        <v>5865</v>
+        <v>2469</v>
       </c>
       <c r="D30" t="s">
-        <v>5866</v>
+        <v>2470</v>
       </c>
       <c r="E30" t="s">
-        <v>5867</v>
+        <v>2471</v>
       </c>
       <c r="F30" t="s">
-        <v>5868</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -19478,19 +22664,19 @@
         <v>174</v>
       </c>
       <c r="B31" t="s">
-        <v>5869</v>
+        <v>2473</v>
       </c>
       <c r="C31" t="s">
-        <v>5870</v>
+        <v>2474</v>
       </c>
       <c r="D31" t="s">
-        <v>5871</v>
+        <v>2475</v>
       </c>
       <c r="E31" t="s">
-        <v>5872</v>
+        <v>2476</v>
       </c>
       <c r="F31" t="s">
-        <v>5873</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -19498,19 +22684,19 @@
         <v>180</v>
       </c>
       <c r="B32" t="s">
-        <v>5874</v>
+        <v>2478</v>
       </c>
       <c r="C32" t="s">
-        <v>5875</v>
+        <v>2479</v>
       </c>
       <c r="D32" t="s">
-        <v>5876</v>
+        <v>2480</v>
       </c>
       <c r="E32" t="s">
-        <v>5877</v>
+        <v>2481</v>
       </c>
       <c r="F32" t="s">
-        <v>5878</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -19518,19 +22704,19 @@
         <v>186</v>
       </c>
       <c r="B33" t="s">
-        <v>5879</v>
+        <v>2483</v>
       </c>
       <c r="C33" t="s">
-        <v>5880</v>
+        <v>2484</v>
       </c>
       <c r="D33" t="s">
-        <v>5881</v>
+        <v>2485</v>
       </c>
       <c r="E33" t="s">
-        <v>5882</v>
+        <v>2486</v>
       </c>
       <c r="F33" t="s">
-        <v>5883</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -19538,19 +22724,19 @@
         <v>192</v>
       </c>
       <c r="B34" t="s">
-        <v>5884</v>
+        <v>2488</v>
       </c>
       <c r="C34" t="s">
-        <v>5885</v>
+        <v>2489</v>
       </c>
       <c r="D34" t="s">
-        <v>5886</v>
+        <v>2490</v>
       </c>
       <c r="E34" t="s">
-        <v>5887</v>
+        <v>2491</v>
       </c>
       <c r="F34" t="s">
-        <v>5888</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -19558,19 +22744,19 @@
         <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>5889</v>
+        <v>2493</v>
       </c>
       <c r="C35" t="s">
-        <v>5890</v>
+        <v>2494</v>
       </c>
       <c r="D35" t="s">
-        <v>5891</v>
+        <v>2495</v>
       </c>
       <c r="E35" t="s">
-        <v>5892</v>
+        <v>2496</v>
       </c>
       <c r="F35" t="s">
-        <v>5893</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -19578,19 +22764,19 @@
         <v>204</v>
       </c>
       <c r="B36" t="s">
-        <v>5894</v>
+        <v>2498</v>
       </c>
       <c r="C36" t="s">
-        <v>5895</v>
+        <v>2499</v>
       </c>
       <c r="D36" t="s">
-        <v>5896</v>
+        <v>2500</v>
       </c>
       <c r="E36" t="s">
-        <v>5897</v>
+        <v>2501</v>
       </c>
       <c r="F36" t="s">
-        <v>5898</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -19598,19 +22784,19 @@
         <v>210</v>
       </c>
       <c r="B37" t="s">
-        <v>5899</v>
+        <v>2503</v>
       </c>
       <c r="C37" t="s">
-        <v>5900</v>
+        <v>2504</v>
       </c>
       <c r="D37" t="s">
-        <v>5901</v>
+        <v>2505</v>
       </c>
       <c r="E37" t="s">
-        <v>5902</v>
+        <v>2506</v>
       </c>
       <c r="F37" t="s">
-        <v>5903</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -19618,19 +22804,19 @@
         <v>216</v>
       </c>
       <c r="B38" t="s">
-        <v>5904</v>
+        <v>2508</v>
       </c>
       <c r="C38" t="s">
-        <v>5905</v>
+        <v>2509</v>
       </c>
       <c r="D38" t="s">
-        <v>5906</v>
+        <v>2069</v>
       </c>
       <c r="E38" t="s">
-        <v>5907</v>
+        <v>2070</v>
       </c>
       <c r="F38" t="s">
-        <v>5908</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -19638,19 +22824,19 @@
         <v>222</v>
       </c>
       <c r="B39" t="s">
-        <v>5909</v>
+        <v>2511</v>
       </c>
       <c r="C39" t="s">
-        <v>5910</v>
+        <v>2512</v>
       </c>
       <c r="D39" t="s">
-        <v>5911</v>
+        <v>2513</v>
       </c>
       <c r="E39" t="s">
-        <v>5912</v>
+        <v>2514</v>
       </c>
       <c r="F39" t="s">
-        <v>5913</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -19658,19 +22844,19 @@
         <v>228</v>
       </c>
       <c r="B40" t="s">
-        <v>5914</v>
+        <v>2516</v>
       </c>
       <c r="C40" t="s">
-        <v>5915</v>
+        <v>2517</v>
       </c>
       <c r="D40" t="s">
-        <v>5916</v>
+        <v>2518</v>
       </c>
       <c r="E40" t="s">
-        <v>5917</v>
+        <v>2519</v>
       </c>
       <c r="F40" t="s">
-        <v>5918</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -19678,19 +22864,19 @@
         <v>234</v>
       </c>
       <c r="B41" t="s">
-        <v>5919</v>
+        <v>2521</v>
       </c>
       <c r="C41" t="s">
-        <v>5920</v>
+        <v>2522</v>
       </c>
       <c r="D41" t="s">
-        <v>5921</v>
+        <v>2523</v>
       </c>
       <c r="E41" t="s">
-        <v>5922</v>
+        <v>2524</v>
       </c>
       <c r="F41" t="s">
-        <v>5923</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -19698,19 +22884,19 @@
         <v>240</v>
       </c>
       <c r="B42" t="s">
-        <v>5924</v>
+        <v>2526</v>
       </c>
       <c r="C42" t="s">
-        <v>5925</v>
+        <v>2527</v>
       </c>
       <c r="D42" t="s">
-        <v>5926</v>
+        <v>2528</v>
       </c>
       <c r="E42" t="s">
-        <v>5927</v>
+        <v>2529</v>
       </c>
       <c r="F42" t="s">
-        <v>5928</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -19718,19 +22904,19 @@
         <v>246</v>
       </c>
       <c r="B43" t="s">
-        <v>5929</v>
+        <v>2531</v>
       </c>
       <c r="C43" t="s">
-        <v>5930</v>
+        <v>2532</v>
       </c>
       <c r="D43" t="s">
-        <v>5931</v>
+        <v>2533</v>
       </c>
       <c r="E43" t="s">
-        <v>5932</v>
+        <v>2534</v>
       </c>
       <c r="F43" t="s">
-        <v>5933</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -19738,19 +22924,19 @@
         <v>252</v>
       </c>
       <c r="B44" t="s">
-        <v>5934</v>
+        <v>2536</v>
       </c>
       <c r="C44" t="s">
-        <v>5935</v>
+        <v>2537</v>
       </c>
       <c r="D44" t="s">
-        <v>5936</v>
+        <v>2538</v>
       </c>
       <c r="E44" t="s">
-        <v>5937</v>
+        <v>2539</v>
       </c>
       <c r="F44" t="s">
-        <v>5938</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -19758,19 +22944,19 @@
         <v>258</v>
       </c>
       <c r="B45" t="s">
-        <v>5939</v>
+        <v>2541</v>
       </c>
       <c r="C45" t="s">
-        <v>5940</v>
+        <v>2542</v>
       </c>
       <c r="D45" t="s">
-        <v>5941</v>
+        <v>2543</v>
       </c>
       <c r="E45" t="s">
-        <v>4231</v>
+        <v>2544</v>
       </c>
       <c r="F45" t="s">
-        <v>5942</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -19778,19 +22964,19 @@
         <v>264</v>
       </c>
       <c r="B46" t="s">
-        <v>5943</v>
+        <v>2546</v>
       </c>
       <c r="C46" t="s">
-        <v>5944</v>
+        <v>2547</v>
       </c>
       <c r="D46" t="s">
-        <v>5945</v>
+        <v>2548</v>
       </c>
       <c r="E46" t="s">
-        <v>5946</v>
+        <v>2549</v>
       </c>
       <c r="F46" t="s">
-        <v>5947</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -19798,19 +22984,19 @@
         <v>270</v>
       </c>
       <c r="B47" t="s">
-        <v>5948</v>
+        <v>2551</v>
       </c>
       <c r="C47" t="s">
-        <v>5949</v>
+        <v>2552</v>
       </c>
       <c r="D47" t="s">
-        <v>5950</v>
+        <v>2553</v>
       </c>
       <c r="E47" t="s">
-        <v>5951</v>
+        <v>2114</v>
       </c>
       <c r="F47" t="s">
-        <v>5952</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -19818,19 +23004,19 @@
         <v>276</v>
       </c>
       <c r="B48" t="s">
-        <v>5953</v>
+        <v>2555</v>
       </c>
       <c r="C48" t="s">
-        <v>5954</v>
+        <v>2556</v>
       </c>
       <c r="D48" t="s">
-        <v>5955</v>
+        <v>2557</v>
       </c>
       <c r="E48" t="s">
-        <v>5956</v>
+        <v>2558</v>
       </c>
       <c r="F48" t="s">
-        <v>5957</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -19838,19 +23024,19 @@
         <v>282</v>
       </c>
       <c r="B49" t="s">
-        <v>5958</v>
+        <v>2560</v>
       </c>
       <c r="C49" t="s">
-        <v>5959</v>
+        <v>2561</v>
       </c>
       <c r="D49" t="s">
-        <v>5960</v>
+        <v>2562</v>
       </c>
       <c r="E49" t="s">
-        <v>5961</v>
+        <v>2563</v>
       </c>
       <c r="F49" t="s">
-        <v>5962</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -19858,19 +23044,19 @@
         <v>288</v>
       </c>
       <c r="B50" t="s">
-        <v>5963</v>
+        <v>2565</v>
       </c>
       <c r="C50" t="s">
-        <v>5964</v>
+        <v>2566</v>
       </c>
       <c r="D50" t="s">
-        <v>5965</v>
+        <v>2567</v>
       </c>
       <c r="E50" t="s">
-        <v>5966</v>
+        <v>2568</v>
       </c>
       <c r="F50" t="s">
-        <v>5967</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -19878,19 +23064,19 @@
         <v>294</v>
       </c>
       <c r="B51" t="s">
-        <v>5968</v>
+        <v>2570</v>
       </c>
       <c r="C51" t="s">
-        <v>5969</v>
+        <v>2571</v>
       </c>
       <c r="D51" t="s">
-        <v>5970</v>
+        <v>2133</v>
       </c>
       <c r="E51" t="s">
-        <v>5971</v>
+        <v>2572</v>
       </c>
       <c r="F51" t="s">
-        <v>5972</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -19898,19 +23084,19 @@
         <v>300</v>
       </c>
       <c r="B52" t="s">
-        <v>5973</v>
+        <v>2574</v>
       </c>
       <c r="C52" t="s">
-        <v>5974</v>
+        <v>2575</v>
       </c>
       <c r="D52" t="s">
-        <v>5975</v>
+        <v>2576</v>
       </c>
       <c r="E52" t="s">
-        <v>5976</v>
+        <v>2577</v>
       </c>
       <c r="F52" t="s">
-        <v>5977</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -19918,19 +23104,19 @@
         <v>306</v>
       </c>
       <c r="B53" t="s">
-        <v>5978</v>
+        <v>2579</v>
       </c>
       <c r="C53" t="s">
-        <v>5979</v>
+        <v>2580</v>
       </c>
       <c r="D53" t="s">
-        <v>5980</v>
+        <v>2581</v>
       </c>
       <c r="E53" t="s">
-        <v>5981</v>
+        <v>2145</v>
       </c>
       <c r="F53" t="s">
-        <v>5982</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -19938,19 +23124,19 @@
         <v>312</v>
       </c>
       <c r="B54" t="s">
-        <v>5983</v>
+        <v>2583</v>
       </c>
       <c r="C54" t="s">
-        <v>5984</v>
+        <v>2584</v>
       </c>
       <c r="D54" t="s">
-        <v>5985</v>
+        <v>2585</v>
       </c>
       <c r="E54" t="s">
-        <v>5986</v>
+        <v>2586</v>
       </c>
       <c r="F54" t="s">
-        <v>5987</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -19958,19 +23144,19 @@
         <v>318</v>
       </c>
       <c r="B55" t="s">
-        <v>5988</v>
+        <v>2588</v>
       </c>
       <c r="C55" t="s">
-        <v>5989</v>
+        <v>2589</v>
       </c>
       <c r="D55" t="s">
-        <v>5990</v>
+        <v>2590</v>
       </c>
       <c r="E55" t="s">
-        <v>5991</v>
+        <v>2591</v>
       </c>
       <c r="F55" t="s">
-        <v>5992</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -19978,19 +23164,19 @@
         <v>324</v>
       </c>
       <c r="B56" t="s">
-        <v>5993</v>
+        <v>2593</v>
       </c>
       <c r="C56" t="s">
-        <v>5994</v>
+        <v>2594</v>
       </c>
       <c r="D56" t="s">
-        <v>5995</v>
+        <v>2595</v>
       </c>
       <c r="E56" t="s">
-        <v>5996</v>
+        <v>2596</v>
       </c>
       <c r="F56" t="s">
-        <v>5997</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -19998,19 +23184,19 @@
         <v>330</v>
       </c>
       <c r="B57" t="s">
-        <v>5998</v>
+        <v>2161</v>
       </c>
       <c r="C57" t="s">
-        <v>5999</v>
+        <v>2162</v>
       </c>
       <c r="D57" t="s">
-        <v>6000</v>
+        <v>2598</v>
       </c>
       <c r="E57" t="s">
-        <v>4289</v>
+        <v>2599</v>
       </c>
       <c r="F57" t="s">
-        <v>6001</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -20018,19 +23204,19 @@
         <v>336</v>
       </c>
       <c r="B58" t="s">
-        <v>6002</v>
+        <v>2601</v>
       </c>
       <c r="C58" t="s">
-        <v>6003</v>
+        <v>2602</v>
       </c>
       <c r="D58" t="s">
-        <v>6004</v>
+        <v>2603</v>
       </c>
       <c r="E58" t="s">
-        <v>6005</v>
+        <v>2604</v>
       </c>
       <c r="F58" t="s">
-        <v>6006</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -20038,19 +23224,19 @@
         <v>342</v>
       </c>
       <c r="B59" t="s">
-        <v>6007</v>
+        <v>2606</v>
       </c>
       <c r="C59" t="s">
-        <v>6008</v>
+        <v>2607</v>
       </c>
       <c r="D59" t="s">
-        <v>6009</v>
+        <v>2608</v>
       </c>
       <c r="E59" t="s">
-        <v>6010</v>
+        <v>2609</v>
       </c>
       <c r="F59" t="s">
-        <v>6011</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -20058,19 +23244,19 @@
         <v>348</v>
       </c>
       <c r="B60" t="s">
-        <v>6012</v>
+        <v>2611</v>
       </c>
       <c r="C60" t="s">
-        <v>6013</v>
+        <v>2612</v>
       </c>
       <c r="D60" t="s">
-        <v>6014</v>
+        <v>2613</v>
       </c>
       <c r="E60" t="s">
-        <v>6015</v>
+        <v>2614</v>
       </c>
       <c r="F60" t="s">
-        <v>6016</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -20078,19 +23264,19 @@
         <v>354</v>
       </c>
       <c r="B61" t="s">
-        <v>6017</v>
+        <v>2181</v>
       </c>
       <c r="C61" t="s">
-        <v>6018</v>
+        <v>2182</v>
       </c>
       <c r="D61" t="s">
-        <v>6019</v>
+        <v>2616</v>
       </c>
       <c r="E61" t="s">
-        <v>6020</v>
+        <v>2184</v>
       </c>
       <c r="F61" t="s">
-        <v>6021</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -20098,19 +23284,19 @@
         <v>360</v>
       </c>
       <c r="B62" t="s">
-        <v>6022</v>
+        <v>2617</v>
       </c>
       <c r="C62" t="s">
-        <v>4742</v>
+        <v>2618</v>
       </c>
       <c r="D62" t="s">
-        <v>6023</v>
+        <v>2188</v>
       </c>
       <c r="E62" t="s">
-        <v>6024</v>
+        <v>2619</v>
       </c>
       <c r="F62" t="s">
-        <v>6025</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -20118,19 +23304,19 @@
         <v>366</v>
       </c>
       <c r="B63" t="s">
-        <v>6026</v>
+        <v>2620</v>
       </c>
       <c r="C63" t="s">
-        <v>6027</v>
+        <v>2621</v>
       </c>
       <c r="D63" t="s">
-        <v>6028</v>
+        <v>2622</v>
       </c>
       <c r="E63" t="s">
-        <v>6029</v>
+        <v>2623</v>
       </c>
       <c r="F63" t="s">
-        <v>6030</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -20138,19 +23324,19 @@
         <v>372</v>
       </c>
       <c r="B64" t="s">
-        <v>6031</v>
+        <v>2625</v>
       </c>
       <c r="C64" t="s">
-        <v>6032</v>
+        <v>2197</v>
       </c>
       <c r="D64" t="s">
-        <v>6033</v>
+        <v>2626</v>
       </c>
       <c r="E64" t="s">
-        <v>6034</v>
+        <v>2627</v>
       </c>
       <c r="F64" t="s">
-        <v>6035</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -20158,19 +23344,19 @@
         <v>378</v>
       </c>
       <c r="B65" t="s">
-        <v>3036</v>
+        <v>2629</v>
       </c>
       <c r="C65" t="s">
-        <v>3448</v>
+        <v>381</v>
       </c>
       <c r="D65" t="s">
-        <v>381</v>
+        <v>2630</v>
       </c>
       <c r="E65" t="s">
-        <v>4755</v>
+        <v>2631</v>
       </c>
       <c r="F65" t="s">
-        <v>4328</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -20178,19 +23364,19 @@
         <v>384</v>
       </c>
       <c r="B66" t="s">
-        <v>6036</v>
+        <v>2632</v>
       </c>
       <c r="C66" t="s">
-        <v>6037</v>
+        <v>2633</v>
       </c>
       <c r="D66" t="s">
-        <v>6038</v>
+        <v>2634</v>
       </c>
       <c r="E66" t="s">
-        <v>6039</v>
+        <v>2206</v>
       </c>
       <c r="F66" t="s">
-        <v>6040</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -20198,19 +23384,19 @@
         <v>390</v>
       </c>
       <c r="B67" t="s">
-        <v>6041</v>
+        <v>2636</v>
       </c>
       <c r="C67" t="s">
-        <v>6042</v>
+        <v>2637</v>
       </c>
       <c r="D67" t="s">
-        <v>6043</v>
+        <v>2210</v>
       </c>
       <c r="E67" t="s">
-        <v>6044</v>
+        <v>2638</v>
       </c>
       <c r="F67" t="s">
-        <v>6045</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -20218,19 +23404,19 @@
         <v>396</v>
       </c>
       <c r="B68" t="s">
-        <v>6046</v>
+        <v>2640</v>
       </c>
       <c r="C68" t="s">
-        <v>6047</v>
+        <v>2641</v>
       </c>
       <c r="D68" t="s">
-        <v>6048</v>
+        <v>2642</v>
       </c>
       <c r="E68" t="s">
-        <v>6049</v>
+        <v>2216</v>
       </c>
       <c r="F68" t="s">
-        <v>6050</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -20238,19 +23424,19 @@
         <v>402</v>
       </c>
       <c r="B69" t="s">
-        <v>6051</v>
+        <v>2644</v>
       </c>
       <c r="C69" t="s">
-        <v>6052</v>
+        <v>2645</v>
       </c>
       <c r="D69" t="s">
-        <v>6053</v>
+        <v>2646</v>
       </c>
       <c r="E69" t="s">
-        <v>6054</v>
+        <v>2647</v>
       </c>
       <c r="F69" t="s">
-        <v>6055</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -20258,19 +23444,19 @@
         <v>408</v>
       </c>
       <c r="B70" t="s">
-        <v>6056</v>
+        <v>2649</v>
       </c>
       <c r="C70" t="s">
-        <v>6057</v>
+        <v>2650</v>
       </c>
       <c r="D70" t="s">
-        <v>6058</v>
+        <v>1769</v>
       </c>
       <c r="E70" t="s">
-        <v>6059</v>
+        <v>2651</v>
       </c>
       <c r="F70" t="s">
-        <v>6060</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -20278,16 +23464,16 @@
         <v>414</v>
       </c>
       <c r="B71" t="s">
-        <v>5623</v>
+        <v>1772</v>
       </c>
       <c r="C71" t="s">
-        <v>5191</v>
+        <v>1773</v>
       </c>
       <c r="D71" t="s">
-        <v>6061</v>
+        <v>1776</v>
       </c>
       <c r="E71" t="s">
-        <v>6062</v>
+        <v>2226</v>
       </c>
       <c r="F71" t="s">
         <v>417</v>
@@ -20298,19 +23484,19 @@
         <v>420</v>
       </c>
       <c r="B72" t="s">
-        <v>6063</v>
+        <v>2652</v>
       </c>
       <c r="C72" t="s">
-        <v>6064</v>
+        <v>2653</v>
       </c>
       <c r="D72" t="s">
-        <v>6065</v>
+        <v>2654</v>
       </c>
       <c r="E72" t="s">
-        <v>6066</v>
+        <v>2655</v>
       </c>
       <c r="F72" t="s">
-        <v>6067</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -20318,19 +23504,19 @@
         <v>426</v>
       </c>
       <c r="B73" t="s">
-        <v>6068</v>
+        <v>2657</v>
       </c>
       <c r="C73" t="s">
-        <v>6069</v>
+        <v>2658</v>
       </c>
       <c r="D73" t="s">
-        <v>6070</v>
+        <v>2234</v>
       </c>
       <c r="E73" t="s">
-        <v>6071</v>
+        <v>2659</v>
       </c>
       <c r="F73" t="s">
-        <v>6072</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -20338,19 +23524,19 @@
         <v>432</v>
       </c>
       <c r="B74" t="s">
-        <v>6073</v>
+        <v>2661</v>
       </c>
       <c r="C74" t="s">
-        <v>6074</v>
+        <v>2662</v>
       </c>
       <c r="D74" t="s">
-        <v>6075</v>
+        <v>2663</v>
       </c>
       <c r="E74" t="s">
-        <v>6076</v>
+        <v>2664</v>
       </c>
       <c r="F74" t="s">
-        <v>6077</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -20358,19 +23544,19 @@
         <v>438</v>
       </c>
       <c r="B75" t="s">
-        <v>6078</v>
+        <v>2666</v>
       </c>
       <c r="C75" t="s">
-        <v>6079</v>
+        <v>2667</v>
       </c>
       <c r="D75" t="s">
-        <v>6080</v>
+        <v>2668</v>
       </c>
       <c r="E75" t="s">
-        <v>6081</v>
+        <v>2244</v>
       </c>
       <c r="F75" t="s">
-        <v>4370</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -20378,19 +23564,19 @@
         <v>444</v>
       </c>
       <c r="B76" t="s">
-        <v>6082</v>
+        <v>2669</v>
       </c>
       <c r="C76" t="s">
-        <v>6083</v>
+        <v>2670</v>
       </c>
       <c r="D76" t="s">
-        <v>6084</v>
+        <v>2671</v>
       </c>
       <c r="E76" t="s">
-        <v>6085</v>
+        <v>2250</v>
       </c>
       <c r="F76" t="s">
-        <v>6086</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -20398,19 +23584,19 @@
         <v>450</v>
       </c>
       <c r="B77" t="s">
-        <v>6087</v>
+        <v>2673</v>
       </c>
       <c r="C77" t="s">
-        <v>6088</v>
+        <v>2674</v>
       </c>
       <c r="D77" t="s">
-        <v>6089</v>
+        <v>2675</v>
       </c>
       <c r="E77" t="s">
-        <v>6090</v>
+        <v>2676</v>
       </c>
       <c r="F77" t="s">
-        <v>6091</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -20418,19 +23604,19 @@
         <v>456</v>
       </c>
       <c r="B78" t="s">
-        <v>6092</v>
+        <v>2257</v>
       </c>
       <c r="C78" t="s">
-        <v>6093</v>
+        <v>2678</v>
       </c>
       <c r="D78" t="s">
-        <v>6094</v>
+        <v>2679</v>
       </c>
       <c r="E78" t="s">
-        <v>6095</v>
+        <v>2680</v>
       </c>
       <c r="F78" t="s">
-        <v>6096</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -20438,19 +23624,19 @@
         <v>462</v>
       </c>
       <c r="B79" t="s">
-        <v>6097</v>
+        <v>2682</v>
       </c>
       <c r="C79" t="s">
-        <v>6098</v>
+        <v>2683</v>
       </c>
       <c r="D79" t="s">
-        <v>6099</v>
+        <v>2264</v>
       </c>
       <c r="E79" t="s">
-        <v>6100</v>
+        <v>2684</v>
       </c>
       <c r="F79" t="s">
-        <v>6101</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -20458,19 +23644,19 @@
         <v>468</v>
       </c>
       <c r="B80" t="s">
-        <v>6102</v>
+        <v>2686</v>
       </c>
       <c r="C80" t="s">
-        <v>6103</v>
+        <v>2687</v>
       </c>
       <c r="D80" t="s">
-        <v>6104</v>
+        <v>2688</v>
       </c>
       <c r="E80" t="s">
-        <v>5665</v>
+        <v>2689</v>
       </c>
       <c r="F80" t="s">
-        <v>6105</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -20478,19 +23664,19 @@
         <v>474</v>
       </c>
       <c r="B81" t="s">
-        <v>6106</v>
+        <v>2691</v>
       </c>
       <c r="C81" t="s">
-        <v>6107</v>
+        <v>2692</v>
       </c>
       <c r="D81" t="s">
-        <v>6108</v>
+        <v>2693</v>
       </c>
       <c r="E81" t="s">
-        <v>6109</v>
+        <v>2275</v>
       </c>
       <c r="F81" t="s">
-        <v>6110</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -20498,19 +23684,19 @@
         <v>480</v>
       </c>
       <c r="B82" t="s">
-        <v>5672</v>
+        <v>2277</v>
       </c>
       <c r="C82" t="s">
-        <v>6111</v>
+        <v>2695</v>
       </c>
       <c r="D82" t="s">
-        <v>6112</v>
+        <v>2696</v>
       </c>
       <c r="E82" t="s">
-        <v>6113</v>
+        <v>2697</v>
       </c>
       <c r="F82" t="s">
-        <v>6114</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -20518,19 +23704,19 @@
         <v>486</v>
       </c>
       <c r="B83" t="s">
-        <v>6115</v>
+        <v>2699</v>
       </c>
       <c r="C83" t="s">
-        <v>6116</v>
+        <v>2700</v>
       </c>
       <c r="D83" t="s">
-        <v>6117</v>
+        <v>2701</v>
       </c>
       <c r="E83" t="s">
-        <v>6118</v>
+        <v>2702</v>
       </c>
       <c r="F83" t="s">
-        <v>6119</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -20538,19 +23724,19 @@
         <v>492</v>
       </c>
       <c r="B84" t="s">
-        <v>6120</v>
+        <v>2704</v>
       </c>
       <c r="C84" t="s">
-        <v>6121</v>
+        <v>2288</v>
       </c>
       <c r="D84" t="s">
-        <v>6122</v>
+        <v>2289</v>
       </c>
       <c r="E84" t="s">
-        <v>5684</v>
+        <v>2705</v>
       </c>
       <c r="F84" t="s">
-        <v>6123</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -20558,19 +23744,19 @@
         <v>498</v>
       </c>
       <c r="B85" t="s">
-        <v>6124</v>
+        <v>2707</v>
       </c>
       <c r="C85" t="s">
-        <v>6125</v>
+        <v>2708</v>
       </c>
       <c r="D85" t="s">
-        <v>4414</v>
+        <v>2709</v>
       </c>
       <c r="E85" t="s">
-        <v>5688</v>
+        <v>2710</v>
       </c>
       <c r="F85" t="s">
-        <v>6126</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -20578,19 +23764,19 @@
         <v>504</v>
       </c>
       <c r="B86" t="s">
-        <v>6127</v>
+        <v>2712</v>
       </c>
       <c r="C86" t="s">
-        <v>6128</v>
+        <v>2713</v>
       </c>
       <c r="D86" t="s">
-        <v>6129</v>
+        <v>2714</v>
       </c>
       <c r="E86" t="s">
-        <v>6130</v>
+        <v>2715</v>
       </c>
       <c r="F86" t="s">
-        <v>6131</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -20598,19 +23784,19 @@
         <v>510</v>
       </c>
       <c r="B87" t="s">
-        <v>6132</v>
+        <v>2717</v>
       </c>
       <c r="C87" t="s">
-        <v>6133</v>
+        <v>2718</v>
       </c>
       <c r="D87" t="s">
-        <v>6134</v>
+        <v>2719</v>
       </c>
       <c r="E87" t="s">
-        <v>6135</v>
+        <v>2720</v>
       </c>
       <c r="F87" t="s">
-        <v>6136</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -20618,19 +23804,19 @@
         <v>516</v>
       </c>
       <c r="B88" t="s">
-        <v>6137</v>
+        <v>2722</v>
       </c>
       <c r="C88" t="s">
-        <v>6138</v>
+        <v>2723</v>
       </c>
       <c r="D88" t="s">
-        <v>6139</v>
+        <v>2724</v>
       </c>
       <c r="E88" t="s">
-        <v>6140</v>
+        <v>2308</v>
       </c>
       <c r="F88" t="s">
-        <v>6141</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -20638,19 +23824,19 @@
         <v>522</v>
       </c>
       <c r="B89" t="s">
-        <v>5703</v>
+        <v>2725</v>
       </c>
       <c r="C89" t="s">
-        <v>6142</v>
+        <v>2726</v>
       </c>
       <c r="D89" t="s">
-        <v>6143</v>
+        <v>2727</v>
       </c>
       <c r="E89" t="s">
-        <v>6144</v>
+        <v>2728</v>
       </c>
       <c r="F89" t="s">
-        <v>6145</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -20658,19 +23844,19 @@
         <v>528</v>
       </c>
       <c r="B90" t="s">
-        <v>6146</v>
+        <v>2315</v>
       </c>
       <c r="C90" t="s">
-        <v>6147</v>
+        <v>2730</v>
       </c>
       <c r="D90" t="s">
-        <v>6148</v>
+        <v>2731</v>
       </c>
       <c r="E90" t="s">
-        <v>6149</v>
+        <v>2732</v>
       </c>
       <c r="F90" t="s">
-        <v>6150</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -20678,19 +23864,19 @@
         <v>534</v>
       </c>
       <c r="B91" t="s">
-        <v>6151</v>
+        <v>2734</v>
       </c>
       <c r="C91" t="s">
-        <v>6152</v>
+        <v>2320</v>
       </c>
       <c r="D91" t="s">
-        <v>6153</v>
+        <v>2735</v>
       </c>
       <c r="E91" t="s">
-        <v>6154</v>
+        <v>2736</v>
       </c>
       <c r="F91" t="s">
-        <v>6155</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -20698,19 +23884,19 @@
         <v>540</v>
       </c>
       <c r="B92" t="s">
-        <v>6156</v>
+        <v>2737</v>
       </c>
       <c r="C92" t="s">
-        <v>6157</v>
+        <v>2738</v>
       </c>
       <c r="D92" t="s">
-        <v>6158</v>
+        <v>2739</v>
       </c>
       <c r="E92" t="s">
-        <v>6159</v>
+        <v>2328</v>
       </c>
       <c r="F92" t="s">
-        <v>6160</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -20718,19 +23904,19 @@
         <v>546</v>
       </c>
       <c r="B93" t="s">
-        <v>6161</v>
+        <v>2740</v>
       </c>
       <c r="C93" t="s">
-        <v>6162</v>
+        <v>2741</v>
       </c>
       <c r="D93" t="s">
-        <v>6163</v>
+        <v>2742</v>
       </c>
       <c r="E93" t="s">
-        <v>6164</v>
+        <v>2743</v>
       </c>
       <c r="F93" t="s">
-        <v>6165</v>
+        <v>2332</v>
       </c>
     </row>
   </sheetData>
@@ -20738,7 +23924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FC7E8D-1DE3-4DBF-BC92-6657EED87D10}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -22621,7 +25807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EEF453-2C93-48DA-92A9-F02917F02C21}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -24503,7 +27689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3009EEF-D0A3-4418-BB02-D308992E6389}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -26383,7 +29569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62503B16-5D5E-43EB-8EDC-28C65E9BFBAD}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -28263,7 +31449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -30144,6 +33330,1887 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48462DF2-2B8F-4894-A625-67421D5E4309}">
+  <dimension ref="A1:F93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5725</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5726</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5727</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5728</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5730</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5731</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5732</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5733</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5735</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5736</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5737</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5738</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5740</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5741</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5742</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5743</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5745</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5746</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5747</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5748</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5750</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5751</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5752</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5753</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5754</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5755</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5758</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5759</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5760</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5761</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5762</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5763</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5764</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5765</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5767</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5768</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5770</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5771</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5772</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5773</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5774</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5775</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5778</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5780</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5781</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5782</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5783</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5784</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5785</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5786</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5787</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5788</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5789</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5790</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5791</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5792</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5793</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5794</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5795</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5796</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5797</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5798</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5800</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5367</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5801</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5802</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5803</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5804</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5805</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5806</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5807</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5808</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5809</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5810</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5811</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5812</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5813</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5814</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5815</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5816</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5817</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5819</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5820</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5821</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5822</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5823</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5824</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5825</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5826</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5827</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5828</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5829</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5830</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5831</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5832</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5833</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5834</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5835</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5836</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5837</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5838</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5839</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5840</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5841</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5842</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5843</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5844</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5845</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5846</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5847</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5848</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5849</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5850</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5851</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5852</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5853</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5854</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5855</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5856</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5857</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5859</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5860</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5861</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5862</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5863</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5864</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5865</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5866</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5867</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5868</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5869</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5870</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5871</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5872</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5873</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5874</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5875</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5876</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5877</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5878</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5879</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5880</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5881</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5882</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5884</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5885</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5886</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5887</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5888</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5889</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5890</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5891</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5892</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5893</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5894</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5895</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5896</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5897</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5898</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5899</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5902</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5903</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5904</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5905</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5906</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5907</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5908</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5909</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5910</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5911</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5912</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5913</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5914</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5916</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5917</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5918</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5919</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5920</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5921</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5922</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5923</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5924</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5925</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5926</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5927</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5928</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5929</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5930</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5931</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5932</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5933</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5934</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5935</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5936</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5937</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5938</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5939</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5940</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5941</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4231</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5942</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5943</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5944</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5945</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5946</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5947</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5948</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5949</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5950</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5951</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5952</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5953</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5954</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5955</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5956</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5957</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5958</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5960</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5961</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5962</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5963</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5964</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5965</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5966</v>
+      </c>
+      <c r="F50" t="s">
+        <v>5967</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5968</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5969</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5970</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5971</v>
+      </c>
+      <c r="F51" t="s">
+        <v>5972</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5973</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5974</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5975</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5976</v>
+      </c>
+      <c r="F52" t="s">
+        <v>5977</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5978</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5979</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5980</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5981</v>
+      </c>
+      <c r="F53" t="s">
+        <v>5982</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>312</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5983</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5984</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5985</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5986</v>
+      </c>
+      <c r="F54" t="s">
+        <v>5987</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>318</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5988</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5989</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5991</v>
+      </c>
+      <c r="F55" t="s">
+        <v>5992</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5993</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5994</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5995</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5996</v>
+      </c>
+      <c r="F56" t="s">
+        <v>5997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>330</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5998</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5999</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6000</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4289</v>
+      </c>
+      <c r="F57" t="s">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>336</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6002</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6004</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6005</v>
+      </c>
+      <c r="F58" t="s">
+        <v>6006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6007</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6008</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6009</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6010</v>
+      </c>
+      <c r="F59" t="s">
+        <v>6011</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6012</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6013</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6014</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6015</v>
+      </c>
+      <c r="F60" t="s">
+        <v>6016</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6017</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6018</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6019</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6020</v>
+      </c>
+      <c r="F61" t="s">
+        <v>6021</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>360</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6022</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4742</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6023</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6024</v>
+      </c>
+      <c r="F62" t="s">
+        <v>6025</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6026</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6028</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6029</v>
+      </c>
+      <c r="F63" t="s">
+        <v>6030</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>372</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6031</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6032</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6033</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6034</v>
+      </c>
+      <c r="F64" t="s">
+        <v>6035</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>378</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3448</v>
+      </c>
+      <c r="D65" t="s">
+        <v>381</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4755</v>
+      </c>
+      <c r="F65" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>384</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6036</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6037</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6038</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6039</v>
+      </c>
+      <c r="F66" t="s">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>390</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6041</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6042</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6043</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6044</v>
+      </c>
+      <c r="F67" t="s">
+        <v>6045</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>396</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6046</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6047</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6048</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6049</v>
+      </c>
+      <c r="F68" t="s">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>402</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6051</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6052</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6053</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6054</v>
+      </c>
+      <c r="F69" t="s">
+        <v>6055</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>408</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6056</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6057</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6058</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6059</v>
+      </c>
+      <c r="F70" t="s">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>414</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5623</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5191</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6061</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6062</v>
+      </c>
+      <c r="F71" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>420</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6063</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6064</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6065</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6066</v>
+      </c>
+      <c r="F72" t="s">
+        <v>6067</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>426</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6068</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6069</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6070</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6071</v>
+      </c>
+      <c r="F73" t="s">
+        <v>6072</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>432</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6073</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6074</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6075</v>
+      </c>
+      <c r="E74" t="s">
+        <v>6076</v>
+      </c>
+      <c r="F74" t="s">
+        <v>6077</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>438</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6078</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6079</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6080</v>
+      </c>
+      <c r="E75" t="s">
+        <v>6081</v>
+      </c>
+      <c r="F75" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>444</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6082</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6083</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6084</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6085</v>
+      </c>
+      <c r="F76" t="s">
+        <v>6086</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>450</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6087</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6088</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6089</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6090</v>
+      </c>
+      <c r="F77" t="s">
+        <v>6091</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>456</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6092</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6093</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6094</v>
+      </c>
+      <c r="E78" t="s">
+        <v>6095</v>
+      </c>
+      <c r="F78" t="s">
+        <v>6096</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>462</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6097</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6098</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6099</v>
+      </c>
+      <c r="E79" t="s">
+        <v>6100</v>
+      </c>
+      <c r="F79" t="s">
+        <v>6101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6102</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6103</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6104</v>
+      </c>
+      <c r="E80" t="s">
+        <v>5665</v>
+      </c>
+      <c r="F80" t="s">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>474</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6106</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6107</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6108</v>
+      </c>
+      <c r="E81" t="s">
+        <v>6109</v>
+      </c>
+      <c r="F81" t="s">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>480</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5672</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6111</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6112</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6113</v>
+      </c>
+      <c r="F82" t="s">
+        <v>6114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>486</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6115</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6116</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6117</v>
+      </c>
+      <c r="E83" t="s">
+        <v>6118</v>
+      </c>
+      <c r="F83" t="s">
+        <v>6119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>492</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6120</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6121</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6122</v>
+      </c>
+      <c r="E84" t="s">
+        <v>5684</v>
+      </c>
+      <c r="F84" t="s">
+        <v>6123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>498</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6124</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6125</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4414</v>
+      </c>
+      <c r="E85" t="s">
+        <v>5688</v>
+      </c>
+      <c r="F85" t="s">
+        <v>6126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>504</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6127</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6128</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6129</v>
+      </c>
+      <c r="E86" t="s">
+        <v>6130</v>
+      </c>
+      <c r="F86" t="s">
+        <v>6131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>510</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6132</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6133</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6134</v>
+      </c>
+      <c r="E87" t="s">
+        <v>6135</v>
+      </c>
+      <c r="F87" t="s">
+        <v>6136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>516</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6137</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6138</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6139</v>
+      </c>
+      <c r="E88" t="s">
+        <v>6140</v>
+      </c>
+      <c r="F88" t="s">
+        <v>6141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>522</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5703</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6142</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6143</v>
+      </c>
+      <c r="E89" t="s">
+        <v>6144</v>
+      </c>
+      <c r="F89" t="s">
+        <v>6145</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>528</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6146</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6147</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6148</v>
+      </c>
+      <c r="E90" t="s">
+        <v>6149</v>
+      </c>
+      <c r="F90" t="s">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>534</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6151</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6152</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6153</v>
+      </c>
+      <c r="E91" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F91" t="s">
+        <v>6155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>540</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6156</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6158</v>
+      </c>
+      <c r="E92" t="s">
+        <v>6159</v>
+      </c>
+      <c r="F92" t="s">
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>546</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6161</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6162</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6163</v>
+      </c>
+      <c r="E93" t="s">
+        <v>6164</v>
+      </c>
+      <c r="F93" t="s">
+        <v>6165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C4ACAF-C403-46AB-9DE3-552603CE121E}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -32025,7 +37092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8031CFF4-E8B1-4230-A6BE-8355C73394A8}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -33907,7 +38974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEE11C3-3B44-4022-BB32-BDF73F267C1B}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -35788,7 +40855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDA9053-1E1E-4544-B000-C7441587AE1E}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -37670,7 +42737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60595582-9969-482E-9896-05463C5DE0AD}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -39551,7 +44618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001CC29C-638A-4E4E-829D-66241B93D88A}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -41432,7 +46499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C0AFDA-3FBB-41A3-BA62-46EDDC71FB68}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -43312,1886 +48379,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676205A0-C5FF-4AEC-B10B-18D60F60A28C}">
-  <dimension ref="A1:F93"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2334</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2335</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2336</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2337</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2339</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2340</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2341</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2342</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2343</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2344</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2345</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2346</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2349</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2350</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2351</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2352</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2353</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2354</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2355</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2356</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2358</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2359</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2360</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2361</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2362</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2363</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2364</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2365</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2366</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2368</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2369</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2370</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1923</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2372</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2373</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2374</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2375</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2376</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2377</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2378</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2379</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2380</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2381</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2382</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2383</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2384</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2385</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2387</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2388</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2389</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2390</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2392</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2393</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2394</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2395</v>
-      </c>
-      <c r="F14" t="s">
-        <v>2396</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1951</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2397</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2398</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1954</v>
-      </c>
-      <c r="F15" t="s">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2400</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2401</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2402</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2403</v>
-      </c>
-      <c r="F16" t="s">
-        <v>2404</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2405</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2406</v>
-      </c>
-      <c r="D17" t="s">
-        <v>2407</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2408</v>
-      </c>
-      <c r="F17" t="s">
-        <v>2409</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2410</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2411</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2412</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2413</v>
-      </c>
-      <c r="F18" t="s">
-        <v>2414</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2415</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2416</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2417</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2418</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2419</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2420</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2421</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2422</v>
-      </c>
-      <c r="F20" t="s">
-        <v>2423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2424</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2425</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2426</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2427</v>
-      </c>
-      <c r="F21" t="s">
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2429</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2430</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2431</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2432</v>
-      </c>
-      <c r="F22" t="s">
-        <v>2433</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2434</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2435</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2436</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2437</v>
-      </c>
-      <c r="F23" t="s">
-        <v>2438</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2439</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2440</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2441</v>
-      </c>
-      <c r="E24" t="s">
-        <v>2442</v>
-      </c>
-      <c r="F24" t="s">
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2444</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2445</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2446</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2447</v>
-      </c>
-      <c r="F25" t="s">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2448</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2449</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2450</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2451</v>
-      </c>
-      <c r="F26" t="s">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2453</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2454</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2455</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2456</v>
-      </c>
-      <c r="F27" t="s">
-        <v>2457</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>156</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2458</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2459</v>
-      </c>
-      <c r="D28" t="s">
-        <v>2460</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2461</v>
-      </c>
-      <c r="F28" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2463</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2464</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2465</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2466</v>
-      </c>
-      <c r="F29" t="s">
-        <v>2467</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2468</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2469</v>
-      </c>
-      <c r="D30" t="s">
-        <v>2470</v>
-      </c>
-      <c r="E30" t="s">
-        <v>2471</v>
-      </c>
-      <c r="F30" t="s">
-        <v>2472</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2473</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2474</v>
-      </c>
-      <c r="D31" t="s">
-        <v>2475</v>
-      </c>
-      <c r="E31" t="s">
-        <v>2476</v>
-      </c>
-      <c r="F31" t="s">
-        <v>2477</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2478</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D32" t="s">
-        <v>2480</v>
-      </c>
-      <c r="E32" t="s">
-        <v>2481</v>
-      </c>
-      <c r="F32" t="s">
-        <v>2482</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>186</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2483</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2484</v>
-      </c>
-      <c r="D33" t="s">
-        <v>2485</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2486</v>
-      </c>
-      <c r="F33" t="s">
-        <v>2487</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2488</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2489</v>
-      </c>
-      <c r="D34" t="s">
-        <v>2490</v>
-      </c>
-      <c r="E34" t="s">
-        <v>2491</v>
-      </c>
-      <c r="F34" t="s">
-        <v>2492</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>198</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2493</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2494</v>
-      </c>
-      <c r="D35" t="s">
-        <v>2495</v>
-      </c>
-      <c r="E35" t="s">
-        <v>2496</v>
-      </c>
-      <c r="F35" t="s">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>204</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2498</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2499</v>
-      </c>
-      <c r="D36" t="s">
-        <v>2500</v>
-      </c>
-      <c r="E36" t="s">
-        <v>2501</v>
-      </c>
-      <c r="F36" t="s">
-        <v>2502</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2503</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2504</v>
-      </c>
-      <c r="D37" t="s">
-        <v>2505</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2506</v>
-      </c>
-      <c r="F37" t="s">
-        <v>2507</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>216</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2508</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2509</v>
-      </c>
-      <c r="D38" t="s">
-        <v>2069</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2070</v>
-      </c>
-      <c r="F38" t="s">
-        <v>2510</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>222</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2511</v>
-      </c>
-      <c r="C39" t="s">
-        <v>2512</v>
-      </c>
-      <c r="D39" t="s">
-        <v>2513</v>
-      </c>
-      <c r="E39" t="s">
-        <v>2514</v>
-      </c>
-      <c r="F39" t="s">
-        <v>2515</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>228</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2516</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2517</v>
-      </c>
-      <c r="D40" t="s">
-        <v>2518</v>
-      </c>
-      <c r="E40" t="s">
-        <v>2519</v>
-      </c>
-      <c r="F40" t="s">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>234</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2521</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2522</v>
-      </c>
-      <c r="D41" t="s">
-        <v>2523</v>
-      </c>
-      <c r="E41" t="s">
-        <v>2524</v>
-      </c>
-      <c r="F41" t="s">
-        <v>2525</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>240</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2526</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2527</v>
-      </c>
-      <c r="D42" t="s">
-        <v>2528</v>
-      </c>
-      <c r="E42" t="s">
-        <v>2529</v>
-      </c>
-      <c r="F42" t="s">
-        <v>2530</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>246</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2531</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2532</v>
-      </c>
-      <c r="D43" t="s">
-        <v>2533</v>
-      </c>
-      <c r="E43" t="s">
-        <v>2534</v>
-      </c>
-      <c r="F43" t="s">
-        <v>2535</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>252</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2536</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2537</v>
-      </c>
-      <c r="D44" t="s">
-        <v>2538</v>
-      </c>
-      <c r="E44" t="s">
-        <v>2539</v>
-      </c>
-      <c r="F44" t="s">
-        <v>2540</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>258</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2541</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2542</v>
-      </c>
-      <c r="D45" t="s">
-        <v>2543</v>
-      </c>
-      <c r="E45" t="s">
-        <v>2544</v>
-      </c>
-      <c r="F45" t="s">
-        <v>2545</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>264</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2546</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2547</v>
-      </c>
-      <c r="D46" t="s">
-        <v>2548</v>
-      </c>
-      <c r="E46" t="s">
-        <v>2549</v>
-      </c>
-      <c r="F46" t="s">
-        <v>2550</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>270</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2551</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2552</v>
-      </c>
-      <c r="D47" t="s">
-        <v>2553</v>
-      </c>
-      <c r="E47" t="s">
-        <v>2114</v>
-      </c>
-      <c r="F47" t="s">
-        <v>2554</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>276</v>
-      </c>
-      <c r="B48" t="s">
-        <v>2555</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2556</v>
-      </c>
-      <c r="D48" t="s">
-        <v>2557</v>
-      </c>
-      <c r="E48" t="s">
-        <v>2558</v>
-      </c>
-      <c r="F48" t="s">
-        <v>2559</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>282</v>
-      </c>
-      <c r="B49" t="s">
-        <v>2560</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2561</v>
-      </c>
-      <c r="D49" t="s">
-        <v>2562</v>
-      </c>
-      <c r="E49" t="s">
-        <v>2563</v>
-      </c>
-      <c r="F49" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>288</v>
-      </c>
-      <c r="B50" t="s">
-        <v>2565</v>
-      </c>
-      <c r="C50" t="s">
-        <v>2566</v>
-      </c>
-      <c r="D50" t="s">
-        <v>2567</v>
-      </c>
-      <c r="E50" t="s">
-        <v>2568</v>
-      </c>
-      <c r="F50" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>294</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2570</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2571</v>
-      </c>
-      <c r="D51" t="s">
-        <v>2133</v>
-      </c>
-      <c r="E51" t="s">
-        <v>2572</v>
-      </c>
-      <c r="F51" t="s">
-        <v>2573</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2574</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2575</v>
-      </c>
-      <c r="D52" t="s">
-        <v>2576</v>
-      </c>
-      <c r="E52" t="s">
-        <v>2577</v>
-      </c>
-      <c r="F52" t="s">
-        <v>2578</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>306</v>
-      </c>
-      <c r="B53" t="s">
-        <v>2579</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2580</v>
-      </c>
-      <c r="D53" t="s">
-        <v>2581</v>
-      </c>
-      <c r="E53" t="s">
-        <v>2145</v>
-      </c>
-      <c r="F53" t="s">
-        <v>2582</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>312</v>
-      </c>
-      <c r="B54" t="s">
-        <v>2583</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2584</v>
-      </c>
-      <c r="D54" t="s">
-        <v>2585</v>
-      </c>
-      <c r="E54" t="s">
-        <v>2586</v>
-      </c>
-      <c r="F54" t="s">
-        <v>2587</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>318</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2588</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2589</v>
-      </c>
-      <c r="D55" t="s">
-        <v>2590</v>
-      </c>
-      <c r="E55" t="s">
-        <v>2591</v>
-      </c>
-      <c r="F55" t="s">
-        <v>2592</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>324</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2593</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2594</v>
-      </c>
-      <c r="D56" t="s">
-        <v>2595</v>
-      </c>
-      <c r="E56" t="s">
-        <v>2596</v>
-      </c>
-      <c r="F56" t="s">
-        <v>2597</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>330</v>
-      </c>
-      <c r="B57" t="s">
-        <v>2161</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2162</v>
-      </c>
-      <c r="D57" t="s">
-        <v>2598</v>
-      </c>
-      <c r="E57" t="s">
-        <v>2599</v>
-      </c>
-      <c r="F57" t="s">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>336</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2601</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2602</v>
-      </c>
-      <c r="D58" t="s">
-        <v>2603</v>
-      </c>
-      <c r="E58" t="s">
-        <v>2604</v>
-      </c>
-      <c r="F58" t="s">
-        <v>2605</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>342</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2606</v>
-      </c>
-      <c r="C59" t="s">
-        <v>2607</v>
-      </c>
-      <c r="D59" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E59" t="s">
-        <v>2609</v>
-      </c>
-      <c r="F59" t="s">
-        <v>2610</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>348</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2611</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2612</v>
-      </c>
-      <c r="D60" t="s">
-        <v>2613</v>
-      </c>
-      <c r="E60" t="s">
-        <v>2614</v>
-      </c>
-      <c r="F60" t="s">
-        <v>2615</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>354</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2181</v>
-      </c>
-      <c r="C61" t="s">
-        <v>2182</v>
-      </c>
-      <c r="D61" t="s">
-        <v>2616</v>
-      </c>
-      <c r="E61" t="s">
-        <v>2184</v>
-      </c>
-      <c r="F61" t="s">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>360</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2617</v>
-      </c>
-      <c r="C62" t="s">
-        <v>2618</v>
-      </c>
-      <c r="D62" t="s">
-        <v>2188</v>
-      </c>
-      <c r="E62" t="s">
-        <v>2619</v>
-      </c>
-      <c r="F62" t="s">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>366</v>
-      </c>
-      <c r="B63" t="s">
-        <v>2620</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2621</v>
-      </c>
-      <c r="D63" t="s">
-        <v>2622</v>
-      </c>
-      <c r="E63" t="s">
-        <v>2623</v>
-      </c>
-      <c r="F63" t="s">
-        <v>2624</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>372</v>
-      </c>
-      <c r="B64" t="s">
-        <v>2625</v>
-      </c>
-      <c r="C64" t="s">
-        <v>2197</v>
-      </c>
-      <c r="D64" t="s">
-        <v>2626</v>
-      </c>
-      <c r="E64" t="s">
-        <v>2627</v>
-      </c>
-      <c r="F64" t="s">
-        <v>2628</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>378</v>
-      </c>
-      <c r="B65" t="s">
-        <v>2629</v>
-      </c>
-      <c r="C65" t="s">
-        <v>381</v>
-      </c>
-      <c r="D65" t="s">
-        <v>2630</v>
-      </c>
-      <c r="E65" t="s">
-        <v>2631</v>
-      </c>
-      <c r="F65" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>384</v>
-      </c>
-      <c r="B66" t="s">
-        <v>2632</v>
-      </c>
-      <c r="C66" t="s">
-        <v>2633</v>
-      </c>
-      <c r="D66" t="s">
-        <v>2634</v>
-      </c>
-      <c r="E66" t="s">
-        <v>2206</v>
-      </c>
-      <c r="F66" t="s">
-        <v>2635</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>390</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2636</v>
-      </c>
-      <c r="C67" t="s">
-        <v>2637</v>
-      </c>
-      <c r="D67" t="s">
-        <v>2210</v>
-      </c>
-      <c r="E67" t="s">
-        <v>2638</v>
-      </c>
-      <c r="F67" t="s">
-        <v>2639</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>396</v>
-      </c>
-      <c r="B68" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C68" t="s">
-        <v>2641</v>
-      </c>
-      <c r="D68" t="s">
-        <v>2642</v>
-      </c>
-      <c r="E68" t="s">
-        <v>2216</v>
-      </c>
-      <c r="F68" t="s">
-        <v>2643</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>402</v>
-      </c>
-      <c r="B69" t="s">
-        <v>2644</v>
-      </c>
-      <c r="C69" t="s">
-        <v>2645</v>
-      </c>
-      <c r="D69" t="s">
-        <v>2646</v>
-      </c>
-      <c r="E69" t="s">
-        <v>2647</v>
-      </c>
-      <c r="F69" t="s">
-        <v>2648</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>408</v>
-      </c>
-      <c r="B70" t="s">
-        <v>2649</v>
-      </c>
-      <c r="C70" t="s">
-        <v>2650</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1769</v>
-      </c>
-      <c r="E70" t="s">
-        <v>2651</v>
-      </c>
-      <c r="F70" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>414</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1772</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1773</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1776</v>
-      </c>
-      <c r="E71" t="s">
-        <v>2226</v>
-      </c>
-      <c r="F71" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>420</v>
-      </c>
-      <c r="B72" t="s">
-        <v>2652</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2653</v>
-      </c>
-      <c r="D72" t="s">
-        <v>2654</v>
-      </c>
-      <c r="E72" t="s">
-        <v>2655</v>
-      </c>
-      <c r="F72" t="s">
-        <v>2656</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>426</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2657</v>
-      </c>
-      <c r="C73" t="s">
-        <v>2658</v>
-      </c>
-      <c r="D73" t="s">
-        <v>2234</v>
-      </c>
-      <c r="E73" t="s">
-        <v>2659</v>
-      </c>
-      <c r="F73" t="s">
-        <v>2660</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>432</v>
-      </c>
-      <c r="B74" t="s">
-        <v>2661</v>
-      </c>
-      <c r="C74" t="s">
-        <v>2662</v>
-      </c>
-      <c r="D74" t="s">
-        <v>2663</v>
-      </c>
-      <c r="E74" t="s">
-        <v>2664</v>
-      </c>
-      <c r="F74" t="s">
-        <v>2665</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>438</v>
-      </c>
-      <c r="B75" t="s">
-        <v>2666</v>
-      </c>
-      <c r="C75" t="s">
-        <v>2667</v>
-      </c>
-      <c r="D75" t="s">
-        <v>2668</v>
-      </c>
-      <c r="E75" t="s">
-        <v>2244</v>
-      </c>
-      <c r="F75" t="s">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>444</v>
-      </c>
-      <c r="B76" t="s">
-        <v>2669</v>
-      </c>
-      <c r="C76" t="s">
-        <v>2670</v>
-      </c>
-      <c r="D76" t="s">
-        <v>2671</v>
-      </c>
-      <c r="E76" t="s">
-        <v>2250</v>
-      </c>
-      <c r="F76" t="s">
-        <v>2672</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>450</v>
-      </c>
-      <c r="B77" t="s">
-        <v>2673</v>
-      </c>
-      <c r="C77" t="s">
-        <v>2674</v>
-      </c>
-      <c r="D77" t="s">
-        <v>2675</v>
-      </c>
-      <c r="E77" t="s">
-        <v>2676</v>
-      </c>
-      <c r="F77" t="s">
-        <v>2677</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>456</v>
-      </c>
-      <c r="B78" t="s">
-        <v>2257</v>
-      </c>
-      <c r="C78" t="s">
-        <v>2678</v>
-      </c>
-      <c r="D78" t="s">
-        <v>2679</v>
-      </c>
-      <c r="E78" t="s">
-        <v>2680</v>
-      </c>
-      <c r="F78" t="s">
-        <v>2681</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>462</v>
-      </c>
-      <c r="B79" t="s">
-        <v>2682</v>
-      </c>
-      <c r="C79" t="s">
-        <v>2683</v>
-      </c>
-      <c r="D79" t="s">
-        <v>2264</v>
-      </c>
-      <c r="E79" t="s">
-        <v>2684</v>
-      </c>
-      <c r="F79" t="s">
-        <v>2685</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>468</v>
-      </c>
-      <c r="B80" t="s">
-        <v>2686</v>
-      </c>
-      <c r="C80" t="s">
-        <v>2687</v>
-      </c>
-      <c r="D80" t="s">
-        <v>2688</v>
-      </c>
-      <c r="E80" t="s">
-        <v>2689</v>
-      </c>
-      <c r="F80" t="s">
-        <v>2690</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>474</v>
-      </c>
-      <c r="B81" t="s">
-        <v>2691</v>
-      </c>
-      <c r="C81" t="s">
-        <v>2692</v>
-      </c>
-      <c r="D81" t="s">
-        <v>2693</v>
-      </c>
-      <c r="E81" t="s">
-        <v>2275</v>
-      </c>
-      <c r="F81" t="s">
-        <v>2694</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>480</v>
-      </c>
-      <c r="B82" t="s">
-        <v>2277</v>
-      </c>
-      <c r="C82" t="s">
-        <v>2695</v>
-      </c>
-      <c r="D82" t="s">
-        <v>2696</v>
-      </c>
-      <c r="E82" t="s">
-        <v>2697</v>
-      </c>
-      <c r="F82" t="s">
-        <v>2698</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>486</v>
-      </c>
-      <c r="B83" t="s">
-        <v>2699</v>
-      </c>
-      <c r="C83" t="s">
-        <v>2700</v>
-      </c>
-      <c r="D83" t="s">
-        <v>2701</v>
-      </c>
-      <c r="E83" t="s">
-        <v>2702</v>
-      </c>
-      <c r="F83" t="s">
-        <v>2703</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>492</v>
-      </c>
-      <c r="B84" t="s">
-        <v>2704</v>
-      </c>
-      <c r="C84" t="s">
-        <v>2288</v>
-      </c>
-      <c r="D84" t="s">
-        <v>2289</v>
-      </c>
-      <c r="E84" t="s">
-        <v>2705</v>
-      </c>
-      <c r="F84" t="s">
-        <v>2706</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>498</v>
-      </c>
-      <c r="B85" t="s">
-        <v>2707</v>
-      </c>
-      <c r="C85" t="s">
-        <v>2708</v>
-      </c>
-      <c r="D85" t="s">
-        <v>2709</v>
-      </c>
-      <c r="E85" t="s">
-        <v>2710</v>
-      </c>
-      <c r="F85" t="s">
-        <v>2711</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>504</v>
-      </c>
-      <c r="B86" t="s">
-        <v>2712</v>
-      </c>
-      <c r="C86" t="s">
-        <v>2713</v>
-      </c>
-      <c r="D86" t="s">
-        <v>2714</v>
-      </c>
-      <c r="E86" t="s">
-        <v>2715</v>
-      </c>
-      <c r="F86" t="s">
-        <v>2716</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>510</v>
-      </c>
-      <c r="B87" t="s">
-        <v>2717</v>
-      </c>
-      <c r="C87" t="s">
-        <v>2718</v>
-      </c>
-      <c r="D87" t="s">
-        <v>2719</v>
-      </c>
-      <c r="E87" t="s">
-        <v>2720</v>
-      </c>
-      <c r="F87" t="s">
-        <v>2721</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>516</v>
-      </c>
-      <c r="B88" t="s">
-        <v>2722</v>
-      </c>
-      <c r="C88" t="s">
-        <v>2723</v>
-      </c>
-      <c r="D88" t="s">
-        <v>2724</v>
-      </c>
-      <c r="E88" t="s">
-        <v>2308</v>
-      </c>
-      <c r="F88" t="s">
-        <v>2309</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>522</v>
-      </c>
-      <c r="B89" t="s">
-        <v>2725</v>
-      </c>
-      <c r="C89" t="s">
-        <v>2726</v>
-      </c>
-      <c r="D89" t="s">
-        <v>2727</v>
-      </c>
-      <c r="E89" t="s">
-        <v>2728</v>
-      </c>
-      <c r="F89" t="s">
-        <v>2729</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>528</v>
-      </c>
-      <c r="B90" t="s">
-        <v>2315</v>
-      </c>
-      <c r="C90" t="s">
-        <v>2730</v>
-      </c>
-      <c r="D90" t="s">
-        <v>2731</v>
-      </c>
-      <c r="E90" t="s">
-        <v>2732</v>
-      </c>
-      <c r="F90" t="s">
-        <v>2733</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>534</v>
-      </c>
-      <c r="B91" t="s">
-        <v>2734</v>
-      </c>
-      <c r="C91" t="s">
-        <v>2320</v>
-      </c>
-      <c r="D91" t="s">
-        <v>2735</v>
-      </c>
-      <c r="E91" t="s">
-        <v>2736</v>
-      </c>
-      <c r="F91" t="s">
-        <v>2323</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>540</v>
-      </c>
-      <c r="B92" t="s">
-        <v>2737</v>
-      </c>
-      <c r="C92" t="s">
-        <v>2738</v>
-      </c>
-      <c r="D92" t="s">
-        <v>2739</v>
-      </c>
-      <c r="E92" t="s">
-        <v>2328</v>
-      </c>
-      <c r="F92" t="s">
-        <v>2329</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>546</v>
-      </c>
-      <c r="B93" t="s">
-        <v>2740</v>
-      </c>
-      <c r="C93" t="s">
-        <v>2741</v>
-      </c>
-      <c r="D93" t="s">
-        <v>2742</v>
-      </c>
-      <c r="E93" t="s">
-        <v>2743</v>
-      </c>
-      <c r="F93" t="s">
-        <v>2332</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Broker_Analysis.xlsx
+++ b/Broker_Analysis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="2025-06-17" sheetId="1" r:id="rId1"/>
+    <sheet name="2025-06-18" sheetId="1" r:id="rId1"/>
     <sheet name="2025-06-16" sheetId="2" r:id="rId2"/>
     <sheet name="2025-06-15" sheetId="3" r:id="rId3"/>
     <sheet name="2025-06-12" sheetId="4" r:id="rId4"/>
@@ -442,19 +442,19 @@
         <v>B1</v>
       </c>
       <c r="B2" t="str">
-        <v>CHDC/12651/2,605.46</v>
+        <v>NRN/17001/2,027.74</v>
       </c>
       <c r="C2" t="str">
-        <v>RADHI/37986/807.48</v>
+        <v>CHDC/12676/2,605.40</v>
       </c>
       <c r="D2" t="str">
-        <v>NRN/15193/2,030.46</v>
+        <v>RADHI/38877/809.05</v>
       </c>
       <c r="E2" t="str">
-        <v>NIFRA/94673/283.11</v>
+        <v>NIFRA/95882/283.06</v>
       </c>
       <c r="F2" t="str">
-        <v>SHIVM/50743/521.51</v>
+        <v>SHIVM/46246/521.29</v>
       </c>
     </row>
     <row r="3">
@@ -462,19 +462,19 @@
         <v>B3</v>
       </c>
       <c r="B3" t="str">
-        <v>SHIVM/20067/527.69</v>
+        <v>OMPL/7080/1,565.30</v>
       </c>
       <c r="C3" t="str">
-        <v>OMPL/6830/1,568.73</v>
+        <v>SHIVM/19743/526.52</v>
       </c>
       <c r="D3" t="str">
         <v>HLI/19806/405.08</v>
       </c>
       <c r="E3" t="str">
-        <v>MBL/34448/220.88</v>
+        <v>MBL/35858/220.82</v>
       </c>
       <c r="F3" t="str">
-        <v>HIDCLP/26056/217.20</v>
+        <v>HIDCLP/25556/217.19</v>
       </c>
     </row>
     <row r="4">
@@ -482,19 +482,19 @@
         <v>B4</v>
       </c>
       <c r="B4" t="str">
-        <v>SARBTM/88309/844.08</v>
+        <v>SARBTM/87176/844.05</v>
       </c>
       <c r="C4" t="str">
-        <v>HRL/40905/933.53</v>
+        <v>GMFIL/78775/490.03</v>
       </c>
       <c r="D4" t="str">
-        <v>GMFIL/57843/490.92</v>
+        <v>UMRH/44636/610.11</v>
       </c>
       <c r="E4" t="str">
-        <v>UMRH/44436/610.21</v>
+        <v>HRL/20951/932.75</v>
       </c>
       <c r="F4" t="str">
-        <v>FMDBL/25833/750.10</v>
+        <v>FMDBL/26224/750.27</v>
       </c>
     </row>
     <row r="5">
@@ -502,19 +502,19 @@
         <v>B5</v>
       </c>
       <c r="B5" t="str">
-        <v>HIDCLP/106453/211.79</v>
+        <v>HIDCLP/110522/212.11</v>
       </c>
       <c r="C5" t="str">
-        <v>CHDC/4906/2,610.10</v>
+        <v>CHDC/6013/2,604.81</v>
       </c>
       <c r="D5" t="str">
-        <v>HRL/11763/954.73</v>
+        <v>HRL/11764/954.30</v>
       </c>
       <c r="E5" t="str">
-        <v>NGPL/21315/392.76</v>
+        <v>NGPL/19361/392.99</v>
       </c>
       <c r="F5" t="str">
-        <v>LBBL/16027/446.39</v>
+        <v>RADHI/9254/794.46</v>
       </c>
     </row>
     <row r="6">
@@ -522,19 +522,19 @@
         <v>B6</v>
       </c>
       <c r="B6" t="str">
-        <v>NRIC/511017/1,296.17</v>
+        <v>NRIC/509644/1,296.10</v>
       </c>
       <c r="C6" t="str">
-        <v>UPCL/164472/447.41</v>
+        <v>UPCL/161522/447.47</v>
       </c>
       <c r="D6" t="str">
-        <v>RIDI/182082/278.36</v>
+        <v>RIDI/171430/278.43</v>
       </c>
       <c r="E6" t="str">
-        <v>HRL/49553/946.63</v>
+        <v>HRL/48336/944.91</v>
       </c>
       <c r="F6" t="str">
-        <v>SHPC/56628/606.37</v>
+        <v>SHPC/70172/610.00</v>
       </c>
     </row>
     <row r="7">
@@ -542,19 +542,19 @@
         <v>B7</v>
       </c>
       <c r="B7" t="str">
-        <v>NRN/16190/2,047.66</v>
+        <v>NRN/16146/2,047.66</v>
       </c>
       <c r="C7" t="str">
-        <v>CHDC/10617/2,591.01</v>
+        <v>CHDC/10758/2,590.68</v>
       </c>
       <c r="D7" t="str">
-        <v>RADHI/30625/793.62</v>
+        <v>RADHI/29453/793.82</v>
       </c>
       <c r="E7" t="str">
-        <v>GHL/44550/257.68</v>
+        <v>SHPC/26755/622.22</v>
       </c>
       <c r="F7" t="str">
-        <v>SIFC/17925/575.31</v>
+        <v>GHL/60743/257.76</v>
       </c>
     </row>
     <row r="8">
@@ -562,19 +562,19 @@
         <v>B8</v>
       </c>
       <c r="B8" t="str">
-        <v>NGPL/239238/406.30</v>
+        <v>NGPL/320160/406.99</v>
       </c>
       <c r="C8" t="str">
-        <v>SADBL/68270/426.71</v>
+        <v>SADBL/67564/426.61</v>
       </c>
       <c r="D8" t="str">
-        <v>HIDCLP/138553/214.09</v>
+        <v>LSL/107189/223.82</v>
       </c>
       <c r="E8" t="str">
-        <v>LSL/107199/223.82</v>
+        <v>SAHAS/28257/557.30</v>
       </c>
       <c r="F8" t="str">
-        <v>SAHAS/38589/557.31</v>
+        <v>HIDCLP/76756/214.12</v>
       </c>
     </row>
     <row r="9">
@@ -582,19 +582,19 @@
         <v>B10</v>
       </c>
       <c r="B9" t="str">
-        <v>HIDCLP/74910/213.64</v>
+        <v>HIDCLP/73210/213.65</v>
       </c>
       <c r="C9" t="str">
-        <v>SHPC/16847/628.80</v>
+        <v>SHPC/21967/639.26</v>
       </c>
       <c r="D9" t="str">
-        <v>CIT/3631/1,920.87</v>
+        <v>CIT/3688/1,920.53</v>
       </c>
       <c r="E9" t="str">
-        <v>NTC/7525/871.57</v>
+        <v>NTC/7545/871.51</v>
       </c>
       <c r="F9" t="str">
-        <v>CHCL/9748/576.51</v>
+        <v>CHCL/10280/576.52</v>
       </c>
     </row>
     <row r="10">
@@ -602,19 +602,19 @@
         <v>B11</v>
       </c>
       <c r="B10" t="str">
-        <v>NABIL/16539/497.00</v>
+        <v>NABIL/16144/497.00</v>
       </c>
       <c r="C10" t="str">
-        <v>CIT/3616/1,907.86</v>
+        <v>CIT/3631/1,907.81</v>
       </c>
       <c r="D10" t="str">
-        <v>RHPL/15456/413.63</v>
+        <v>RHPL/15276/413.64</v>
       </c>
       <c r="E10" t="str">
         <v>ALICL/8006/657.38</v>
       </c>
       <c r="F10" t="str">
-        <v>SINDU/6536/842.01</v>
+        <v>SONA/10096/459.35</v>
       </c>
     </row>
     <row r="11">
@@ -622,19 +622,19 @@
         <v>B13</v>
       </c>
       <c r="B11" t="str">
-        <v>UMHL/26133/520.49</v>
+        <v>UMHL/34961/523.89</v>
       </c>
       <c r="C11" t="str">
-        <v>NGPL/31759/392.88</v>
+        <v>NGPL/31179/393.57</v>
       </c>
       <c r="D11" t="str">
-        <v>CORBL/3953/2,541.59</v>
+        <v>HRL/10404/968.30</v>
       </c>
       <c r="E11" t="str">
-        <v>HRL/8232/972.72</v>
+        <v>CORBL/3903/2,541.59</v>
       </c>
       <c r="F11" t="str">
-        <v>CREST/3208/1,895.82</v>
+        <v>SHPC/12386/620.31</v>
       </c>
     </row>
     <row r="12">
@@ -642,19 +642,19 @@
         <v>B14</v>
       </c>
       <c r="B12" t="str">
-        <v>CGH/78690/950.06</v>
+        <v>CGH/65250/955.42</v>
       </c>
       <c r="C12" t="str">
-        <v>HRL/34999/941.25</v>
+        <v>HRL/34995/940.73</v>
       </c>
       <c r="D12" t="str">
-        <v>CHCL/49038/576.70</v>
+        <v>BARUN/67146/384.99</v>
       </c>
       <c r="E12" t="str">
-        <v>HIDCLP/137258/211.44</v>
+        <v>CHCL/42142/576.66</v>
       </c>
       <c r="F12" t="str">
-        <v>BARUN/59339/385.73</v>
+        <v>SAHAS/48843/538.70</v>
       </c>
     </row>
     <row r="13">
@@ -662,19 +662,19 @@
         <v>B16</v>
       </c>
       <c r="B13" t="str">
-        <v>RADHI/125150/817.92</v>
+        <v>RADHI/114828/818.05</v>
       </c>
       <c r="C13" t="str">
-        <v>CHDC/32796/2,689.43</v>
+        <v>CHDC/34305/2,680.31</v>
       </c>
       <c r="D13" t="str">
-        <v>SHL/66506/570.41</v>
+        <v>SHL/69604/570.97</v>
       </c>
       <c r="E13" t="str">
-        <v>NMIC/17206/1,835.09</v>
+        <v>NMIC/17161/1,834.74</v>
       </c>
       <c r="F13" t="str">
-        <v>CREST/17108/1,802.74</v>
+        <v>CREST/17118/1,801.00</v>
       </c>
     </row>
     <row r="14">
@@ -682,19 +682,19 @@
         <v>B17</v>
       </c>
       <c r="B14" t="str">
-        <v>NGPL/421159/401.04</v>
+        <v>NGPL/468845/401.68</v>
       </c>
       <c r="C14" t="str">
-        <v>HIDCLP/710498/215.97</v>
+        <v>HIDCLP/710188/216.03</v>
       </c>
       <c r="D14" t="str">
-        <v>HIDCL/204027/312.46</v>
+        <v>HIDCL/208968/312.21</v>
       </c>
       <c r="E14" t="str">
-        <v>MEN/91906/616.54</v>
+        <v>MEN/97946/617.29</v>
       </c>
       <c r="F14" t="str">
-        <v>SADBL/73062/426.43</v>
+        <v>SADBL/73122/426.41</v>
       </c>
     </row>
     <row r="15">
@@ -705,16 +705,16 @@
         <v>SPIL/23534/814.90</v>
       </c>
       <c r="C15" t="str">
-        <v>RADHI/16965/801.86</v>
+        <v>RADHI/15264/802.45</v>
       </c>
       <c r="D15" t="str">
-        <v>NLICL/19263/611.26</v>
+        <v>NLICL/19110/611.26</v>
       </c>
       <c r="E15" t="str">
-        <v>NLIC/12705/752.94</v>
+        <v>NRN/5527/2,032.72</v>
       </c>
       <c r="F15" t="str">
-        <v>NRN/4527/2,040.05</v>
+        <v>NLIC/12711/752.90</v>
       </c>
     </row>
     <row r="16">
@@ -722,19 +722,19 @@
         <v>B19</v>
       </c>
       <c r="B16" t="str">
-        <v>BPCL/107649/653.05</v>
+        <v>BPCL/74978/654.94</v>
       </c>
       <c r="C16" t="str">
-        <v>CHDC/9441/2,661.60</v>
+        <v>CHDC/9291/2,661.60</v>
       </c>
       <c r="D16" t="str">
-        <v>LBBL/31857/464.86</v>
+        <v>SPDL/60891/414.75</v>
       </c>
       <c r="E16" t="str">
-        <v>NADEP/15366/850.57</v>
+        <v>LBBL/30857/464.86</v>
       </c>
       <c r="F16" t="str">
-        <v>OMPL/6075/1,760.61</v>
+        <v>SAPDBL/13744/993.74</v>
       </c>
     </row>
     <row r="17">
@@ -742,19 +742,19 @@
         <v>B20</v>
       </c>
       <c r="B17" t="str">
-        <v>CHDC/7616/2,572.49</v>
+        <v>CHDC/7815/2,571.94</v>
       </c>
       <c r="C17" t="str">
+        <v>SHIVM/35099/522.59</v>
+      </c>
+      <c r="D17" t="str">
+        <v>NRN/8565/2,011.80</v>
+      </c>
+      <c r="E17" t="str">
         <v>SHPC/27806/616.32</v>
       </c>
-      <c r="D17" t="str">
-        <v>SHIVM/30099/523.00</v>
-      </c>
-      <c r="E17" t="str">
-        <v>RADHI/19815/798.59</v>
-      </c>
       <c r="F17" t="str">
-        <v>NRIC/12257/1,266.54</v>
+        <v>NRIC/12257/1,266.04</v>
       </c>
     </row>
     <row r="18">
@@ -762,19 +762,19 @@
         <v>B21</v>
       </c>
       <c r="B18" t="str">
-        <v>SHPC/49389/611.71</v>
+        <v>SHPC/56015/614.40</v>
       </c>
       <c r="C18" t="str">
-        <v>SHIVM/58892/521.47</v>
+        <v>SHIVM/66612/520.58</v>
       </c>
       <c r="D18" t="str">
-        <v>HIDCLP/79377/218.04</v>
+        <v>HIDCLP/85843/217.97</v>
       </c>
       <c r="E18" t="str">
-        <v>SMHL/13436/1,059.24</v>
+        <v>SMHL/15526/1,056.27</v>
       </c>
       <c r="F18" t="str">
-        <v>HIDCL/42766/306.65</v>
+        <v>HIDCL/42417/306.59</v>
       </c>
     </row>
     <row r="19">
@@ -782,19 +782,19 @@
         <v>B22</v>
       </c>
       <c r="B19" t="str">
-        <v>UPCL/84086/455.51</v>
+        <v>UPCL/84353/455.48</v>
       </c>
       <c r="C19" t="str">
-        <v>SHIVM/56618/525.49</v>
+        <v>SHIVM/59854/525.01</v>
       </c>
       <c r="D19" t="str">
-        <v>KPCL/40467/553.90</v>
+        <v>GHL/77996/259.77</v>
       </c>
       <c r="E19" t="str">
-        <v>GHL/79129/259.78</v>
+        <v>KPCL/36089/553.90</v>
       </c>
       <c r="F19" t="str">
-        <v>UNHPL/31890/390.15</v>
+        <v>BARUN/19209/451.16</v>
       </c>
     </row>
     <row r="20">
@@ -802,19 +802,19 @@
         <v>B25</v>
       </c>
       <c r="B20" t="str">
-        <v>KBL/197172/214.96</v>
+        <v>SHEL/151144/298.69</v>
       </c>
       <c r="C20" t="str">
-        <v>NGPL/81830/401.50</v>
+        <v>NGPL/100883/402.07</v>
       </c>
       <c r="D20" t="str">
-        <v>HIDCL/66797/307.75</v>
+        <v>KBL/198148/214.92</v>
       </c>
       <c r="E20" t="str">
-        <v>NRN/8996/2,048.96</v>
+        <v>HIDCL/77062/307.45</v>
       </c>
       <c r="F20" t="str">
-        <v>SHPC/25829/621.50</v>
+        <v>NRN/10264/2,044.44</v>
       </c>
     </row>
     <row r="21">
@@ -822,19 +822,19 @@
         <v>B26</v>
       </c>
       <c r="B21" t="str">
-        <v>RADHI/149406/803.35</v>
+        <v>RADHI/146480/803.69</v>
       </c>
       <c r="C21" t="str">
-        <v>LBBL/59777/455.29</v>
+        <v>LBBL/61335/454.92</v>
       </c>
       <c r="D21" t="str">
-        <v>NGPL/60764/392.27</v>
+        <v>SHIVM/38757/522.74</v>
       </c>
       <c r="E21" t="str">
-        <v>GHL/66790/257.80</v>
+        <v>GHL/65256/257.81</v>
       </c>
       <c r="F21" t="str">
-        <v>SHIVM/31737/523.26</v>
+        <v>NLIC/20910/757.07</v>
       </c>
     </row>
     <row r="22">
@@ -842,19 +842,19 @@
         <v>B28</v>
       </c>
       <c r="B22" t="str">
-        <v>SAHAS/106346/535.50</v>
+        <v>SAHAS/122691/536.64</v>
       </c>
       <c r="C22" t="str">
-        <v>NIFRA/122359/286.06</v>
+        <v>BPCL/63409/691.45</v>
       </c>
       <c r="D22" t="str">
+        <v>NIFRA/122395/286.06</v>
+      </c>
+      <c r="E22" t="str">
         <v>MNBBL/85315/361.17</v>
       </c>
-      <c r="E22" t="str">
-        <v>BPCL/41690/671.80</v>
-      </c>
       <c r="F22" t="str">
-        <v>UNHPL/61630/399.76</v>
+        <v>CORBL/9680/2,422.33</v>
       </c>
     </row>
     <row r="23">
@@ -862,19 +862,19 @@
         <v>B29</v>
       </c>
       <c r="B23" t="str">
-        <v>BPCL/119112/701.68</v>
+        <v>BPCL/163371/730.19</v>
       </c>
       <c r="C23" t="str">
-        <v>CHDC/9649/2,574.66</v>
+        <v>GRDBL/19732/1,267.40</v>
       </c>
       <c r="D23" t="str">
-        <v>GRDBL/19732/1,267.53</v>
+        <v>CHDC/6159/2,574.40</v>
       </c>
       <c r="E23" t="str">
-        <v>AHPC/45180/296.58</v>
+        <v>AKPL/52942/275.73</v>
       </c>
       <c r="F23" t="str">
-        <v>SHIVM/24946/523.64</v>
+        <v>SHL/22798/582.64</v>
       </c>
     </row>
     <row r="24">
@@ -882,19 +882,19 @@
         <v>B32</v>
       </c>
       <c r="B24" t="str">
-        <v>CHDC/31657/2,588.19</v>
+        <v>CHDC/33708/2,586.71</v>
       </c>
       <c r="C24" t="str">
-        <v>SHL/95313/581.47</v>
+        <v>CGH/83546/992.22</v>
       </c>
       <c r="D24" t="str">
-        <v>CGH/55375/986.15</v>
+        <v>SHL/79913/581.55</v>
       </c>
       <c r="E24" t="str">
-        <v>NRIC/41461/1,280.04</v>
+        <v>NRIC/34050/1,277.37</v>
       </c>
       <c r="F24" t="str">
-        <v>BARUN/82478/385.46</v>
+        <v>BARUN/73335/385.42</v>
       </c>
     </row>
     <row r="25">
@@ -902,19 +902,19 @@
         <v>B33</v>
       </c>
       <c r="B25" t="str">
-        <v>SBL/594848/297.45</v>
+        <v>SBL/593671/297.45</v>
       </c>
       <c r="C25" t="str">
-        <v>CHCL/143180/569.39</v>
+        <v>UPCL/189321/455.75</v>
       </c>
       <c r="D25" t="str">
-        <v>UPCL/163551/455.99</v>
+        <v>EBL/86300/652.66</v>
       </c>
       <c r="E25" t="str">
-        <v>EBL/86300/652.66</v>
+        <v>CHCL/87473/569.46</v>
       </c>
       <c r="F25" t="str">
-        <v>CBBL/39352/905.26</v>
+        <v>CBBL/36915/905.25</v>
       </c>
     </row>
     <row r="26">
@@ -922,19 +922,19 @@
         <v>B34</v>
       </c>
       <c r="B26" t="str">
-        <v>SHPC/276996/617.57</v>
+        <v>SHPC/277571/618.84</v>
       </c>
       <c r="C26" t="str">
-        <v>RADHI/101537/799.44</v>
+        <v>RADHI/93431/800.22</v>
       </c>
       <c r="D26" t="str">
-        <v>HRL/69934/959.92</v>
+        <v>HRL/74163/957.82</v>
       </c>
       <c r="E26" t="str">
-        <v>SHIVM/91345/523.31</v>
+        <v>SHIVM/96995/522.92</v>
       </c>
       <c r="F26" t="str">
-        <v>API/136799/301.66</v>
+        <v>API/148177/301.51</v>
       </c>
     </row>
     <row r="27">
@@ -942,19 +942,19 @@
         <v>B35</v>
       </c>
       <c r="B27" t="str">
-        <v>GBIME/275543/239.97</v>
+        <v>GBIME/280014/239.88</v>
       </c>
       <c r="C27" t="str">
-        <v>UPCL/148472/446.16</v>
+        <v>UPCL/150839/446.24</v>
       </c>
       <c r="D27" t="str">
-        <v>SBL/114837/299.48</v>
+        <v>SBL/109353/299.48</v>
       </c>
       <c r="E27" t="str">
-        <v>HURJA/102485/263.27</v>
+        <v>HURJA/99402/263.36</v>
       </c>
       <c r="F27" t="str">
-        <v>BARUN/43967/400.81</v>
+        <v>SHIVM/46143/521.80</v>
       </c>
     </row>
     <row r="28">
@@ -962,19 +962,19 @@
         <v>B36</v>
       </c>
       <c r="B28" t="str">
-        <v>SBI/167938/411.44</v>
+        <v>SBI/168131/411.41</v>
       </c>
       <c r="C28" t="str">
-        <v>SPDL/57930/417.83</v>
+        <v>SPDL/66194/420.59</v>
       </c>
       <c r="D28" t="str">
-        <v>SHPC/29605/619.97</v>
+        <v>SHPC/30900/621.50</v>
       </c>
       <c r="E28" t="str">
-        <v>BARUN/35593/394.73</v>
+        <v>BARUN/38633/394.03</v>
       </c>
       <c r="F28" t="str">
-        <v>KBL/60103/214.24</v>
+        <v>CHCL/24692/557.03</v>
       </c>
     </row>
     <row r="29">
@@ -982,19 +982,19 @@
         <v>B37</v>
       </c>
       <c r="B29" t="str">
+        <v>MEN/10374/597.24</v>
+      </c>
+      <c r="C29" t="str">
         <v>SHL/9625/586.54</v>
-      </c>
-      <c r="C29" t="str">
-        <v>MEN/9964/596.58</v>
       </c>
       <c r="D29" t="str">
         <v>NRN/2128/2,068.32</v>
       </c>
       <c r="E29" t="str">
+        <v>SINDU/4755/824.60</v>
+      </c>
+      <c r="F29" t="str">
         <v>BHPL/3885/951.93</v>
-      </c>
-      <c r="F29" t="str">
-        <v>OMPL/1973/1,680.83</v>
       </c>
     </row>
     <row r="30">
@@ -1002,19 +1002,19 @@
         <v>B38</v>
       </c>
       <c r="B30" t="str">
-        <v>BPCL/268558/635.68</v>
+        <v>BPCL/279194/642.43</v>
       </c>
       <c r="C30" t="str">
-        <v>SHIVM/84849/523.03</v>
+        <v>SHIVM/84372/522.68</v>
       </c>
       <c r="D30" t="str">
-        <v>MBJC/97589/330.78</v>
+        <v>MBJC/129488/330.43</v>
       </c>
       <c r="E30" t="str">
-        <v>HPPL/62976/521.05</v>
+        <v>HPPL/59392/522.01</v>
       </c>
       <c r="F30" t="str">
-        <v>BARUN/60224/405.48</v>
+        <v>BARUN/64077/403.67</v>
       </c>
     </row>
     <row r="31">
@@ -1022,19 +1022,19 @@
         <v>B39</v>
       </c>
       <c r="B31" t="str">
-        <v>RADHI/305529/815.28</v>
+        <v>RADHI/312955/816.10</v>
       </c>
       <c r="C31" t="str">
-        <v>NRN/33291/2,055.54</v>
+        <v>NRN/32613/2,055.48</v>
       </c>
       <c r="D31" t="str">
-        <v>HPPL/99648/551.13</v>
+        <v>HPPL/102893/551.67</v>
       </c>
       <c r="E31" t="str">
-        <v>UPCL/128582/440.09</v>
+        <v>UPCL/112988/440.23</v>
       </c>
       <c r="F31" t="str">
-        <v>UMHL/37775/521.61</v>
+        <v>AKPL/71118/278.94</v>
       </c>
     </row>
     <row r="32">
@@ -1042,16 +1042,16 @@
         <v>B40</v>
       </c>
       <c r="B32" t="str">
-        <v>BPCL/74120/623.53</v>
+        <v>BPCL/65447/623.53</v>
       </c>
       <c r="C32" t="str">
-        <v>SANIMA/46498/318.19</v>
+        <v>SANIMA/45688/318.19</v>
       </c>
       <c r="D32" t="str">
-        <v>SHIVM/24528/522.19</v>
+        <v>SHIVM/24148/522.04</v>
       </c>
       <c r="E32" t="str">
-        <v>EBL/15302/645.59</v>
+        <v>CIT/5790/1,898.18</v>
       </c>
       <c r="F32" t="str">
         <v>LSL/40897/216.24</v>
@@ -1062,19 +1062,19 @@
         <v>B41</v>
       </c>
       <c r="B33" t="str">
-        <v>SAPDBL/147244/1,031.89</v>
+        <v>SAPDBL/147607/1,031.78</v>
       </c>
       <c r="C33" t="str">
-        <v>RADHI/60536/808.01</v>
+        <v>RADHI/58889/809.09</v>
       </c>
       <c r="D33" t="str">
-        <v>NMIC/18457/1,859.31</v>
+        <v>NMIC/18552/1,857.48</v>
       </c>
       <c r="E33" t="str">
-        <v>SHIVM/49740/522.57</v>
+        <v>SHIVM/52449/522.12</v>
       </c>
       <c r="F33" t="str">
-        <v>BARUN/37178/386.75</v>
+        <v>BARUN/34641/386.65</v>
       </c>
     </row>
     <row r="34">
@@ -1082,19 +1082,19 @@
         <v>B42</v>
       </c>
       <c r="B34" t="str">
-        <v>GBIME/1041235/240.28</v>
+        <v>GBIME/1048791/240.23</v>
       </c>
       <c r="C34" t="str">
-        <v>MERO/111410/746.03</v>
+        <v>MERO/187974/746.04</v>
       </c>
       <c r="D34" t="str">
-        <v>NRN/40149/2,022.06</v>
+        <v>NRN/38832/2,022.02</v>
       </c>
       <c r="E34" t="str">
-        <v>SHIVM/123670/521.85</v>
+        <v>SHIVM/124082/521.62</v>
       </c>
       <c r="F34" t="str">
-        <v>BARUN/106181/390.00</v>
+        <v>HRL/36957/956.09</v>
       </c>
     </row>
     <row r="35">
@@ -1102,19 +1102,19 @@
         <v>B43</v>
       </c>
       <c r="B35" t="str">
-        <v>SPDL/76497/424.08</v>
+        <v>SPDL/56029/425.22</v>
       </c>
       <c r="C35" t="str">
-        <v>SPIL/25918/824.34</v>
+        <v>SPIL/25941/824.30</v>
       </c>
       <c r="D35" t="str">
         <v>USLB/8379/1,979.59</v>
       </c>
       <c r="E35" t="str">
-        <v>SHIVM/31485/522.72</v>
+        <v>SHIVM/32377/521.48</v>
       </c>
       <c r="F35" t="str">
-        <v>NIL/19018/691.78</v>
+        <v>NIL/18088/691.69</v>
       </c>
     </row>
     <row r="36">
@@ -1122,19 +1122,19 @@
         <v>B44</v>
       </c>
       <c r="B36" t="str">
-        <v>CHCL/226289/568.87</v>
+        <v>CHCL/287005/569.52</v>
       </c>
       <c r="C36" t="str">
-        <v>NIFRA/248256/284.47</v>
+        <v>NIFRA/281847/284.03</v>
       </c>
       <c r="D36" t="str">
-        <v>EBL/102902/651.07</v>
+        <v>EBL/97754/651.06</v>
       </c>
       <c r="E36" t="str">
-        <v>UPCL/124691/451.51</v>
+        <v>UPCL/124409/451.54</v>
       </c>
       <c r="F36" t="str">
-        <v>HRL/41643/958.63</v>
+        <v>HIDCL/150846/306.90</v>
       </c>
     </row>
     <row r="37">
@@ -1142,19 +1142,19 @@
         <v>B45</v>
       </c>
       <c r="B37" t="str">
-        <v>MEN/189326/601.41</v>
+        <v>MEN/214101/601.83</v>
       </c>
       <c r="C37" t="str">
-        <v>GBIME/256661/226.34</v>
+        <v>GBIME/258164/226.36</v>
       </c>
       <c r="D37" t="str">
-        <v>SHL/94592/574.26</v>
+        <v>SHL/92683/574.35</v>
       </c>
       <c r="E37" t="str">
-        <v>CZBIL/191207/216.09</v>
+        <v>CZBIL/190222/216.07</v>
       </c>
       <c r="F37" t="str">
-        <v>NRN/16793/2,046.07</v>
+        <v>NRN/17481/2,044.36</v>
       </c>
     </row>
     <row r="38">
@@ -1162,19 +1162,19 @@
         <v>B46</v>
       </c>
       <c r="B38" t="str">
-        <v>HRL/19877/938.93</v>
+        <v>HRL/20125/937.66</v>
       </c>
       <c r="C38" t="str">
-        <v>SHPC/28828/617.10</v>
+        <v>SHPC/29908/617.71</v>
       </c>
       <c r="D38" t="str">
-        <v>SARBTM/13612/840.42</v>
+        <v>AHPC/37001/303.14</v>
       </c>
       <c r="E38" t="str">
-        <v>AHPC/34472/303.42</v>
+        <v>SARBTM/10612/840.42</v>
       </c>
       <c r="F38" t="str">
-        <v>MEN/13946/609.39</v>
+        <v>MEN/14205/609.66</v>
       </c>
     </row>
     <row r="39">
@@ -1182,19 +1182,19 @@
         <v>B47</v>
       </c>
       <c r="B39" t="str">
-        <v>AKPL/154204/274.95</v>
+        <v>AKPL/139474/274.98</v>
       </c>
       <c r="C39" t="str">
-        <v>NGPL/92837/398.31</v>
+        <v>NGPL/88902/398.36</v>
       </c>
       <c r="D39" t="str">
         <v>NRN/7303/2,036.68</v>
       </c>
       <c r="E39" t="str">
-        <v>CREST/8076/1,718.16</v>
+        <v>CREST/8679/1,707.40</v>
       </c>
       <c r="F39" t="str">
-        <v>CHDC/4606/2,630.79</v>
+        <v>CHDC/4376/2,629.40</v>
       </c>
     </row>
     <row r="40">
@@ -1202,19 +1202,19 @@
         <v>B48</v>
       </c>
       <c r="B40" t="str">
-        <v>GHL/359613/264.03</v>
+        <v>GHL/387426/263.80</v>
       </c>
       <c r="C40" t="str">
-        <v>MEN/72998/625.97</v>
+        <v>SHPC/98287/616.47</v>
       </c>
       <c r="D40" t="str">
-        <v>SHIVM/86365/522.65</v>
+        <v>SHIVM/86657/522.37</v>
       </c>
       <c r="E40" t="str">
-        <v>HPPL/70536/559.66</v>
+        <v>MEN/58257/625.70</v>
       </c>
       <c r="F40" t="str">
-        <v>SHPC/57473/610.55</v>
+        <v>HIDCLP/202840/213.42</v>
       </c>
     </row>
     <row r="41">
@@ -1222,19 +1222,19 @@
         <v>B49</v>
       </c>
       <c r="B41" t="str">
-        <v>SHEL/198245/284.47</v>
+        <v>SHEL/165529/286.80</v>
       </c>
       <c r="C41" t="str">
-        <v>NGPL/90209/395.85</v>
+        <v>RADHI/54582/795.67</v>
       </c>
       <c r="D41" t="str">
-        <v>RADHI/45441/793.16</v>
+        <v>SHIVM/73473/522.56</v>
       </c>
       <c r="E41" t="str">
-        <v>SHIVM/67811/522.99</v>
+        <v>NGPL/78727/396.23</v>
       </c>
       <c r="F41" t="str">
-        <v>API/94551/301.51</v>
+        <v>API/104213/301.35</v>
       </c>
     </row>
     <row r="42">
@@ -1242,19 +1242,19 @@
         <v>B50</v>
       </c>
       <c r="B42" t="str">
-        <v>RADHI/445113/796.75</v>
+        <v>RADHI/444522/797.49</v>
       </c>
       <c r="C42" t="str">
-        <v>SHEL/120721/293.55</v>
+        <v>SHEL/123722/294.84</v>
       </c>
       <c r="D42" t="str">
-        <v>NGPL/88176/388.48</v>
+        <v>SAHAS/50550/549.43</v>
       </c>
       <c r="E42" t="str">
-        <v>SAHAS/46699/549.09</v>
+        <v>SHL/45918/580.61</v>
       </c>
       <c r="F42" t="str">
-        <v>SHL/40578/580.20</v>
+        <v>NGPL/76746/389.22</v>
       </c>
     </row>
     <row r="43">
@@ -1262,19 +1262,19 @@
         <v>B51</v>
       </c>
       <c r="B43" t="str">
-        <v>AHPC/63388/299.40</v>
+        <v>AHPC/66856/299.40</v>
       </c>
       <c r="C43" t="str">
-        <v>BARUN/46099/390.71</v>
+        <v>CHDC/6422/2,608.31</v>
       </c>
       <c r="D43" t="str">
-        <v>CHDC/6422/2,608.31</v>
+        <v>BARUN/42865/390.56</v>
       </c>
       <c r="E43" t="str">
-        <v>RADHI/16021/799.76</v>
+        <v>RADHI/16050/800.39</v>
       </c>
       <c r="F43" t="str">
-        <v>AKPL/48975/265.75</v>
+        <v>AKPL/47917/266.05</v>
       </c>
     </row>
     <row r="44">
@@ -1282,19 +1282,19 @@
         <v>B52</v>
       </c>
       <c r="B44" t="str">
-        <v>HIDCLP/131012/215.96</v>
+        <v>HIDCLP/130937/215.99</v>
       </c>
       <c r="C44" t="str">
-        <v>CHDC/8471/2,602.36</v>
+        <v>CHDC/8464/2,601.77</v>
       </c>
       <c r="D44" t="str">
-        <v>SHPC/29731/608.17</v>
+        <v>SHPC/33159/611.86</v>
       </c>
       <c r="E44" t="str">
-        <v>SHIVM/25528/521.87</v>
+        <v>SHIVM/26187/521.58</v>
       </c>
       <c r="F44" t="str">
-        <v>NRN/6530/2,027.78</v>
+        <v>NRN/6378/2,026.78</v>
       </c>
     </row>
     <row r="45">
@@ -1302,19 +1302,19 @@
         <v>B53</v>
       </c>
       <c r="B45" t="str">
-        <v>MLBL/35793/391.91</v>
+        <v>MLBL/34743/391.91</v>
       </c>
       <c r="C45" t="str">
-        <v>HURJA/40322/262.91</v>
+        <v>MEN/15352/612.56</v>
       </c>
       <c r="D45" t="str">
-        <v>SHL/14397/580.61</v>
+        <v>SHL/14497/580.62</v>
       </c>
       <c r="E45" t="str">
+        <v>HURJA/31292/263.00</v>
+      </c>
+      <c r="F45" t="str">
         <v>ULBSL/2461/3,346.70</v>
-      </c>
-      <c r="F45" t="str">
-        <v>MEN/13222/611.41</v>
       </c>
     </row>
     <row r="46">
@@ -1322,16 +1322,16 @@
         <v>B54</v>
       </c>
       <c r="B46" t="str">
-        <v>UPCL/204903/466.31</v>
+        <v>UPCL/212585/465.79</v>
       </c>
       <c r="C46" t="str">
-        <v>STC/14513/5,002.83</v>
+        <v>STC/14885/5,002.90</v>
       </c>
       <c r="D46" t="str">
-        <v>CHCL/39087/562.96</v>
+        <v>CHCL/41157/563.55</v>
       </c>
       <c r="E46" t="str">
-        <v>CYCL/8431/1,668.64</v>
+        <v>CYCL/8781/1,669.06</v>
       </c>
       <c r="F46" t="str">
         <v>SADBL/24191/425.13</v>
@@ -1342,19 +1342,19 @@
         <v>B55</v>
       </c>
       <c r="B47" t="str">
-        <v>GMLI/139981/2,574.45</v>
+        <v>GMLI/150336/2,565.54</v>
       </c>
       <c r="C47" t="str">
-        <v>NRIC/261838/1,295.52</v>
+        <v>NRIC/266826/1,294.93</v>
       </c>
       <c r="D47" t="str">
-        <v>NMIC/95312/1,823.11</v>
+        <v>NMIC/99642/1,817.40</v>
       </c>
       <c r="E47" t="str">
-        <v>NLG/116118/828.81</v>
+        <v>NLG/116218/828.76</v>
       </c>
       <c r="F47" t="str">
-        <v>HRL/34451/947.00</v>
+        <v>HRL/35792/945.94</v>
       </c>
     </row>
     <row r="48">
@@ -1362,19 +1362,19 @@
         <v>B56</v>
       </c>
       <c r="B48" t="str">
-        <v>UPCL/199657/458.01</v>
+        <v>BPCL/148070/726.91</v>
       </c>
       <c r="C48" t="str">
-        <v>NGPL/215567/402.22</v>
+        <v>UPCL/186491/457.63</v>
       </c>
       <c r="D48" t="str">
-        <v>BPCL/97959/705.61</v>
+        <v>NGPL/179552/402.45</v>
       </c>
       <c r="E48" t="str">
-        <v>SMHL/46611/1,002.07</v>
+        <v>SMHL/50411/1,003.33</v>
       </c>
       <c r="F48" t="str">
-        <v>BEDC/47456/706.74</v>
+        <v>HIDCLP/137564/218.86</v>
       </c>
     </row>
     <row r="49">
@@ -1382,19 +1382,19 @@
         <v>B57</v>
       </c>
       <c r="B49" t="str">
-        <v>CHCL/71810/565.56</v>
+        <v>CHCL/77600/566.26</v>
       </c>
       <c r="C49" t="str">
-        <v>MEN/54540/607.02</v>
+        <v>UPCL/62928/452.30</v>
       </c>
       <c r="D49" t="str">
-        <v>UPCL/67631/452.21</v>
+        <v>MEN/46712/607.75</v>
       </c>
       <c r="E49" t="str">
-        <v>AHPC/93456/297.85</v>
+        <v>NTC/31762/853.65</v>
       </c>
       <c r="F49" t="str">
-        <v>RFPL/44708/561.33</v>
+        <v>AKPL/86291/275.15</v>
       </c>
     </row>
     <row r="50">
@@ -1402,19 +1402,19 @@
         <v>B58</v>
       </c>
       <c r="B50" t="str">
-        <v>KBL/1204937/214.15</v>
+        <v>KBL/1208893/214.13</v>
       </c>
       <c r="C50" t="str">
-        <v>NRN/95569/2,031.64</v>
+        <v>HPPL/330683/537.73</v>
       </c>
       <c r="D50" t="str">
-        <v>HPPL/329422/536.57</v>
+        <v>NRN/88808/2,031.57</v>
       </c>
       <c r="E50" t="str">
-        <v>HIDCLP/762569/218.74</v>
+        <v>HIDCLP/811778/218.79</v>
       </c>
       <c r="F50" t="str">
-        <v>LSL/467112/220.43</v>
+        <v>LSL/467286/220.42</v>
       </c>
     </row>
     <row r="51">
@@ -1422,19 +1422,19 @@
         <v>B59</v>
       </c>
       <c r="B51" t="str">
-        <v>API/172476/302.12</v>
+        <v>API/170758/302.05</v>
       </c>
       <c r="C51" t="str">
-        <v>SHIVM/52592/522.46</v>
+        <v>SHIVM/54462/522.27</v>
       </c>
       <c r="D51" t="str">
-        <v>AHPC/51653/301.36</v>
+        <v>AHPC/57613/301.19</v>
       </c>
       <c r="E51" t="str">
         <v>ALICL/23460/680.44</v>
       </c>
       <c r="F51" t="str">
-        <v>HIDCLP/69196/213.82</v>
+        <v>HIDCLP/68118/213.87</v>
       </c>
     </row>
     <row r="52">
@@ -1442,19 +1442,19 @@
         <v>B60</v>
       </c>
       <c r="B52" t="str">
-        <v>RADHI/120132/802.29</v>
+        <v>SHPC/137760/631.84</v>
       </c>
       <c r="C52" t="str">
-        <v>SHPC/131142/630.29</v>
+        <v>RADHI/102477/802.65</v>
       </c>
       <c r="D52" t="str">
-        <v>BPCL/76203/703.95</v>
+        <v>BPCL/76018/704.30</v>
       </c>
       <c r="E52" t="str">
-        <v>SHL/92081/577.61</v>
+        <v>SHL/92381/577.68</v>
       </c>
       <c r="F52" t="str">
-        <v>HPPL/89181/529.41</v>
+        <v>UMHL/79015/539.56</v>
       </c>
     </row>
     <row r="53">
@@ -1462,19 +1462,19 @@
         <v>B61</v>
       </c>
       <c r="B53" t="str">
-        <v>RADHI/51178/815.09</v>
+        <v>RADHI/108296/823.31</v>
       </c>
       <c r="C53" t="str">
-        <v>NGPL/51970/400.65</v>
+        <v>CHDC/8109/2,617.28</v>
       </c>
       <c r="D53" t="str">
-        <v>CHDC/8109/2,617.28</v>
+        <v>UNHPL/40584/410.53</v>
       </c>
       <c r="E53" t="str">
-        <v>HIDCL/54149/308.72</v>
+        <v>NGPL/39740/400.65</v>
       </c>
       <c r="F53" t="str">
-        <v>HIDCLP/51753/218.27</v>
+        <v>HIDCL/46049/308.72</v>
       </c>
     </row>
     <row r="54">
@@ -1482,19 +1482,19 @@
         <v>B62</v>
       </c>
       <c r="B54" t="str">
-        <v>UMHL/271161/515.87</v>
+        <v>UNHPL/257137/388.89</v>
       </c>
       <c r="C54" t="str">
-        <v>UNHPL/252275/383.93</v>
+        <v>RADHI/76585/800.25</v>
       </c>
       <c r="D54" t="str">
-        <v>RADHI/77793/800.14</v>
+        <v>SPDL/91293/419.59</v>
       </c>
       <c r="E54" t="str">
-        <v>SPDL/99832/417.90</v>
+        <v>UMHL/78071/516.12</v>
       </c>
       <c r="F54" t="str">
-        <v>ANLB/4513/5,394.85</v>
+        <v>ANLB/4356/5,394.85</v>
       </c>
     </row>
     <row r="55">
@@ -1502,19 +1502,19 @@
         <v>B63</v>
       </c>
       <c r="B55" t="str">
-        <v>RADHI/49873/798.95</v>
+        <v>RADHI/51890/801.82</v>
       </c>
       <c r="C55" t="str">
-        <v>OMPL/9607/1,716.26</v>
+        <v>OMPL/8897/1,705.42</v>
       </c>
       <c r="D55" t="str">
         <v>NBL/55325/256.36</v>
       </c>
       <c r="E55" t="str">
-        <v>PPCL/41217/335.15</v>
+        <v>PPCL/33967/335.15</v>
       </c>
       <c r="F55" t="str">
-        <v>CHCL/22047/554.51</v>
+        <v>SHL/15408/581.78</v>
       </c>
     </row>
     <row r="56">
@@ -1522,19 +1522,19 @@
         <v>B64</v>
       </c>
       <c r="B56" t="str">
-        <v>BPCL/397155/646.94</v>
+        <v>BPCL/382176/651.47</v>
       </c>
       <c r="C56" t="str">
-        <v>NRN/19149/2,062.74</v>
+        <v>UNHPL/116881/415.81</v>
       </c>
       <c r="D56" t="str">
-        <v>UNHPL/81355/399.69</v>
+        <v>NRN/17984/2,062.74</v>
       </c>
       <c r="E56" t="str">
-        <v>SHL/52487/582.81</v>
+        <v>SHL/53287/582.84</v>
       </c>
       <c r="F56" t="str">
-        <v>CHDC/8881/2,564.01</v>
+        <v>MERO/36828/738.72</v>
       </c>
     </row>
     <row r="57">
@@ -1542,16 +1542,16 @@
         <v>B65</v>
       </c>
       <c r="B57" t="str">
-        <v>SARBTM/55580/841.40</v>
+        <v>SARBTM/55384/841.44</v>
       </c>
       <c r="C57" t="str">
-        <v>RFPL/70401/623.09</v>
+        <v>RFPL/64422/622.80</v>
       </c>
       <c r="D57" t="str">
-        <v>NIFRA/130337/282.68</v>
+        <v>SHPC/63304/612.39</v>
       </c>
       <c r="E57" t="str">
-        <v>SHPC/57827/609.56</v>
+        <v>NIFRA/132539/282.65</v>
       </c>
       <c r="F57" t="str">
         <v>SANIMA/106987/318.67</v>
@@ -1565,16 +1565,16 @@
         <v>HIDCL/96377/304.77</v>
       </c>
       <c r="C58" t="str">
-        <v>CHDC/8542/2,588.35</v>
+        <v>CHDC/9077/2,586.56</v>
       </c>
       <c r="D58" t="str">
-        <v>BPCL/29344/654.68</v>
+        <v>BPCL/34824/678.16</v>
       </c>
       <c r="E58" t="str">
-        <v>NRN/6093/2,026.41</v>
+        <v>NRN/7437/2,024.15</v>
       </c>
       <c r="F58" t="str">
-        <v>NGPL/29841/383.59</v>
+        <v>SBL/30841/301.24</v>
       </c>
     </row>
     <row r="59">
@@ -1582,19 +1582,19 @@
         <v>B67</v>
       </c>
       <c r="B59" t="str">
-        <v>RADHI/153398/786.20</v>
+        <v>RADHI/152648/786.27</v>
       </c>
       <c r="C59" t="str">
-        <v>HIDCL/168256/303.93</v>
+        <v>HIDCL/169206/303.90</v>
       </c>
       <c r="D59" t="str">
-        <v>MEN/45626/621.38</v>
+        <v>NGPL/90022/397.68</v>
       </c>
       <c r="E59" t="str">
-        <v>NGPL/65659/396.45</v>
+        <v>MEN/46066/621.54</v>
       </c>
       <c r="F59" t="str">
-        <v>UMHL/47870/511.55</v>
+        <v>UMHL/43337/511.92</v>
       </c>
     </row>
     <row r="60">
@@ -1602,19 +1602,19 @@
         <v>B68</v>
       </c>
       <c r="B60" t="str">
-        <v>HIDCLP/230535/211.74</v>
+        <v>HIDCLP/240105/211.96</v>
       </c>
       <c r="C60" t="str">
-        <v>NGPL/85159/387.64</v>
+        <v>NGPL/65988/388.00</v>
       </c>
       <c r="D60" t="str">
-        <v>BPCL/29230/596.91</v>
+        <v>BPCL/30221/602.31</v>
       </c>
       <c r="E60" t="str">
-        <v>AHPC/54836/299.27</v>
+        <v>UPCL/40961/447.69</v>
       </c>
       <c r="F60" t="str">
-        <v>UPCL/34135/447.34</v>
+        <v>AHPC/60275/299.27</v>
       </c>
     </row>
     <row r="61">
@@ -1622,19 +1622,19 @@
         <v>B69</v>
       </c>
       <c r="B61" t="str">
-        <v>BPCL/108169/713.11</v>
+        <v>BPCL/131480/734.34</v>
       </c>
       <c r="C61" t="str">
-        <v>SHL/99531/579.00</v>
+        <v>SHL/101534/579.29</v>
       </c>
       <c r="D61" t="str">
-        <v>SPDL/53053/427.77</v>
+        <v>SPDL/73753/433.03</v>
       </c>
       <c r="E61" t="str">
-        <v>SHEL/62622/289.99</v>
+        <v>CHDC/4400/2,573.09</v>
       </c>
       <c r="F61" t="str">
-        <v>CHDC/4340/2,573.38</v>
+        <v>EBL/14550/646.92</v>
       </c>
     </row>
     <row r="62">
@@ -1642,19 +1642,19 @@
         <v>B70</v>
       </c>
       <c r="B62" t="str">
-        <v>UNHPL/81017/391.31</v>
+        <v>BPCL/68571/644.92</v>
       </c>
       <c r="C62" t="str">
-        <v>BPCL/54551/626.95</v>
+        <v>UNHPL/76145/399.94</v>
       </c>
       <c r="D62" t="str">
-        <v>UPCL/35817/451.07</v>
+        <v>UPCL/36047/451.10</v>
       </c>
       <c r="E62" t="str">
-        <v>PRVU/71940/217.43</v>
+        <v>PRVU/70540/217.43</v>
       </c>
       <c r="F62" t="str">
-        <v>RADHI/16228/793.95</v>
+        <v>HIDCLP/66070/215.60</v>
       </c>
     </row>
     <row r="63">
@@ -1662,19 +1662,19 @@
         <v>B71</v>
       </c>
       <c r="B63" t="str">
-        <v>SHPC/32551/642.96</v>
+        <v>CHDC/9994/2,600.28</v>
       </c>
       <c r="C63" t="str">
-        <v>CHDC/8839/2,603.75</v>
+        <v>SHPC/32421/643.85</v>
       </c>
       <c r="D63" t="str">
-        <v>RADHI/19455/793.01</v>
+        <v>RADHI/28345/794.93</v>
       </c>
       <c r="E63" t="str">
-        <v>UPCL/33408/446.71</v>
+        <v>UPCL/31278/446.73</v>
       </c>
       <c r="F63" t="str">
-        <v>HIDCL/37141/311.05</v>
+        <v>HIDCL/41241/310.70</v>
       </c>
     </row>
     <row r="64">
@@ -1682,19 +1682,19 @@
         <v>B72</v>
       </c>
       <c r="B64" t="str">
-        <v>CORBL/37887/2,394.99</v>
+        <v>JOSHI/196157/432.34</v>
       </c>
       <c r="C64" t="str">
-        <v>SAPDBL/30099/992.80</v>
+        <v>CORBL/31240/2,395.03</v>
       </c>
       <c r="D64" t="str">
-        <v>NRN/7566/2,037.62</v>
+        <v>NRN/7716/2,037.25</v>
       </c>
       <c r="E64" t="str">
         <v>KBL/60299/208.32</v>
       </c>
       <c r="F64" t="str">
-        <v>LBBL/27251/447.53</v>
+        <v>LBBL/26251/447.53</v>
       </c>
     </row>
     <row r="65">
@@ -1702,19 +1702,19 @@
         <v>B73</v>
       </c>
       <c r="B65" t="str">
-        <v>TVCL/780/472.13</v>
+        <v>NICA/1000/343.00</v>
       </c>
       <c r="C65" t="str">
-        <v>NICA/1000/343.00</v>
+        <v>BHL/1400/211.96</v>
       </c>
       <c r="D65" t="str">
-        <v>BHL/1400/211.96</v>
+        <v>RHGCL/480/554.96</v>
       </c>
       <c r="E65" t="str">
-        <v>RHGCL/480/554.96</v>
+        <v>CHDC/82/2,712.71</v>
       </c>
       <c r="F65" t="str">
-        <v>CHDC/82/2,712.71</v>
+        <v>SONA/300/453.00</v>
       </c>
     </row>
     <row r="66">
@@ -1722,19 +1722,19 @@
         <v>B74</v>
       </c>
       <c r="B66" t="str">
-        <v>RADHI/68810/826.55</v>
+        <v>RADHI/68810/826.67</v>
       </c>
       <c r="C66" t="str">
-        <v>SAPDBL/29371/1,036.04</v>
+        <v>SAPDBL/29960/1,031.19</v>
       </c>
       <c r="D66" t="str">
-        <v>SKBBL/17007/802.67</v>
+        <v>SKBBL/18291/801.83</v>
       </c>
       <c r="E66" t="str">
         <v>NABIL/22068/493.34</v>
       </c>
       <c r="F66" t="str">
-        <v>NLIC/12962/755.06</v>
+        <v>NLIC/13586/754.48</v>
       </c>
     </row>
     <row r="67">
@@ -1742,19 +1742,19 @@
         <v>B75</v>
       </c>
       <c r="B67" t="str">
-        <v>CGH/33642/996.44</v>
+        <v>BPCL/46352/707.00</v>
       </c>
       <c r="C67" t="str">
-        <v>BPCL/40577/698.27</v>
+        <v>CGH/32547/997.32</v>
       </c>
       <c r="D67" t="str">
-        <v>SHPC/27091/632.64</v>
+        <v>HIDCLP/59256/222.14</v>
       </c>
       <c r="E67" t="str">
-        <v>HIDCLP/62256/222.16</v>
+        <v>SHPC/14924/633.48</v>
       </c>
       <c r="F67" t="str">
-        <v>RADHI/17396/780.03</v>
+        <v>HDHPC/43525/202.89</v>
       </c>
     </row>
     <row r="68">
@@ -1762,19 +1762,19 @@
         <v>B76</v>
       </c>
       <c r="B68" t="str">
-        <v>BPCL/81431/733.61</v>
+        <v>BPCL/80503/733.76</v>
       </c>
       <c r="C68" t="str">
-        <v>SHIVM/22677/519.75</v>
+        <v>SHIVM/23177/519.64</v>
       </c>
       <c r="D68" t="str">
-        <v>UMRH/6634/623.68</v>
+        <v>UMRH/6654/623.61</v>
       </c>
       <c r="E68" t="str">
-        <v>HIDCL/9526/314.20</v>
+        <v>HIDCL/9156/314.00</v>
       </c>
       <c r="F68" t="str">
-        <v>MEN/4614/581.73</v>
+        <v>AHPC/8251/300.58</v>
       </c>
     </row>
     <row r="69">
@@ -1782,19 +1782,19 @@
         <v>B77</v>
       </c>
       <c r="B69" t="str">
-        <v>BPCL/313024/632.03</v>
+        <v>BPCL/326188/640.47</v>
       </c>
       <c r="C69" t="str">
-        <v>NGPL/144259/403.11</v>
+        <v>NGPL/316069/405.98</v>
       </c>
       <c r="D69" t="str">
-        <v>AHPC/118148/306.45</v>
+        <v>HIDCLP/182615/216.58</v>
       </c>
       <c r="E69" t="str">
-        <v>HIDCLP/125990/215.67</v>
+        <v>AHPC/106418/306.44</v>
       </c>
       <c r="F69" t="str">
-        <v>MEN/39148/615.02</v>
+        <v>MEN/39288/615.03</v>
       </c>
     </row>
     <row r="70">
@@ -1802,19 +1802,19 @@
         <v>B78</v>
       </c>
       <c r="B70" t="str">
-        <v>CHDC/2956/2,643.70</v>
+        <v>CHDC/2981/2,643.09</v>
       </c>
       <c r="C70" t="str">
-        <v>ALICL/7268/690.33</v>
+        <v>ALICL/7249/690.33</v>
       </c>
       <c r="D70" t="str">
         <v>HIDCLP/21213/219.29</v>
       </c>
       <c r="E70" t="str">
-        <v>NGPL/10199/396.41</v>
+        <v>NGPL/10182/396.41</v>
       </c>
       <c r="F70" t="str">
-        <v>SINDU/3520/846.36</v>
+        <v>SINDU/4170/832.51</v>
       </c>
     </row>
     <row r="71">
@@ -1842,19 +1842,19 @@
         <v>B80</v>
       </c>
       <c r="B72" t="str">
-        <v>NIFRA/92287/287.08</v>
+        <v>NIFRA/91687/287.08</v>
       </c>
       <c r="C72" t="str">
-        <v>NMLBBL/38733/658.87</v>
+        <v>NMLBBL/38753/658.57</v>
       </c>
       <c r="D72" t="str">
-        <v>CHCL/23811/551.77</v>
+        <v>CHCL/24161/552.05</v>
       </c>
       <c r="E72" t="str">
-        <v>USLB/7033/1,849.46</v>
+        <v>USLB/6816/1,849.46</v>
       </c>
       <c r="F72" t="str">
-        <v>MEN/22955/590.92</v>
+        <v>MEN/21855/590.92</v>
       </c>
     </row>
     <row r="73">
@@ -1862,19 +1862,19 @@
         <v>B81</v>
       </c>
       <c r="B73" t="str">
-        <v>CHCL/133105/563.24</v>
+        <v>CHCL/145205/564.27</v>
       </c>
       <c r="C73" t="str">
-        <v>NGPL/161775/396.21</v>
+        <v>NGPL/153355/396.43</v>
       </c>
       <c r="D73" t="str">
-        <v>HRL/44828/965.59</v>
+        <v>HRL/47538/963.27</v>
       </c>
       <c r="E73" t="str">
-        <v>SHPC/54976/607.90</v>
+        <v>SHPC/64691/609.93</v>
       </c>
       <c r="F73" t="str">
-        <v>CHDC/9296/2,614.60</v>
+        <v>SHEL/85446/303.66</v>
       </c>
     </row>
     <row r="74">
@@ -1882,19 +1882,19 @@
         <v>B82</v>
       </c>
       <c r="B74" t="str">
-        <v>SHPC/49633/602.40</v>
+        <v>NRN/10135/2,043.73</v>
       </c>
       <c r="C74" t="str">
-        <v>NRN/10085/2,043.78</v>
+        <v>SHPC/41156/603.29</v>
       </c>
       <c r="D74" t="str">
-        <v>BPCL/15024/664.96</v>
+        <v>BPCL/15009/670.39</v>
       </c>
       <c r="E74" t="str">
-        <v>NGPL/25165/407.99</v>
+        <v>NICA/25422/372.12</v>
       </c>
       <c r="F74" t="str">
-        <v>NICA/25422/372.12</v>
+        <v>HRL/10704/951.92</v>
       </c>
     </row>
     <row r="75">
@@ -1902,13 +1902,13 @@
         <v>B83</v>
       </c>
       <c r="B75" t="str">
-        <v>HRL/29387/942.39</v>
+        <v>HRL/31387/940.79</v>
       </c>
       <c r="C75" t="str">
-        <v>NGPL/54985/401.66</v>
+        <v>NGPL/56107/401.79</v>
       </c>
       <c r="D75" t="str">
-        <v>SHPC/25918/627.47</v>
+        <v>SHPC/23268/628.41</v>
       </c>
       <c r="E75" t="str">
         <v>KPCL/20408/520.95</v>
@@ -1922,19 +1922,19 @@
         <v>B84</v>
       </c>
       <c r="B76" t="str">
-        <v>BPCL/54547/727.70</v>
+        <v>BPCL/60347/736.82</v>
       </c>
       <c r="C76" t="str">
-        <v>UPCL/84340/451.58</v>
+        <v>UPCL/86210/451.57</v>
       </c>
       <c r="D76" t="str">
+        <v>SADBL/75447/419.42</v>
+      </c>
+      <c r="E76" t="str">
         <v>HIDCL/98916/308.15</v>
       </c>
-      <c r="E76" t="str">
-        <v>SADBL/67875/421.04</v>
-      </c>
       <c r="F76" t="str">
-        <v>NGPL/63410/400.76</v>
+        <v>MKHL/36964/742.33</v>
       </c>
     </row>
     <row r="77">
@@ -1942,16 +1942,16 @@
         <v>B85</v>
       </c>
       <c r="B77" t="str">
-        <v>NGPL/233345/385.39</v>
+        <v>NGPL/245457/386.08</v>
       </c>
       <c r="C77" t="str">
-        <v>AHPC/86354/298.34</v>
+        <v>AHPC/87654/298.35</v>
       </c>
       <c r="D77" t="str">
-        <v>API/68186/302.76</v>
+        <v>API/69066/302.71</v>
       </c>
       <c r="E77" t="str">
-        <v>SHL/34921/584.18</v>
+        <v>SHL/35521/584.18</v>
       </c>
       <c r="F77" t="str">
         <v>SAHAS/27375/539.22</v>
@@ -1962,19 +1962,19 @@
         <v>B86</v>
       </c>
       <c r="B78" t="str">
-        <v>RADHI/31645/802.16</v>
+        <v>RADHI/32445/803.40</v>
       </c>
       <c r="C78" t="str">
-        <v>SHPC/26093/620.85</v>
+        <v>SHPC/34398/625.12</v>
       </c>
       <c r="D78" t="str">
-        <v>AKPL/30129/273.10</v>
+        <v>AKPL/30129/273.17</v>
       </c>
       <c r="E78" t="str">
+        <v>HURJA/28544/264.00</v>
+      </c>
+      <c r="F78" t="str">
         <v>NRN/3764/2,023.67</v>
-      </c>
-      <c r="F78" t="str">
-        <v>API/24520/299.69</v>
       </c>
     </row>
     <row r="79">
@@ -1982,19 +1982,19 @@
         <v>B87</v>
       </c>
       <c r="B79" t="str">
-        <v>RADHI/46393/805.12</v>
+        <v>BPCL/45815/744.11</v>
       </c>
       <c r="C79" t="str">
-        <v>BPCL/45810/741.74</v>
+        <v>RADHI/43283/807.47</v>
       </c>
       <c r="D79" t="str">
-        <v>CGH/8375/983.56</v>
+        <v>CGH/8369/986.37</v>
       </c>
       <c r="E79" t="str">
-        <v>NGPL/20266/389.48</v>
+        <v>GCIL/15198/511.72</v>
       </c>
       <c r="F79" t="str">
-        <v>AKPL/19202/281.15</v>
+        <v>NGPL/18616/389.48</v>
       </c>
     </row>
     <row r="80">
@@ -2002,19 +2002,19 @@
         <v>B88</v>
       </c>
       <c r="B80" t="str">
-        <v>SAPDBL/57028/1,049.78</v>
+        <v>SAPDBL/56511/1,049.69</v>
       </c>
       <c r="C80" t="str">
-        <v>CHCL/52076/568.72</v>
+        <v>CHCL/46179/568.75</v>
       </c>
       <c r="D80" t="str">
-        <v>CHDC/6080/2,583.07</v>
+        <v>NHPC/62613/222.68</v>
       </c>
       <c r="E80" t="str">
         <v>CORBL/4693/2,617.66</v>
       </c>
       <c r="F80" t="str">
-        <v>NHPC/51141/223.10</v>
+        <v>CHDC/4430/2,583.00</v>
       </c>
     </row>
     <row r="81">
@@ -2025,16 +2025,16 @@
         <v>GBIME/115853/238.63</v>
       </c>
       <c r="C81" t="str">
-        <v>BPCL/14320/690.01</v>
+        <v>CGH/10706/976.72</v>
       </c>
       <c r="D81" t="str">
-        <v>CGH/8106/967.10</v>
+        <v>BPCL/14010/692.82</v>
       </c>
       <c r="E81" t="str">
-        <v>UNHPL/17221/412.54</v>
+        <v>UNHPL/22951/421.63</v>
       </c>
       <c r="F81" t="str">
-        <v>MEN/8613/616.04</v>
+        <v>MEN/9613/616.76</v>
       </c>
     </row>
     <row r="82">
@@ -2042,13 +2042,13 @@
         <v>B90</v>
       </c>
       <c r="B82" t="str">
-        <v>HBL/113477/229.38</v>
+        <v>HBL/114477/229.17</v>
       </c>
       <c r="C82" t="str">
-        <v>API/58279/311.26</v>
+        <v>API/59629/310.93</v>
       </c>
       <c r="D82" t="str">
-        <v>SHPC/13752/627.50</v>
+        <v>SHPC/13252/627.54</v>
       </c>
       <c r="E82" t="str">
         <v>EBL/11126/631.20</v>
@@ -2062,19 +2062,19 @@
         <v>B91</v>
       </c>
       <c r="B83" t="str">
-        <v>RADHI/26644/796.99</v>
+        <v>RADHI/44363/802.12</v>
       </c>
       <c r="C83" t="str">
-        <v>NGPL/51677/393.40</v>
+        <v>BPCL/40118/698.85</v>
       </c>
       <c r="D83" t="str">
-        <v>BPCL/29649/670.68</v>
+        <v>CGH/16083/980.79</v>
       </c>
       <c r="E83" t="str">
-        <v>SARBTM/17594/843.02</v>
+        <v>SARBTM/17045/843.02</v>
       </c>
       <c r="F83" t="str">
-        <v>CHDC/5395/2,613.34</v>
+        <v>CHDC/5285/2,611.57</v>
       </c>
     </row>
     <row r="84">
@@ -2082,19 +2082,19 @@
         <v>B92</v>
       </c>
       <c r="B84" t="str">
-        <v>HIDCL/108971/303.82</v>
+        <v>HIDCL/119531/303.77</v>
       </c>
       <c r="C84" t="str">
-        <v>UPCL/36157/451.01</v>
+        <v>UPCL/39957/451.05</v>
       </c>
       <c r="D84" t="str">
-        <v>SHPC/18210/622.38</v>
+        <v>SHPC/16990/626.14</v>
       </c>
       <c r="E84" t="str">
-        <v>NGPL/19838/391.45</v>
+        <v>BPCL/10075/698.80</v>
       </c>
       <c r="F84" t="str">
-        <v>HRL/7729/956.16</v>
+        <v>NGPL/19028/391.61</v>
       </c>
     </row>
     <row r="85">
@@ -2102,7 +2102,7 @@
         <v>B93</v>
       </c>
       <c r="B85" t="str">
-        <v>MBJC/21250/335.67</v>
+        <v>MBJC/30661/334.45</v>
       </c>
       <c r="C85" t="str">
         <v>AKPL/22400/288.71</v>
@@ -2114,7 +2114,7 @@
         <v>MPFL/4420/614.53</v>
       </c>
       <c r="F85" t="str">
-        <v>CHCL/3727/547.24</v>
+        <v>CHCL/3800/547.64</v>
       </c>
     </row>
     <row r="86">
@@ -2122,19 +2122,19 @@
         <v>B94</v>
       </c>
       <c r="B86" t="str">
-        <v>RADHI/121500/792.89</v>
+        <v>RADHI/115661/793.48</v>
       </c>
       <c r="C86" t="str">
-        <v>MKHL/29722/745.21</v>
+        <v>MKHL/30282/745.20</v>
       </c>
       <c r="D86" t="str">
-        <v>NGPL/59209/393.50</v>
+        <v>SHL/32900/571.60</v>
       </c>
       <c r="E86" t="str">
-        <v>SHL/31700/571.31</v>
+        <v>PRIN/17725/844.95</v>
       </c>
       <c r="F86" t="str">
-        <v>PRIN/17725/844.95</v>
+        <v>SHIVM/26928/519.04</v>
       </c>
     </row>
     <row r="87">
@@ -2142,16 +2142,16 @@
         <v>B95</v>
       </c>
       <c r="B87" t="str">
-        <v>NGPL/71327/398.62</v>
+        <v>NGPL/65337/398.69</v>
       </c>
       <c r="C87" t="str">
-        <v>SHPC/37097/608.07</v>
+        <v>RADHI/22762/820.38</v>
       </c>
       <c r="D87" t="str">
-        <v>RADHI/21874/819.84</v>
+        <v>SHPC/29047/609.82</v>
       </c>
       <c r="E87" t="str">
-        <v>UPCL/31271/454.84</v>
+        <v>UPCL/28698/454.86</v>
       </c>
       <c r="F87" t="str">
         <v>NRN/4863/2,058.99</v>
@@ -2162,19 +2162,19 @@
         <v>B96</v>
       </c>
       <c r="B88" t="str">
-        <v>NRN/34584/2,043.38</v>
+        <v>NRN/33552/2,043.38</v>
       </c>
       <c r="C88" t="str">
-        <v>BPCL/56219/705.00</v>
+        <v>BPCL/66880/722.70</v>
       </c>
       <c r="D88" t="str">
-        <v>NICA/104431/365.65</v>
+        <v>NICA/104506/365.63</v>
       </c>
       <c r="E88" t="str">
-        <v>RADHI/38032/824.08</v>
+        <v>RADHI/36032/824.08</v>
       </c>
       <c r="F88" t="str">
-        <v>SHPC/50186/620.98</v>
+        <v>SHPC/30789/620.98</v>
       </c>
     </row>
     <row r="89">
@@ -2182,19 +2182,19 @@
         <v>B97</v>
       </c>
       <c r="B89" t="str">
-        <v>SADBL/23762/418.13</v>
+        <v>SHEL/46390/305.20</v>
       </c>
       <c r="C89" t="str">
-        <v>NRN/4572/2,027.62</v>
+        <v>NRN/4522/2,027.24</v>
       </c>
       <c r="D89" t="str">
-        <v>UPCL/19199/451.58</v>
+        <v>UPCL/19617/451.60</v>
       </c>
       <c r="E89" t="str">
-        <v>MEN/12450/632.82</v>
+        <v>MEN/13150/631.34</v>
       </c>
       <c r="F89" t="str">
-        <v>SPDL/13796/401.84</v>
+        <v>SADBL/16362/418.13</v>
       </c>
     </row>
     <row r="90">
@@ -2202,19 +2202,19 @@
         <v>B98</v>
       </c>
       <c r="B90" t="str">
-        <v>BPCL/54540/755.66</v>
+        <v>BPCL/46850/755.66</v>
       </c>
       <c r="C90" t="str">
-        <v>OMPL/9270/1,809.07</v>
+        <v>OMPL/9470/1,800.72</v>
       </c>
       <c r="D90" t="str">
         <v>AKPL/50024/283.71</v>
       </c>
       <c r="E90" t="str">
-        <v>SCB/11873/611.81</v>
+        <v>UNHPL/26525/418.57</v>
       </c>
       <c r="F90" t="str">
-        <v>SHIVM/12210/523.97</v>
+        <v>SCB/12167/611.86</v>
       </c>
     </row>
     <row r="91">
@@ -2222,19 +2222,19 @@
         <v>B99</v>
       </c>
       <c r="B91" t="str">
-        <v>SHEL/53965/296.49</v>
+        <v>SHEL/66715/301.06</v>
       </c>
       <c r="C91" t="str">
-        <v>BPCL/15186/653.78</v>
+        <v>HIDCLP/59115/212.58</v>
       </c>
       <c r="D91" t="str">
-        <v>CGH/8086/994.57</v>
+        <v>CGH/6086/994.57</v>
       </c>
       <c r="E91" t="str">
-        <v>CHDC/2190/2,618.80</v>
+        <v>CHDC/2140/2,618.80</v>
       </c>
       <c r="F91" t="str">
-        <v>HIDCLP/30115/210.30</v>
+        <v>RHPL/13287/418.55</v>
       </c>
     </row>
     <row r="92">
@@ -2242,16 +2242,16 @@
         <v>B100</v>
       </c>
       <c r="B92" t="str">
-        <v>MLBL/159943/389.05</v>
+        <v>MLBL/169941/388.92</v>
       </c>
       <c r="C92" t="str">
-        <v>KSBBL/57693/449.75</v>
+        <v>KSBBL/62692/449.50</v>
       </c>
       <c r="D92" t="str">
-        <v>PHCL/44005/581.11</v>
+        <v>PHCL/44045/581.04</v>
       </c>
       <c r="E92" t="str">
-        <v>BPCL/28853/739.80</v>
+        <v>BPCL/30407/760.95</v>
       </c>
       <c r="F92" t="str">
         <v>LBBL/44169/448.48</v>
@@ -2265,16 +2265,16 @@
         <v>AHPC/37574/305.90</v>
       </c>
       <c r="C93" t="str">
-        <v>CHDC/4087/2,645.00</v>
+        <v>HIDCLP/52850/218.54</v>
       </c>
       <c r="D93" t="str">
-        <v>HIDCLP/48250/217.46</v>
+        <v>AKPL/35200/276.61</v>
       </c>
       <c r="E93" t="str">
-        <v>AKPL/35550/276.61</v>
+        <v>CHDC/2587/2,645.00</v>
       </c>
       <c r="F93" t="str">
-        <v>RADHI/9917/817.89</v>
+        <v>RADHI/8467/817.89</v>
       </c>
     </row>
   </sheetData>
